--- a/P0013/09_FICHAS/N3-FD-General.xlsx
+++ b/P0013/09_FICHAS/N3-FD-General.xlsx
@@ -1,31 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0013\09_FICHAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0013/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB568217-8B5E-4575-9351-15D5A2E362BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="335" documentId="13_ncr:1_{DB568217-8B5E-4575-9351-15D5A2E362BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C6B9349-4686-4297-BEB5-8DAD0CACFDB9}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="17280" windowHeight="6690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="30525" yWindow="1740" windowWidth="14340" windowHeight="7245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$P$124</definedName>
+  </definedNames>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="496">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -84,7 +98,7 @@
     <t>R0001</t>
   </si>
   <si>
-    <t>ACHI — EQUIPAMIENTOS_RURALES</t>
+    <t>EQUIPAMIENTOS_RURALES</t>
   </si>
   <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/ACHI/07 Cartografia/GDB/ACHI.gdb</t>
@@ -93,225 +107,228 @@
     <t xml:space="preserve">Cartografia base </t>
   </si>
   <si>
-    <t>Shape file, geometría tipo punto,  de Equipamientos rurales de Achi contiene en su tabla de atributos informacion de : Tipo de cubierta, Uso, Armazón</t>
+    <t>Shapefile, geometría tipo punto,  de Equipamientos rurales de Achi contiene en su tabla de atributos informacion de : Tipo de cubierta, Uso, Armazón</t>
   </si>
   <si>
     <t>Feature class</t>
   </si>
   <si>
-    <t>.gdb</t>
+    <t>gdb</t>
   </si>
   <si>
     <t>MEDIO SOCIOECONÓMICO</t>
   </si>
   <si>
+    <t>Punto</t>
+  </si>
+  <si>
+    <t>Vector</t>
+  </si>
+  <si>
+    <t>DESCONOCIDO</t>
+  </si>
+  <si>
+    <t>La gdb contienen 61 objetos geográficos con geometrías tipo polígonos (45), polilínea (13) y puntos (3).  Muchas capas son información general que no entraría en el modelo de toma de decisiones</t>
+  </si>
+  <si>
+    <t>Achí, Equipamientos Rurales, Tipo de cubierta,  Uso,  Armazón</t>
+  </si>
+  <si>
+    <t>R0002</t>
+  </si>
+  <si>
+    <t>VIAS_RURALES_EN_RIESGO</t>
+  </si>
+  <si>
+    <t>Shapefile, geometría tipo línea,  de vías rurales en riesgo de Achi contiene en su tabla de atributos informacion de : Tipo (Caminos y senderos, Veredal, municipal...etc)</t>
+  </si>
+  <si>
+    <t>Línea</t>
+  </si>
+  <si>
+    <t>Achí, Vias, Caminos, Senderos, Veredal, Municipal, Estado</t>
+  </si>
+  <si>
+    <t>R0003</t>
+  </si>
+  <si>
+    <t>Vias_regional</t>
+  </si>
+  <si>
+    <t>Shapefile, geometría tipo línea de vías regionales de Achi contiene en su tabla de atributos informacion de: Tipo de vía, Estado, Accesibilidad, Tipo;Clasificación vial</t>
+  </si>
+  <si>
+    <t>Achí, Tipo de vía, Estado, Accesibilidad, Tipo, Clasificación vial</t>
+  </si>
+  <si>
+    <t>R0004</t>
+  </si>
+  <si>
+    <t>EEP_URBANA</t>
+  </si>
+  <si>
+    <t>Shapefile, geometría tipo polígono, de Estructura Ecológica Principal (EEP), contiene en su tabla de atributo los tipos: Rondas hídricas, ríos, pantanos, rondas hídricas</t>
+  </si>
+  <si>
+    <t>AMBIENTAL</t>
+  </si>
+  <si>
+    <t>Polígono</t>
+  </si>
+  <si>
+    <t>Achí, Estructura Ecológica Principal (EEP), Urbano, Rondas hídricas, ríos, pantanos, rondas hídricas</t>
+  </si>
+  <si>
+    <t>R0005</t>
+  </si>
+  <si>
+    <t>EEP_RURAL</t>
+  </si>
+  <si>
+    <t>Shapefile, geometría tipo polígono, de Estructura Ecológica Principal (EEP) Rurales, contiene en su tabla de atributo los tipos: Rondas hídricas, ríos, pantanos, rondas hídricas</t>
+  </si>
+  <si>
+    <t>Achí, Estructura Ecológica Principal (EEP), Rural, Rondas hídricas, ríos, pantanos, rondas hídricas</t>
+  </si>
+  <si>
+    <t>R0006</t>
+  </si>
+  <si>
+    <t>ECOSISTEMAS_RURALES</t>
+  </si>
+  <si>
+    <t>Shapefile, geometría tipo polígono, de Ecosistemas Rurales, contiene en su tabla de atributo los tipos: Zonas de agua, de transición, terrestres</t>
+  </si>
+  <si>
+    <t>MEDIO BIÓTICO</t>
+  </si>
+  <si>
+    <t>Achí, Ecosistemas, Rural, Zonas de agua, transición, terrestres</t>
+  </si>
+  <si>
+    <t>R0007</t>
+  </si>
+  <si>
+    <t>ECOSISTEMAS_URBANOS</t>
+  </si>
+  <si>
+    <t>Shapefile, geometría tipo polígono, de Ecosistemas Rurales, contiene en su tabla de atributo los tipos: Seco, Transición, Permanente</t>
+  </si>
+  <si>
+    <t>Achí, Ecosistemas, Urbano, Seco, Agua permanente</t>
+  </si>
+  <si>
+    <t>R0008</t>
+  </si>
+  <si>
+    <t>CONSERVACION_PROTECCION_AMB</t>
+  </si>
+  <si>
+    <t>Shapefile, geometría tipo polígono, de Conservación y protección ambiental, contiene en su tabla de atributo los tipos: Rondas rios, ronda cienagas, bosques, ciénagas.  Tambien tiene el área de cada poligono</t>
+  </si>
+  <si>
+    <t>ÁREAS DE CONSERVACIÓN Y PROTECCIÓN</t>
+  </si>
+  <si>
+    <t>Achí, Rondas rios, ronda cienagas, bosques, ciénagas</t>
+  </si>
+  <si>
+    <t>R0009</t>
+  </si>
+  <si>
+    <t>AMENAZA_POR_INUNDACION_RURAL</t>
+  </si>
+  <si>
+    <t>Shapefile, geometría tipo polígono de Amenaza por inundación rural.  La tabla de atributo contiene los tipos de amenaza: media, baja, alta, sin amenaza</t>
+  </si>
+  <si>
+    <t>GESTIÓN DEL RIESGO</t>
+  </si>
+  <si>
+    <t>Achí, Amenaza, Inundación, Media, Alta, Sin Amenaza</t>
+  </si>
+  <si>
+    <t>R0010</t>
+  </si>
+  <si>
+    <t>AREAS_DE_ACTIVIDAD</t>
+  </si>
+  <si>
+    <t>Shapefile, geometría tipo polígono de Areas de actividad.  La tabla de atributo contiene información de Tipos de amenazas, clasficación del suelo, tratamiento (Productividad, Seguridad alimentaria, vocación), uso principal, ecosistema</t>
+  </si>
+  <si>
+    <t>Achí, Amenazas, Clasficación del suelo, Productividad, Seguridad alimentaria, Vocación, Uso principal, Ecosistema</t>
+  </si>
+  <si>
+    <t>R0011</t>
+  </si>
+  <si>
+    <t>PDF</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/ACHI/07 Cartografia/PDF</t>
+  </si>
+  <si>
+    <t>Mapas en PDF de la cartografía base usada para la elaboración del POT del municipio de Achí</t>
+  </si>
+  <si>
+    <t>pdf</t>
+  </si>
+  <si>
+    <t>MEDIO SOCIOECONÓMICO, MEDIO BIÓTICO, GESTIÓN DEL RIESGO, ÁREAS DE CONSERVACIÓN Y PROTECCIÓN AMBIENTAL</t>
+  </si>
+  <si>
+    <t>Polígono;Línea;Puntos</t>
+  </si>
+  <si>
+    <t>Esta carpeta contiene 33 archivos en formato .pdf que corresponden a la composición de los mapas por cada información base utilizada para la elaboración del POT del municipio de Achí</t>
+  </si>
+  <si>
+    <t>Achí, EOT, Esquema Regional, Equipamientos Rurales, Red Vial, Ecosistemas, Areas, Uso de Suelo, Tratamientos Urbano/Rural, Centros Poblados, Drenajes, Modelo Ocupación, Sistema Ambiental, Areas con condiciones de Riesgo, EEP, Espacio Público, Amenazas por Inundación</t>
+  </si>
+  <si>
+    <t>R0012</t>
+  </si>
+  <si>
+    <t>PROGRAMAEJECUCION_CABECERA</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/ACHI/07 Cartografia/GDB/KMZ/ACHI/FUNCIONAL_SERVICIOS/PROGRAMAEJECUCION_CABECERA.kmz</t>
+  </si>
+  <si>
+    <t>Kmz con información de cabecera municipal</t>
+  </si>
+  <si>
+    <t>KMZ</t>
+  </si>
+  <si>
+    <t>kmz</t>
+  </si>
+  <si>
+    <t>linea</t>
+  </si>
+  <si>
+    <t>dentro de la .gdb Achi no se encontró este archivo, por tanto se incluye.  Contiene una polilínea y una capa de polígono</t>
+  </si>
+  <si>
+    <t>Achí, EOT, Equipamientos Rurales</t>
+  </si>
+  <si>
+    <t>PR0009</t>
+  </si>
+  <si>
+    <t>R0013</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/Caimito/07_Cartografia/GEODATABASE/CAIMITO.gdb</t>
+  </si>
+  <si>
+    <t>Shapefile, geometría tipo punto, de equipamientos rurales de Caimito, contiene en su tabla de atributos informacion de : Tipo de cubierta, Uso, Armazón</t>
+  </si>
+  <si>
     <t>punto</t>
   </si>
   <si>
-    <t>Vector</t>
-  </si>
-  <si>
-    <t>DESCONOCIDO</t>
-  </si>
-  <si>
-    <t>La gdb contienen 61 objetos geográficos con geometrías tipo polígonos (45), polilínea (13) y puntos (3).  Muchas capas son información general que no entraría en el modelo de toma de decisiones</t>
-  </si>
-  <si>
-    <t>Achí, Equipamientos Rurales, Tipo de cubierta,  Uso,  Armazón</t>
-  </si>
-  <si>
-    <t>R0002</t>
-  </si>
-  <si>
-    <t>ACHI — VIAS_RURALES_EN_RIESGO</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo línea,  de vías rurales en riesgo de Achi contiene en su tabla de atributos informacion de : Tipo (Caminos y senderos, Veredal, municipal...etc)</t>
-  </si>
-  <si>
-    <t>linea</t>
-  </si>
-  <si>
-    <t>Achí, Vias, Caminos, Senderos, Veredal, Municipal, Estado</t>
-  </si>
-  <si>
-    <t>R0003</t>
-  </si>
-  <si>
-    <t>ACHI — Vias_regional</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo línea de vías regionales de Achi contiene en su tabla de atributos informacion de: Tipo de vía, Estado, Accesibilidad, Tipo;Clasificación vial</t>
-  </si>
-  <si>
-    <t>Achí, Tipo de vía, Estado, Accesibilidad, Tipo, Clasificación vial</t>
-  </si>
-  <si>
-    <t>R0004</t>
-  </si>
-  <si>
-    <t>ACHI — EEP_URBANA</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo polígono, de Estructura Ecológica Principal (EEP), contiene en su tabla de atributo los tipos: Rondas hídricas, ríos, pantanos, rondas hídricas</t>
-  </si>
-  <si>
-    <t>AMBIENTAL</t>
-  </si>
-  <si>
-    <t>Polígono</t>
-  </si>
-  <si>
-    <t>Achí, Estructura Ecológica Principal (EEP), Urbano, Rondas hídricas, ríos, pantanos, rondas hídricas</t>
-  </si>
-  <si>
-    <t>R0005</t>
-  </si>
-  <si>
-    <t>ACHI — EEP_RURAL</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo polígono, de Estructura Ecológica Principal (EEP) Rurales, contiene en su tabla de atributo los tipos: Rondas hídricas, ríos, pantanos, rondas hídricas</t>
-  </si>
-  <si>
-    <t>Achí, Estructura Ecológica Principal (EEP), Rural, Rondas hídricas, ríos, pantanos, rondas hídricas</t>
-  </si>
-  <si>
-    <t>R0006</t>
-  </si>
-  <si>
-    <t>ACHI — ECOSISTEMAS_RURALES</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo polígono, de Ecosistemas Rurales, contiene en su tabla de atributo los tipos: Zonas de agua, de transición, terrestres</t>
-  </si>
-  <si>
-    <t>MEDIO BIÓTICO</t>
-  </si>
-  <si>
-    <t>Achí, Ecosistemas, Rural, Zonas de agua, transición, terrestres</t>
-  </si>
-  <si>
-    <t>R0007</t>
-  </si>
-  <si>
-    <t>ACHI — ECOSISTEMAS_URBANOS</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo polígono, de Ecosistemas Rurales, contiene en su tabla de atributo los tipos: Seco, Transición, Permanente</t>
-  </si>
-  <si>
-    <t>Achí, Ecosistemas, Urbano, Seco, Agua permanente</t>
-  </si>
-  <si>
-    <t>R0008</t>
-  </si>
-  <si>
-    <t>ACHI — CONSERVACION_PROTECCION_AMB</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo polígono, de Conservación y protección ambiental, contiene en su tabla de atributo los tipos: Rondas rios, ronda cienagas, bosques, ciénagas.  Tambien tiene el área de cada poligono</t>
-  </si>
-  <si>
-    <t>ÁREAS DE CONSERVACIÓN Y PROTECCIÓN</t>
-  </si>
-  <si>
-    <t>Achí, Rondas rios, ronda cienagas, bosques, ciénagas</t>
-  </si>
-  <si>
-    <t>R0009</t>
-  </si>
-  <si>
-    <t>ACHI — AMENAZA_POR_INUNDACION_RURAL</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo polígono de Amenaza por inundación rural.  La tabla de atributo contiene los tipos de amenaza: media, baja, alta, sin amenaza</t>
-  </si>
-  <si>
-    <t>GESTIÓN DEL RIESGO</t>
-  </si>
-  <si>
-    <t>Achí, Amenaza, Inundación, Media, Alta, Sin Amenaza</t>
-  </si>
-  <si>
-    <t>R0010</t>
-  </si>
-  <si>
-    <t>ACHI — AREAS_DE_ACTIVIDAD</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo polígono de Areas de actividad.  La tabla de atributo contiene información de Tipos de amenazas, clasficación del suelo, tratamiento (Productividad, Seguridad alimentaria, vocación), uso principal, ecosistema</t>
-  </si>
-  <si>
-    <t>Achí, Amenazas, Clasficación del suelo, Productividad, Seguridad alimentaria, Vocación, Uso principal, Ecosistema</t>
-  </si>
-  <si>
-    <t>R0011</t>
-  </si>
-  <si>
-    <t>PDF</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/ACHI/07 Cartografia/PDF</t>
-  </si>
-  <si>
-    <t>Mapas en PDF de la cartografía base usada para la elaboración del POT del municipio de Achí</t>
-  </si>
-  <si>
-    <t>.pdf</t>
-  </si>
-  <si>
-    <t>MEDIO SOCIOECONÓMICO, MEDIO BIÓTICO, GESTIÓN DEL RIESGO, ÁREAS DE CONSERVACIÓN Y PROTECCIÓN AMBIENTAL</t>
-  </si>
-  <si>
-    <t>Polígono;Línea;Puntos</t>
-  </si>
-  <si>
-    <t>Esta carpeta contiene 33 archivos en formato .pdf que corresponden a la composición de los mapas por cada información base utilizada para la elaboración del POT del municipio de Achí</t>
-  </si>
-  <si>
-    <t>Achí, EOT, Esquema Regional, Equipamientos Rurales, Red Vial, Ecosistemas, Areas, Uso de Suelo, Tratamientos Urbano/Rural, Centros Poblados, Drenajes, Modelo Ocupación, Sistema Ambiental, Areas con condiciones de Riesgo, EEP, Espacio Público, Amenazas por Inundación</t>
-  </si>
-  <si>
-    <t>R0012</t>
-  </si>
-  <si>
-    <t>PROGRAMAEJECUCION_CABECERA.kmz</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/ACHI/07 Cartografia/GDB/KMZ/ACHI/FUNCIONAL_SERVICIOS</t>
-  </si>
-  <si>
-    <t>Kmz con información de cabecera municipal</t>
-  </si>
-  <si>
-    <t>KMZ</t>
-  </si>
-  <si>
-    <t>.kmz</t>
-  </si>
-  <si>
-    <t>dentro de la .gdb Achi no se encontró este archivo, por tanto se incluye.  Contiene una polilínea y una capa de polígono</t>
-  </si>
-  <si>
-    <t>Achí, EOT, Equipamientos Rurales</t>
-  </si>
-  <si>
-    <t>PR0009</t>
-  </si>
-  <si>
-    <t>R0013</t>
-  </si>
-  <si>
-    <t>CAIMITO — EQUIPAMIENTOS_RURALES</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/Caimito/07_Cartografia/GEODATABASE/CAIMITO.gdb</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo punto, de equipamientos rurales de Caimito, contiene en su tabla de atributos informacion de : Tipo de cubierta, Uso, Armazón</t>
-  </si>
-  <si>
     <t>La gdb contienen 61 objetos geográficos con geometrías tipo polígonos (44), polilínea (14) y puntos (3).  Muchas capas son información general que no entraría en el modelo de toma de decisiones</t>
   </si>
   <si>
@@ -321,10 +338,7 @@
     <t>R0014</t>
   </si>
   <si>
-    <t>CAIMITO — VIAS_RURALES_EN_RIESGO</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo línea, de vías rurales en riesgo de Caimito contiene en su tabla de atributos informacion de : Tipo (Caminos y senderos,Veredal, municipal...etc)</t>
+    <t>Shapefile, geometría tipo línea, de vías rurales en riesgo de Caimito contiene en su tabla de atributos informacion de : Tipo (Caminos y senderos,Veredal, municipal...etc)</t>
   </si>
   <si>
     <t>Caimito, Caminos, Senderos, Veredal, Municipal, Estado</t>
@@ -333,10 +347,7 @@
     <t>R0015</t>
   </si>
   <si>
-    <t>CAIMITO — Vias_regional</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo línea,  de vías regionales de Caimito contiene en su tabla de atributos informacion de: Tipo de vía, Estado, Accesibilidad, Tipo;Clasificación vial</t>
+    <t>Shapefile, geometría tipo línea,  de vías regionales de Caimito contiene en su tabla de atributos informacion de: Tipo de vía, Estado, Accesibilidad, Tipo;Clasificación vial</t>
   </si>
   <si>
     <t>Caimito, Tipo de vía, Estado, Accesibilidad, Tipo, Clasificación vial</t>
@@ -345,10 +356,10 @@
     <t>R0016</t>
   </si>
   <si>
-    <t>CAIMITO — PRODUCCION_PROTECCION</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo polígono, de producción / protección de Caimito, la tabla de atributo contiene información de la temporada, ecosistemas, protección, amenaza, clasificacion del suelo, tratamiento</t>
+    <t>PRODUCCION_PROTECCION</t>
+  </si>
+  <si>
+    <t>Shapefile, geometría tipo polígono, de producción / protección de Caimito, la tabla de atributo contiene información de la temporada, ecosistemas, protección, amenaza, clasificacion del suelo, tratamiento</t>
   </si>
   <si>
     <t>Caimito, Temporada climática, Ecosistemas, Protección, Amenaza, Clasificacion del suelo, Tratamiento</t>
@@ -357,10 +368,10 @@
     <t>R0017</t>
   </si>
   <si>
-    <t>CAIMITO — Capacidad_agricola</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo polígono, de capacidad agrícola de Caimito, la tabla de atributo contiene información de clasificación agrícola</t>
+    <t>Capacidad_agricola</t>
+  </si>
+  <si>
+    <t>Shapefile, geometría tipo polígono, de capacidad agrícola de Caimito, la tabla de atributo contiene información de clasificación agrícola</t>
   </si>
   <si>
     <t>Caimito, Capacidad, Agrícola, áreas</t>
@@ -369,10 +380,10 @@
     <t>R0018</t>
   </si>
   <si>
-    <t>CAIMITO — AREAS_ACTIVIDAD</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo polígono de Areas de actividad de Caimito.  La tabla de atributo contiene información de Tipos de amenazas, clasficación del suelo, tratamiento (Productividad, Seguridad alimentaria, vocación), uso principal, ecosistema</t>
+    <t>AREAS_ACTIVIDAD</t>
+  </si>
+  <si>
+    <t>Shapefile, geometría tipo polígono de Areas de actividad de Caimito.  La tabla de atributo contiene información de Tipos de amenazas, clasficación del suelo, tratamiento (Productividad, Seguridad alimentaria, vocación), uso principal, ecosistema</t>
   </si>
   <si>
     <t>Caimito, Clasficación del suelo, Productividad, Seguridad alimentaria, Vocación, Uso principal, Ecosistema</t>
@@ -381,10 +392,10 @@
     <t>R0019</t>
   </si>
   <si>
-    <t>CAIMITO — EEP_urbana</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo polígono, de Estructura Ecológica Principal (EEP) de Caimito, contiene en su tabla de atributo los tipos: Rondas hìdricas, ríos, pantanos, rondas hídricas</t>
+    <t>EEP_urbana</t>
+  </si>
+  <si>
+    <t>Shapefile, geometría tipo polígono, de Estructura Ecológica Principal (EEP) de Caimito, contiene en su tabla de atributo los tipos: Rondas hìdricas, ríos, pantanos, rondas hídricas</t>
   </si>
   <si>
     <t>Caimito, Estructura Ecológica Principal (EEP), Urbano, Rondas hídricas, ríos, pantanos, rondas hídricas</t>
@@ -393,10 +404,10 @@
     <t>R0020</t>
   </si>
   <si>
-    <t>CAIMITO — EEP</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo polígono, de Estructura Ecológica Principal (EEP) Rurales de Caimito, contiene en su tabla de atributo los tipos: Rondas hídricas, ríos, pantanos, rondas hídricas</t>
+    <t>EEP</t>
+  </si>
+  <si>
+    <t>Shapefile, geometría tipo polígono, de Estructura Ecológica Principal (EEP) Rurales de Caimito, contiene en su tabla de atributo los tipos: Rondas hídricas, ríos, pantanos, rondas hídricas</t>
   </si>
   <si>
     <t>Caimito, Estructura Ecológica Principal (EEP), Rural, Rondas hídricas, ríos, pantanos, rondas hídricas</t>
@@ -405,7 +416,7 @@
     <t>R0021</t>
   </si>
   <si>
-    <t>CAIMITO — Ecosistemas_Urbanos</t>
+    <t>Ecosistemas_Urbanos</t>
   </si>
   <si>
     <t>Caimito, Ecosistemas, Urbano, Seco, Agua permanente</t>
@@ -414,7 +425,7 @@
     <t>R0022</t>
   </si>
   <si>
-    <t>CAIMITO — Ecosistemas</t>
+    <t>Ecosistemas</t>
   </si>
   <si>
     <t>Caimito, Ecosistemas, Rural, Zonas de agua, transición, terrestres</t>
@@ -423,18 +434,12 @@
     <t>R0023</t>
   </si>
   <si>
-    <t>CAIMITO — CONSERVACION_PROTECCION_AMB</t>
-  </si>
-  <si>
     <t>Caimito, Rondas rios, ronda cienagas, bosques, ciénagas</t>
   </si>
   <si>
     <t>R0024</t>
   </si>
   <si>
-    <t>CAIMITO — AMENAZA_POR_INUNDACION_RURAL</t>
-  </si>
-  <si>
     <t>Caimito, Amenaza, Inundación, Media, Alta, Sin Amenaza</t>
   </si>
   <si>
@@ -459,7 +464,7 @@
     <t>R0026</t>
   </si>
   <si>
-    <t>GUARANDA — EQUIPAMIENTOS_RURALES_EN_RIESGO</t>
+    <t>EQUIPAMIENTOS_RURALES_EN_RIESGO</t>
   </si>
   <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/Guaranda/07_Cartografia/GEODATABASE/GUARANDA.gdb</t>
@@ -477,10 +482,7 @@
     <t>R0027</t>
   </si>
   <si>
-    <t>GUARANDA — VIAS_RURALES_EN_RIESGO</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo línea,  de vías regionales de Guranda contiene en su tabla de atributos informacion de: Tipo de vía, Estado, Accesibilidad, Tipo;Clasificación vial</t>
+    <t>Shapefile, geometría tipo línea,  de vías regionales de Guranda contiene en su tabla de atributos informacion de: Tipo de vía, Estado, Accesibilidad, Tipo;Clasificación vial</t>
   </si>
   <si>
     <t>Guaranda, Caminos, Senderos, Veredal, Municipal, Estado</t>
@@ -489,10 +491,10 @@
     <t>R0028</t>
   </si>
   <si>
-    <t>GUARANDA — VIAS_REGIONAL</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo línea,  de vías regionales de Guaranda contiene en su tabla de atributos informacion de: Tipo de vía, Estado, Accesibilidad, Tipo;Clasificación vial</t>
+    <t>VIAS_REGIONAL</t>
+  </si>
+  <si>
+    <t>Shapefile, geometría tipo línea,  de vías regionales de Guaranda contiene en su tabla de atributos informacion de: Tipo de vía, Estado, Accesibilidad, Tipo;Clasificación vial</t>
   </si>
   <si>
     <t>Guaranda, Tipo de vía, Estado, Accesibilidad, Tipo, Clasificación vial</t>
@@ -501,7 +503,7 @@
     <t>R0029</t>
   </si>
   <si>
-    <t>GUARANDA — AMENAZA_INUNDACION_RURAL</t>
+    <t>AMENAZA_INUNDACION_RURAL</t>
   </si>
   <si>
     <t>Guaranda, Amenaza, Inundación, Media, Alta, Sin Amenaza</t>
@@ -510,10 +512,7 @@
     <t>R0030</t>
   </si>
   <si>
-    <t>GUARANDA — PRODUCCION_PROTECCION</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo polígono, de producción / protección de Guaranda, la tabla de atributo contiene información de la temporada, ecosistemas, protección, amenaza, clasificacion del suelo, tratamiento</t>
+    <t>Shapefile, geometría tipo polígono, de producción / protección de Guaranda, la tabla de atributo contiene información de la temporada, ecosistemas, protección, amenaza, clasificacion del suelo, tratamiento</t>
   </si>
   <si>
     <t>Guaranda, Temporada climática, Ecosistemas, Protección, Amenaza, Clasificacion del suelo, Tratamiento</t>
@@ -522,10 +521,7 @@
     <t>R0031</t>
   </si>
   <si>
-    <t>GUARANDA — AREAS_ACTIVIDAD</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo polígono de Areas de actividad de Guaranda.  La tabla de atributo contiene información de Tipos de amenazas, clasficación del suelo, tratamiento (Productividad, Seguridad alimentaria, vocación), uso principal, ecosistema</t>
+    <t>Shapefile, geometría tipo polígono de Areas de actividad de Guaranda.  La tabla de atributo contiene información de Tipos de amenazas, clasficación del suelo, tratamiento (Productividad, Seguridad alimentaria, vocación), uso principal, ecosistema</t>
   </si>
   <si>
     <t>Guaranda, Clasficación del suelo, Productividad, Seguridad alimentaria, Vocación, Uso principal, Ecosistema</t>
@@ -534,10 +530,7 @@
     <t>R0032</t>
   </si>
   <si>
-    <t>GUARANDA — EEP_URBANA</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo polígono, de Estructura Ecológica Principal (EEP) de Guaranda, contiene en su tabla de atributo los tipos: Rondas hìdricas, ríos, pantanos, rondas hídricas</t>
+    <t>Shapefile, geometría tipo polígono, de Estructura Ecológica Principal (EEP) de Guaranda, contiene en su tabla de atributo los tipos: Rondas hìdricas, ríos, pantanos, rondas hídricas</t>
   </si>
   <si>
     <t>Guaranda, Estructura Ecológica Principal (EEP), Urbano, Rondas hídricas, ríos, pantanos, rondas hídricas</t>
@@ -546,27 +539,18 @@
     <t>R0033</t>
   </si>
   <si>
-    <t>GUARANDA — ECOSISTEMAS_URBANOS</t>
-  </si>
-  <si>
     <t>Guaranda, Ecosistemas, Urbano, Seco, Agua permanente</t>
   </si>
   <si>
     <t>R0034</t>
   </si>
   <si>
-    <t>GUARANDA — ECOSISTEMAS_RURALES</t>
-  </si>
-  <si>
     <t>Guaranda, Ecosistemas, Rural, Zonas de agua, transición, terrestres</t>
   </si>
   <si>
     <t>R0035</t>
   </si>
   <si>
-    <t>GUARANDA — CONSERVACION_PROTECCION_AMB</t>
-  </si>
-  <si>
     <t>Guaranda, Rondas rios, ronda cienagas, bosques, ciénagas</t>
   </si>
   <si>
@@ -591,13 +575,10 @@
     <t>R0037</t>
   </si>
   <si>
-    <t>MAGANGUE — EQUIPAMIENTOS_RURALES_EN_RIESGO</t>
-  </si>
-  <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/Magangue/07_Cartografia/GEODATABASE/MAGANGUE.gdb</t>
   </si>
   <si>
-    <t>Shape file, geometría tipo punto, contiene los equipamientos rurales en riesgo de Magangué.  La tabla de atributos contiene Tipode cubiertas, armazón, capa</t>
+    <t>Shapefile, geometría tipo punto, contiene los equipamientos rurales en riesgo de Magangué.  La tabla de atributos contiene Tipode cubiertas, armazón, capa</t>
   </si>
   <si>
     <t>La gdb contienen 77 objetos geográficos con geometrías tipo polígonos (48), polilínea (22) y puntos (7).  Muchas capas son información general que no entraría en el modelo de toma de decisiones por ejemplo capas de límites de países, departamentales, drenajes etc</t>
@@ -609,10 +590,7 @@
     <t>R0038</t>
   </si>
   <si>
-    <t>MAGANGUE — VIAS_RURALES_EN_RIESGO</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo línea de las vias rurales en riesgo de Magangue.  La tabla de atributos contiene los tipo de vías, la longitud y forma</t>
+    <t>Shapefile, geometría tipo línea de las vias rurales en riesgo de Magangue.  La tabla de atributos contiene los tipo de vías, la longitud y forma</t>
   </si>
   <si>
     <t>Magangué, Tipo de vías, Longitud, Forma</t>
@@ -621,10 +599,7 @@
     <t>R0039</t>
   </si>
   <si>
-    <t>MAGANGUE — VIAS_REGIONAL</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo línea de las vias regionales que conectan con Magangue.  La tabla de atributos contiene los tipo de vías, estado, la longitud y forma</t>
+    <t>Shapefile, geometría tipo línea de las vias regionales que conectan con Magangue.  La tabla de atributos contiene los tipo de vías, estado, la longitud y forma</t>
   </si>
   <si>
     <t>Magangué, Tipo de vías, Longitud, Forma, Estado</t>
@@ -633,10 +608,7 @@
     <t>R0040</t>
   </si>
   <si>
-    <t>MAGANGUE — ECOSISTEMAS_URBANOS</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo polígono  de ecosistemas urbanos de Magangue. La tabla de atributos contiene el tipo de ecosistemas</t>
+    <t>Shapefile, geometría tipo polígono  de ecosistemas urbanos de Magangue. La tabla de atributos contiene el tipo de ecosistemas</t>
   </si>
   <si>
     <t>Magangué, Ecosistemas, Seco, Transición, Agua permanente</t>
@@ -645,25 +617,16 @@
     <t>R0041</t>
   </si>
   <si>
-    <t>MAGANGUE — ECOSISTEMAS_RURALES</t>
-  </si>
-  <si>
     <t>R0042</t>
   </si>
   <si>
-    <t>MAGANGUE — CONSERVACION_PROTECCION_AMB</t>
-  </si>
-  <si>
     <t>Magangué, Rondas rios, ronda cienagas, bosques, ciénagas</t>
   </si>
   <si>
     <t>R0043</t>
   </si>
   <si>
-    <t>MAGANGUE — AMENAZA_POR_INUNDACION_RURAL</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo polígono de Amenaza por inundación rural de Magangué.  La tabla de atributo contiene los tipos de amenaza: media, baja, alta, sin amenaza</t>
+    <t>Shapefile, geometría tipo polígono de Amenaza por inundación rural de Magangué.  La tabla de atributo contiene los tipos de amenaza: media, baja, alta, sin amenaza</t>
   </si>
   <si>
     <t>Magangué, Amenaza, Inundación, Media, Alta, Sin Amenaza</t>
@@ -672,10 +635,7 @@
     <t>R0044</t>
   </si>
   <si>
-    <t>MAGANGUE — EEP_URBANA</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo polígono, de Estructura Ecológica Principal (EEP) de Magangué, contiene en su tabla de atributo los tipos: Rondas hìdricas, ríos, pantanos, rondas hídricas</t>
+    <t>Shapefile, geometría tipo polígono, de Estructura Ecológica Principal (EEP) de Magangué, contiene en su tabla de atributo los tipos: Rondas hìdricas, ríos, pantanos, rondas hídricas</t>
   </si>
   <si>
     <t>Magangué, Estructura Ecológica Principal (EEP), Urbano, Rondas hídricas, ríos, pantanos, rondas hídricas</t>
@@ -684,10 +644,7 @@
     <t>R0045</t>
   </si>
   <si>
-    <t>MAGANGUE — EEP_RURAL</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo polígono, de Estructura Ecológica Principal (EEP) Rurales de Magangué, contiene en su tabla de atributo los tipos: Rondas hídricas, ríos, pantanos, rondas hídricas</t>
+    <t>Shapefile, geometría tipo polígono, de Estructura Ecológica Principal (EEP) Rurales de Magangué, contiene en su tabla de atributo los tipos: Rondas hídricas, ríos, pantanos, rondas hídricas</t>
   </si>
   <si>
     <t>Magangué, Estructura Ecológica Principal (EEP), Rural, Rondas hídricas, ríos, pantanos, rondas hídricas</t>
@@ -696,10 +653,7 @@
     <t>R0046</t>
   </si>
   <si>
-    <t>MAGANGUE — PRODUCCION_PROTECCION</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo polígono, de producción / protección de Magangué, la tabla de atributo contiene información de la temporada, ecosistemas, protección, amenaza, clasificacion del suelo, tratamiento</t>
+    <t>Shapefile, geometría tipo polígono, de producción / protección de Magangué, la tabla de atributo contiene información de la temporada, ecosistemas, protección, amenaza, clasificacion del suelo, tratamiento</t>
   </si>
   <si>
     <t>Magangué, Temporada climática, Ecosistemas, Protección, Amenaza, Clasificacion del suelo, Tratamiento</t>
@@ -726,13 +680,10 @@
     <t>R0048</t>
   </si>
   <si>
-    <t>MAJAGUAL — EQUIPAMIENTOS_RURALES_EN_RIESGO</t>
-  </si>
-  <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/Majagual/07_Cartografia/GEODATABASE/MAJAGUAL.gdb</t>
   </si>
   <si>
-    <t>Shape file, geometría tipo punto, contiene los equipamientos rurales en riesgo de Majagual.  La tabla de atributos contiene Tipode cubiertas, armazón, capa</t>
+    <t>Shapefile, geometría tipo punto, contiene los equipamientos rurales en riesgo de Majagual.  La tabla de atributos contiene Tipode cubiertas, armazón, capa</t>
   </si>
   <si>
     <t>La gdb contienen 65 objetos geográficos con geometrías tipo polígonos (47), polilínea (15) y puntos (3).  Muchas capas son información general que no entraría en el modelo de toma de decisiones por ejemplo capas de límites de países, departamentales, drenajes etc</t>
@@ -744,10 +695,7 @@
     <t>R0049</t>
   </si>
   <si>
-    <t>MAJAGUAL — VIAS_RURALES_EN_RIESGO</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo línea de las vias rurales en riesgo de Majagual.  La tabla de atributos contiene los tipo de vías, la longitud y forma</t>
+    <t>Shapefile, geometría tipo línea de las vias rurales en riesgo de Majagual.  La tabla de atributos contiene los tipo de vías, la longitud y forma</t>
   </si>
   <si>
     <t>Majagual, Tipo de vías, Longitud, Forma</t>
@@ -756,10 +704,7 @@
     <t>R0050</t>
   </si>
   <si>
-    <t>MAJAGUAL — VIAS_REGIONAL</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo línea de las vias regionales que conectan con Majagual.  La tabla de atributos contiene los tipo de vías, estado, la longitud y forma</t>
+    <t>Shapefile, geometría tipo línea de las vias regionales que conectan con Majagual.  La tabla de atributos contiene los tipo de vías, estado, la longitud y forma</t>
   </si>
   <si>
     <t>Majagual, Tipo de vías, Longitud, Forma, Estado</t>
@@ -768,37 +713,25 @@
     <t>R0051</t>
   </si>
   <si>
-    <t>MAJAGUAL — ECOSISTEMAS_URBANOS</t>
-  </si>
-  <si>
     <t>Majagual, Ecosistemas, Seco, Transición, Agua permanente</t>
   </si>
   <si>
     <t>R0052</t>
   </si>
   <si>
-    <t>MAJAGUAL — ECOSISTEMAS_RURALES</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo polígono  de ecosistemas urbanos de Majagual. La tabla de atributos contiene el tipo de ecosistemas</t>
+    <t>Shapefile, geometría tipo polígono  de ecosistemas urbanos de Majagual. La tabla de atributos contiene el tipo de ecosistemas</t>
   </si>
   <si>
     <t>R0053</t>
   </si>
   <si>
-    <t>MAJAGUAL — CONSERVACION_PROTECCION_AMB</t>
-  </si>
-  <si>
     <t>Majagual, Rondas rios, ronda cienagas, bosques, ciénagas</t>
   </si>
   <si>
     <t>R0054</t>
   </si>
   <si>
-    <t>MAJAGUAL — AMENAZA_POR_INUNDACION_RURAL</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo polígono de Amenaza por inundación rural de Majagual.  La tabla de atributo contiene los tipos de amenaza: media, baja, alta, sin amenaza</t>
+    <t>Shapefile, geometría tipo polígono de Amenaza por inundación rural de Majagual.  La tabla de atributo contiene los tipos de amenaza: media, baja, alta, sin amenaza</t>
   </si>
   <si>
     <t>Majagual, Amenaza, Inundación, Media, Alta, Sin Amenaza</t>
@@ -807,10 +740,7 @@
     <t>R0055</t>
   </si>
   <si>
-    <t>MAJAGUAL — EEP_URBANA</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo polígono, de Estructura Ecológica Principal (EEP) de Majagual, contiene en su tabla de atributo los tipos: Rondas hìdricas, ríos, pantanos, rondas hídricas</t>
+    <t>Shapefile, geometría tipo polígono, de Estructura Ecológica Principal (EEP) de Majagual, contiene en su tabla de atributo los tipos: Rondas hìdricas, ríos, pantanos, rondas hídricas</t>
   </si>
   <si>
     <t>Majagual, Estructura Ecológica Principal (EEP), Urbano, Rondas hídricas, ríos, pantanos, rondas hídricas</t>
@@ -819,10 +749,7 @@
     <t>R0056</t>
   </si>
   <si>
-    <t>MAJAGUAL — EEP_RURAL</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo polígono, de Estructura Ecológica Principal (EEP) Rurales de Majagual, contiene en su tabla de atributo los tipos: Rondas hídricas, ríos, pantanos, rondas hídricas</t>
+    <t>Shapefile, geometría tipo polígono, de Estructura Ecológica Principal (EEP) Rurales de Majagual, contiene en su tabla de atributo los tipos: Rondas hídricas, ríos, pantanos, rondas hídricas</t>
   </si>
   <si>
     <t>Majagual, Estructura Ecológica Principal (EEP), Rural, Rondas hídricas, ríos, pantanos, rondas hídricas</t>
@@ -831,10 +758,7 @@
     <t>R0057</t>
   </si>
   <si>
-    <t>MAJAGUAL — PRODUCCION_PROTECCION</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo polígono, de producción / protección de Majagual, la tabla de atributo contiene información de la temporada, ecosistemas, protección, amenaza, clasificacion del suelo, tratamiento</t>
+    <t>Shapefile, geometría tipo polígono, de producción / protección de Majagual, la tabla de atributo contiene información de la temporada, ecosistemas, protección, amenaza, clasificacion del suelo, tratamiento</t>
   </si>
   <si>
     <t>Majagual, Temporada climática, Ecosistemas, Protección, Amenaza, Clasificacion del suelo, Tratamiento</t>
@@ -861,13 +785,13 @@
     <t>R0059</t>
   </si>
   <si>
-    <t>NECHI — Edificaciones</t>
+    <t>Edificaciones</t>
   </si>
   <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/Nechi/07_Cartografia/GEODATABASE/NECHI.gdb</t>
   </si>
   <si>
-    <t>Shape file, geometría tipo punto, contiene los equipamientos rurales en riesgo de Nechí.  La tabla de atributos contiene Tipode cubiertas, armazón, capa</t>
+    <t>Shapefile, geometría tipo punto, contiene los equipamientos rurales en riesgo de Nechí.  La tabla de atributos contiene Tipode cubiertas, armazón, capa</t>
   </si>
   <si>
     <t>La gdb contienen 55 objetos geográficos con geometrías tipo polígonos (33), polilínea (16) y puntos (6).  Muchas capas son información general que no entraría en el modelo de toma de decisiones por ejemplo capas de límites de países, departamentales, drenajes etc</t>
@@ -879,10 +803,10 @@
     <t>R0060</t>
   </si>
   <si>
-    <t>NECHI — Condicion_riesgo_vias_rural</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo línea de las vias rurales en riesgo de Nechi.  La tabla de atributos contiene los tipo de vías, la longitud y forma</t>
+    <t>Condicion_riesgo_vias_rural</t>
+  </si>
+  <si>
+    <t>Shapefile, geometría tipo línea de las vias rurales en riesgo de Nechi.  La tabla de atributos contiene los tipo de vías, la longitud y forma</t>
   </si>
   <si>
     <t>Nechí, Tipo de vías, Longitud, Forma</t>
@@ -891,10 +815,10 @@
     <t>R0061</t>
   </si>
   <si>
-    <t>NECHI — Vias regional</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo línea de las vias regionales que conectan con Nechi.  La tabla de atributos contiene los tipo de vías, estado, la longitud y forma</t>
+    <t>Vias regional</t>
+  </si>
+  <si>
+    <t>Shapefile, geometría tipo línea de las vias regionales que conectan con Nechi.  La tabla de atributos contiene los tipo de vías, estado, la longitud y forma</t>
   </si>
   <si>
     <t>Nechí, Tipo de vías, Longitud, Forma, Estado</t>
@@ -903,10 +827,7 @@
     <t>R0062</t>
   </si>
   <si>
-    <t>NECHI — Ecosistemas_Urbanos</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo polígono  de ecosistemas urbanos de Nechí. La tabla de atributos contiene el tipo de ecosistemas</t>
+    <t>Shapefile, geometría tipo polígono  de ecosistemas urbanos de Nechí. La tabla de atributos contiene el tipo de ecosistemas</t>
   </si>
   <si>
     <t>Nechí, Ecosistemas, Seco, Transición, Agua permanente</t>
@@ -915,25 +836,22 @@
     <t>R0063</t>
   </si>
   <si>
-    <t>NECHI — Ecosistemas_rurales</t>
+    <t>Ecosistemas_rurales</t>
   </si>
   <si>
     <t>R0064</t>
   </si>
   <si>
-    <t>NECHI — CONSERVACION_PROTECCION_AMB</t>
-  </si>
-  <si>
     <t>Nechí, Rondas rios, ronda cienagas, bosques, ciénagas</t>
   </si>
   <si>
     <t>R0065</t>
   </si>
   <si>
-    <t>NECHI — Amenaza_Inundacion_Rural</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo polígono de Amenaza por inundación rural de Nechí.  La tabla de atributo contiene los tipos de amenaza: media, baja, alta, sin amenaza</t>
+    <t>Amenaza_Inundacion_Rural</t>
+  </si>
+  <si>
+    <t>Shapefile, geometría tipo polígono de Amenaza por inundación rural de Nechí.  La tabla de atributo contiene los tipos de amenaza: media, baja, alta, sin amenaza</t>
   </si>
   <si>
     <t>Nechí, Amenaza, Inundación, Media, Alta, Sin Amenaza</t>
@@ -942,10 +860,7 @@
     <t>R0066</t>
   </si>
   <si>
-    <t>NECHI — EEP</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo polígono, de Estructura Ecológica Principal (EEP) de Nechí, contiene en su tabla de atributo los tipos: Rondas hìdricas, ríos, pantanos, rondas hídricas</t>
+    <t>Shapefile, geometría tipo polígono, de Estructura Ecológica Principal (EEP) de Nechí, contiene en su tabla de atributo los tipos: Rondas hìdricas, ríos, pantanos, rondas hídricas</t>
   </si>
   <si>
     <t>Nechí, Estructura Ecológica Principal (EEP), Urbano, Rondas hídricas, ríos, pantanos, rondas hídricas</t>
@@ -972,13 +887,10 @@
     <t>R0068</t>
   </si>
   <si>
-    <t>SAN_BENITO_ABAD — Vias regional</t>
-  </si>
-  <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/San Benito Abad/SAN_BENITO_ABAD.gdb</t>
   </si>
   <si>
-    <t>Shape file, geometría tipo línea de las vias regionales que conectan con San Benito de Abad.  La tabla de atributos contiene los tipo de vías, estado, la longitud y forma</t>
+    <t>Shapefile, geometría tipo línea de las vias regionales que conectan con San Benito de Abad.  La tabla de atributos contiene los tipo de vías, estado, la longitud y forma</t>
   </si>
   <si>
     <t>La gdb contienen 9 objetos geográficos con geometrías tipo polígonos (7), polilínea (2).  En comparación con las demas .gdb revisadas esta carece de mucha información.  Adicionalmente en la carpeta del proyecto no hay mas información asociada de otros formatos como PDF, KMZ o shp</t>
@@ -990,10 +902,7 @@
     <t>R0069</t>
   </si>
   <si>
-    <t>SAN_BENITO_ABAD — Ecosistemas_rurales</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo polígono  de ecosistemas urbanos de San Benito de Abad. La tabla de atributos contiene el tipo de ecosistemas</t>
+    <t>Shapefile, geometría tipo polígono  de ecosistemas urbanos de San Benito de Abad. La tabla de atributos contiene el tipo de ecosistemas</t>
   </si>
   <si>
     <t>San Benito de Abad, Ecosistemas, Seco, Transición, Agua permanente</t>
@@ -1002,10 +911,7 @@
     <t>R0070</t>
   </si>
   <si>
-    <t>SAN_BENITO_ABAD — Amenaza_Inundacion_Rural</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo polígono de Amenaza por inundación rural de San Benito de Abad.  La tabla de atributo contiene los tipos de amenaza: media, baja, alta, sin amenaza</t>
+    <t>Shapefile, geometría tipo polígono de Amenaza por inundación rural de San Benito de Abad.  La tabla de atributo contiene los tipos de amenaza: media, baja, alta, sin amenaza</t>
   </si>
   <si>
     <t>San Benito de Abad, Amenaza, Inundación, Media, Alta, Sin Amenaza</t>
@@ -1017,13 +923,10 @@
     <t>R0071</t>
   </si>
   <si>
-    <t>SAN_JACINTO_DEL_CAUCA — Edificaciones</t>
-  </si>
-  <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/San Jacinto del Cauca/07_Cartografia/GEODATABASE/SAN_JACINTO_DEL_CAUCA.gdb</t>
   </si>
   <si>
-    <t>Shape file, geometría tipo punto, contiene los equipamientos rurales en riesgo de San Jacinto del Cauca.  La tabla de atributos contiene Tipode cubiertas, armazón, capa</t>
+    <t>Shapefile, geometría tipo punto, contiene los equipamientos rurales en riesgo de San Jacinto del Cauca.  La tabla de atributos contiene Tipode cubiertas, armazón, capa</t>
   </si>
   <si>
     <t>La gdb contienen 63 objetos geográficos con geometrías tipo polígonos (41), polilínea (16) y puntos (6).  Muchas capas son información general que no entraría en el modelo de toma de decisiones por ejemplo capas de límites de países, departamentales, drenajes etc</t>
@@ -1035,10 +938,7 @@
     <t>R0072</t>
   </si>
   <si>
-    <t>SAN_JACINTO_DEL_CAUCA — Vias_regional</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo línea de las vias regionales que conectan con San Jacinto del Cauca.  La tabla de atributos contiene los tipo de vías, estado, la longitud y forma</t>
+    <t>Shapefile, geometría tipo línea de las vias regionales que conectan con San Jacinto del Cauca.  La tabla de atributos contiene los tipo de vías, estado, la longitud y forma</t>
   </si>
   <si>
     <t>San Jacinto del Cauca, Vías, Longitud, Forma, Estado</t>
@@ -1047,10 +947,7 @@
     <t>R0073</t>
   </si>
   <si>
-    <t>SAN_JACINTO_DEL_CAUCA — Condicion_riesgo_vias_rural</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo línea de las vias rurales en riesgo de San Jacinto de Cauca.  La tabla de atributos contiene los tipo de vías, la longitud y forma</t>
+    <t>Shapefile, geometría tipo línea de las vias rurales en riesgo de San Jacinto de Cauca.  La tabla de atributos contiene los tipo de vías, la longitud y forma</t>
   </si>
   <si>
     <t>San Jacinto del Cauca, Tipo de vías, Longitud, Forma</t>
@@ -1059,10 +956,7 @@
     <t>R0074</t>
   </si>
   <si>
-    <t>SAN_JACINTO_DEL_CAUCA — Ecosistemas_Urbanos</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo polígono  de ecosistemas urbanos de San Jacinto del Cauca. La tabla de atributos contiene el tipo de ecosistemas</t>
+    <t>Shapefile, geometría tipo polígono  de ecosistemas urbanos de San Jacinto del Cauca. La tabla de atributos contiene el tipo de ecosistemas</t>
   </si>
   <si>
     <t>San Jacinto del Cauca, Ecosistemas, Seco, Transición, Agua permanente</t>
@@ -1071,25 +965,16 @@
     <t>R0075</t>
   </si>
   <si>
-    <t>SAN_JACINTO_DEL_CAUCA — Ecosistemas_rurales</t>
-  </si>
-  <si>
     <t>R0076</t>
   </si>
   <si>
-    <t>SAN_JACINTO_DEL_CAUCA — CONSERVACION_PROTECCION_AMB</t>
-  </si>
-  <si>
     <t>San Jacinto del Cauca, Rondas rios, ronda cienagas, bosques, ciénagas</t>
   </si>
   <si>
     <t>R0077</t>
   </si>
   <si>
-    <t>SAN_JACINTO_DEL_CAUCA — Amenaza_Inundacion_Rural</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo polígono de Amenaza por inundación rural de San Jacinto del Cauca.  La tabla de atributo contiene los tipos de amenaza: media, baja, alta, sin amenaza</t>
+    <t>Shapefile, geometría tipo polígono de Amenaza por inundación rural de San Jacinto del Cauca.  La tabla de atributo contiene los tipos de amenaza: media, baja, alta, sin amenaza</t>
   </si>
   <si>
     <t>San Jacinto del Cauca, Amenaza, Inundación, Media, Alta, Sin Amenaza</t>
@@ -1098,10 +983,10 @@
     <t>R0078</t>
   </si>
   <si>
-    <t>SAN_JACINTO_DEL_CAUCA — EEP</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo polígono, de Estructura Ecológica Principal (EEP) de San Jacinto del Cauca, contiene en su tabla de atributo los tipos: Rondas hìdricas, ríos, pantanos, rondas hídricas</t>
+    <t>EEP_Urbana</t>
+  </si>
+  <si>
+    <t>Shapefile, geometría tipo polígono, de Estructura Ecológica Principal (EEP) de San Jacinto del Cauca, contiene en su tabla de atributo los tipos: Rondas hìdricas, ríos, pantanos, rondas hídricas</t>
   </si>
   <si>
     <t>San Jacinto del Cauca, Estructura Ecológica Principal (EEP), Urbano, Rondas hídricas, ríos, pantanos, rondas hídricas</t>
@@ -1110,16 +995,10 @@
     <t>R0079</t>
   </si>
   <si>
-    <t>SAN_JACINTO_DEL_CAUCA — EEP_Urbana</t>
-  </si>
-  <si>
     <t>R0080</t>
   </si>
   <si>
-    <t>SAN_JACINTO_DEL_CAUCA— PRODUCCION_PROTECCION</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo polígono, de producción / protección de San Jacinto del Cauca, la tabla de atributo contiene información de la temporada, ecosistemas, protección, amenaza, clasificacion del suelo, tratamiento</t>
+    <t>Shapefile, geometría tipo polígono, de producción / protección de San Jacinto del Cauca, la tabla de atributo contiene información de la temporada, ecosistemas, protección, amenaza, clasificacion del suelo, tratamiento</t>
   </si>
   <si>
     <t>San Jacinto del Cauca, Temporada climática, Ecosistemas, Protección, Amenaza, Clasificacion del suelo, Tratamiento</t>
@@ -1146,13 +1025,10 @@
     <t>R0082</t>
   </si>
   <si>
-    <t>SAN MARCOS — EQUIPAMIENTOS_RURALES_EN_RIESGO</t>
-  </si>
-  <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/San Marcos/07_Cartografia/GEODATABASE/SAN_MARCOS.gdb</t>
   </si>
   <si>
-    <t>Shape file, geometría tipo punto, contiene los equipamientos rurales en riesgo de San Marcos.  La tabla de atributos contiene Tipode cubiertas, armazón, capa</t>
+    <t>Shapefile, geometría tipo punto, contiene los equipamientos rurales en riesgo de San Marcos.  La tabla de atributos contiene Tipode cubiertas, armazón, capa</t>
   </si>
   <si>
     <t>La gdb contienen 65 objetos geográficos con geometrías tipo polígonos (44), polilínea (17) y puntos (4).  Muchas capas son información general que no entraría en el modelo de toma de decisiones por ejemplo capas de límites de países, departamentales, drenajes etc</t>
@@ -1164,10 +1040,7 @@
     <t>R0083</t>
   </si>
   <si>
-    <t>SAN MARCOS — VIAS_RURALES_EN_RIESGO</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo línea de las vias rurales en riesgo de San Marcos.  La tabla de atributos contiene los tipo de vías, la longitud y forma</t>
+    <t>Shapefile, geometría tipo línea de las vias rurales en riesgo de San Marcos.  La tabla de atributos contiene los tipo de vías, la longitud y forma</t>
   </si>
   <si>
     <t>San Marcos, Amenaza, Inundación, Media, Alta, Sin Amenaza</t>
@@ -1176,10 +1049,7 @@
     <t>R0084</t>
   </si>
   <si>
-    <t>SAN MARCOS — ECOSISTEMAS_URBANOS</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo polígono  de ecosistemas urbanos de San Marcos. La tabla de atributos contiene el tipo de ecosistemas</t>
+    <t>Shapefile, geometría tipo polígono  de ecosistemas urbanos de San Marcos. La tabla de atributos contiene el tipo de ecosistemas</t>
   </si>
   <si>
     <t>San Marcos, Ecosistemas, Seco, Transición, Agua permanente</t>
@@ -1188,31 +1058,19 @@
     <t>R0085</t>
   </si>
   <si>
-    <t>SAN MARCOS — ECOSISTEMAS_RURALES</t>
-  </si>
-  <si>
     <t>R0086</t>
   </si>
   <si>
-    <t>SAN MARCOS — CONSERVACION_PROTECCION_AMB</t>
-  </si>
-  <si>
     <t>R0087</t>
   </si>
   <si>
-    <t>SAN MARCOS — AMENAZA_POR_INUNDACION_RURAL</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo polígono de Amenaza por inundación rural de San Marcos.  La tabla de atributo contiene los tipos de amenaza: media, baja, alta, sin amenaza</t>
+    <t>Shapefile, geometría tipo polígono de Amenaza por inundación rural de San Marcos.  La tabla de atributo contiene los tipos de amenaza: media, baja, alta, sin amenaza</t>
   </si>
   <si>
     <t>R0088</t>
   </si>
   <si>
-    <t>SAN MARCOS — EEP_URBANA</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo polígono, de Estructura Ecológica Principal (EEP) de San Marcos, contiene en su tabla de atributo los tipos: Rondas hìdricas, ríos, pantanos, rondas hídricas</t>
+    <t>Shapefile, geometría tipo polígono, de Estructura Ecológica Principal (EEP) de San Marcos, contiene en su tabla de atributo los tipos: Rondas hìdricas, ríos, pantanos, rondas hídricas</t>
   </si>
   <si>
     <t>San Marcos, Estructura Ecológica Principal (EEP), Urbano, Rondas hídricas, ríos, pantanos, rondas hídricas</t>
@@ -1221,10 +1079,7 @@
     <t>R0089</t>
   </si>
   <si>
-    <t>SAN MARCOS — EEP_RURAL</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo polígono la tabla de atributo contiene los tipos:  Ronda hídrica, Ríos, Pantanos, Rondas Hídricas</t>
+    <t>Shapefile, geometría tipo polígono la tabla de atributo contiene los tipos:  Ronda hídrica, Ríos, Pantanos, Rondas Hídricas</t>
   </si>
   <si>
     <t>San Marcos, Ronda hídrica, Ríos, Pantanos, Rondas Hídricas</t>
@@ -1233,10 +1088,7 @@
     <t>R0090</t>
   </si>
   <si>
-    <t>SAN MARCOS — PRODUCCION_PROTECCION</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo polígono, de producción / protección de San Marcos, la tabla de atributo contiene información de la temporada, ecosistemas, protección, amenaza, clasificacion del suelo, tratamiento</t>
+    <t>Shapefile, geometría tipo polígono, de producción / protección de San Marcos, la tabla de atributo contiene información de la temporada, ecosistemas, protección, amenaza, clasificacion del suelo, tratamiento</t>
   </si>
   <si>
     <t>San Marcos, Temporada climática, Ecosistemas, Protección, Amenaza, Clasificacion del suelo, Tratamiento</t>
@@ -1263,13 +1115,10 @@
     <t>R0092</t>
   </si>
   <si>
-    <t>SUCRE_SUCRE — EQUIPAMIENTOS_RURALES_EN_RIESGO</t>
-  </si>
-  <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/Sucre/07_Cartografia/GEODATABASE/SUCRE_SUCRE.gdb</t>
   </si>
   <si>
-    <t>Shape file, geometría tipo punto, contiene los equipamientos rurales en riesgo de Sucre Sucre  La tabla de atributos contiene Tipode cubiertas, armazón, capa</t>
+    <t>Shapefile, geometría tipo punto, contiene los equipamientos rurales en riesgo de Sucre Sucre  La tabla de atributos contiene Tipode cubiertas, armazón, capa</t>
   </si>
   <si>
     <t>La gdb contienen 62 objetos geográficos con geometrías tipo polígonos (45), polilínea (14) y puntos (3).  Muchas capas son información general que no entraría en el modelo de toma de decisiones por ejemplo capas de límites de países, departamentales, drenajes etc</t>
@@ -1281,10 +1130,7 @@
     <t>R0093</t>
   </si>
   <si>
-    <t>SUCRE_SUCRE — VIAS_RURALES_EN_RIESGO</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo línea de las vias rurales en riesgo de Sucre Sucre.  La tabla de atributos contiene los tipo de vías, la longitud y forma</t>
+    <t>Shapefile, geometría tipo línea de las vias rurales en riesgo de Sucre Sucre.  La tabla de atributos contiene los tipo de vías, la longitud y forma</t>
   </si>
   <si>
     <t>Sucre Sucre, Amenaza, Inundación, Media, Alta, Sin Amenaza</t>
@@ -1293,10 +1139,7 @@
     <t>R0094</t>
   </si>
   <si>
-    <t>SUCRE_SUCRE — ECOSISTEMAS_URBANOS</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo polígono  de ecosistemas urbanos de Sucre Sucre. La tabla de atributos contiene el tipo de ecosistemas</t>
+    <t>Shapefile, geometría tipo polígono  de ecosistemas urbanos de Sucre Sucre. La tabla de atributos contiene el tipo de ecosistemas</t>
   </si>
   <si>
     <t>Sucre Sucre, Ecosistemas, Seco, Transición, Agua permanente</t>
@@ -1305,25 +1148,16 @@
     <t>R0095</t>
   </si>
   <si>
-    <t>SUCRE_SUCRE — ECOSISTEMAS_RURALES</t>
-  </si>
-  <si>
     <t>R0096</t>
   </si>
   <si>
-    <t>SUCRE_SUCRE — CONSERVACION_PROTECCION_AMB</t>
-  </si>
-  <si>
     <t>Sucre Sucre, Rondas rios, ronda cienagas, bosques, ciénagas</t>
   </si>
   <si>
     <t>R0097</t>
   </si>
   <si>
-    <t>SUCRE_SUCRE — AMENAZA_POR_INUNDACION_RURAL</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo polígono de Amenaza por inundación rural de Sucre Sucre.  La tabla de atributo contiene los tipos de amenaza: media, baja, alta, sin amenaza</t>
+    <t>Shapefile, geometría tipo polígono de Amenaza por inundación rural de Sucre Sucre.  La tabla de atributo contiene los tipos de amenaza: media, baja, alta, sin amenaza</t>
   </si>
   <si>
     <t>Sucre Sucre, Estructura Ecológica Principal (EEP), Urbano, Rondas hídricas, ríos, pantanos, rondas hídricas</t>
@@ -1332,28 +1166,19 @@
     <t>R0098</t>
   </si>
   <si>
-    <t>SUCRE_SUCRE — EEP_URBANA</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo polígono, de Estructura Ecológica Principal (EEP) de Sucre Sucre, contiene en su tabla de atributo los tipos: Rondas hìdricas, ríos, pantanos, rondas hídricas</t>
+    <t>Shapefile, geometría tipo polígono, de Estructura Ecológica Principal (EEP) de Sucre Sucre, contiene en su tabla de atributo los tipos: Rondas hìdricas, ríos, pantanos, rondas hídricas</t>
   </si>
   <si>
     <t>R0099</t>
   </si>
   <si>
-    <t>SUCRE_SUCRE — EEP_RURAL</t>
-  </si>
-  <si>
     <t>Sucre Sucre, Ronda hídrica, Ríos, Pantanos, Rondas Hídricas</t>
   </si>
   <si>
     <t>R0100</t>
   </si>
   <si>
-    <t>SUCRE_SUCRE — PRODUCCION_PROTECCION</t>
-  </si>
-  <si>
-    <t>Shape file, geometría tipo polígono, de producción / protección de Sucre Sucre, la tabla de atributo contiene información de la temporada, ecosistemas, protección, amenaza, clasificacion del suelo, tratamiento</t>
+    <t>Shapefile, geometría tipo polígono, de producción / protección de Sucre Sucre, la tabla de atributo contiene información de la temporada, ecosistemas, protección, amenaza, clasificacion del suelo, tratamiento</t>
   </si>
   <si>
     <t>Sucre Sucre, Temporada climática, Ecosistemas, Protección, Amenaza, Clasificacion del suelo, Tratamiento</t>
@@ -1386,19 +1211,19 @@
     <t>Matriz de sistematización</t>
   </si>
   <si>
-    <t>Este documento contiene la sistematización de los seis talleres realizados en el municipio de Guaranda. Es esta sistematización se prioriza la división de problemáticas según la dimensión: social, ambienta y económica. Estas problemáticas están casificadas en la veredas, variables, actores, dimesiones y componete POT. Además contemplan unas soluciones que los participantes de los talleres propusieron.</t>
+    <t>Este documento contiene información importante ya que refleja las problemáticas que las personas participantes de los talleres priorizaron para el municipio de Guaranda.</t>
   </si>
   <si>
     <t>Excel</t>
   </si>
   <si>
-    <t>.xlsx</t>
+    <t>xlsx</t>
   </si>
   <si>
     <t>NA</t>
   </si>
   <si>
-    <t>Esta documento contiene información importante ya que refleja las problemáticas que las personas participantes de los talleres priorizaron para el municipio de Guaranda.</t>
+    <t>Este documento contiene la sistematización de los seis talleres realizados en el municipio de Guaranda. Es esta sistematización se prioriza la división de problemáticas según la dimensión: social, ambienta y económica. Estas problemáticas están casificadas en la veredas, variables, actores, dimesiones y componente POT. Además contemplan unas soluciones que los participantes de los talleres propusieron.</t>
   </si>
   <si>
     <t>Inundaciones,  infraestructura,  deforestación,  contaminación,  actores,  dimensiones económicas,  sociales,  ambientales</t>
@@ -1434,7 +1259,7 @@
     <t>Matriz en la que sistematizan las problemáticas y las soluciones a esas problemáticas propuestas en los talleres realizados en el municipio de Caimito. Estas se dividen en problemáticas y soluciones ambientales, sociales y económica. Asimismo, cada una de estas se encuentra asociada a unos actores, una ubicación geográfica, un componente del POT y una variable.  Las variables ambientales para el municipio de Caimito son: inundaciones, residuos, deforestación, contaminación por minería, sedimentación, ecosistema nativo, erosión y sequía. Las variables sociales son: salud, vivienda, educación, cultura, acceso a servicios públicos y saneamiento básico, participación comunitaria y equipamiento municipal. Las variables económicas son: vías, emprendimiento, propiedad de la tierra y equipamiento agropecuario.</t>
   </si>
   <si>
-    <t>inundaciones,  residuos,  deforestación,  contaminación por minería,  sedimentación,  ecosistema nativo,  erosión,  sequía,  salud,  vivienda,  educación,  cultura,  acceso a servicios públicos y saneamiento básico,  participación comunitaria y equipamiento municipal,  vías,  emprendimiento,  propiedad de la tierra y equipamiento agropecuario,  Caimito</t>
+    <t>Inundaciones,  residuos,  deforestación,  contaminación por minería,  sedimentación,  ecosistema nativo,  erosión,  sequía,  salud,  vivienda,  educación,  cultura,  acceso a servicios públicos y saneamiento básico,  participación comunitaria y equipamiento municipal,  vías,  emprendimiento,  propiedad de la tierra y equipamiento agropecuario,  Caimito</t>
   </si>
   <si>
     <t>R0105</t>
@@ -1446,13 +1271,13 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/Magangue/09_Socializacion/Matriz de sistematizacion/Matriz_Magangue.xlsx</t>
   </si>
   <si>
-    <t>Matriz en la que sistematizan las problemáticas y las soluciones a esas problemáticas propuestas en los talleres realizados en diferentes veredad y corregimientos del municipio de Magangue. Estas se dividen en problemáticas y soluciones ambientales, sociales y económica. Asimismo, cada una de estas se encuentra asociada a unos actores, una ubicación geográfica, un componente del POT y una variable.  Las variables ambientales para el municipio de Magangue son: inundaciones, residuos, deforestación, contaminación por minería, sedimentación, ecosistema nativo, erosión, sequía, contaminación de fuentes hídricas y ecosistemas. Las variables sociales son: salud, vivienda, educación, cultura, acceso a servicios públicos y saneamiento básico, participación comunitaria, equipamiento municipal, recreación y deporte, espacio público, transporte, TICs, clasificación del suelo y seguridad. Las variables económicas son: vías, emprendimiento, propiedad de la tierra, uso del suelo, legalización de predios comerciales y residenciales, y equipamiento agropecuario y piscícola.</t>
+    <t>Matriz en la que sistematizan las problemáticas y las soluciones a esas problemáticas propuestas en los talleres realizados en diferentes veredad y corregimientos del municipio de Magangue. Estas se dividen en problemáticas y soluciones ambientales, sociales y económica. Asimismo, cada una de estas se encuentra asociada a unos actores, una ubicación geográfica, un componente del POT y una variable. Las variables ambientales para el municipio de Magangue son: inundaciones, residuos, deforestación, contaminación por minería, sedimentación, ecosistema nativo, erosión, sequía, contaminación de fuentes hídricas y ecosistemas. Las variables sociales son: salud, vivienda, educación, cultura, acceso a servicios públicos y saneamiento básico, participación comunitaria, equipamiento municipal, recreación y deporte, espacio público, transporte, TICs, clasificación del suelo y seguridad. Las variables económicas son: vías, emprendimiento, propiedad de la tierra, uso del suelo, legalización de predios comerciales y residenciales, y equipamiento agropecuario y piscícola.</t>
   </si>
   <si>
     <t>Sistematiza problemáticas y soluciones en escala de municipio o corregimiento y se refiere a las variables asignadas a cada situación.</t>
   </si>
   <si>
-    <t>inundaciones,  residuos,  deforestación,  contaminación por minería,  sedimentación,  ecosistema nativo,  erosión,  sequía,  contaminación de fuentes hídricas y ecosistemas,  salud,  vivienda,  educación,  cultura,  acceso a servicios públicos y saneamiento básico,  participación comunitaria,  equipamiento municipal,  recreación y deporte,  espacio público,  transporte,  TICs,  clasificación del suelo y seguridad,  vías,  emprendimiento,  propiedad de la tierra,  uso del suelo,  legalización de predios comerciales y residenciales,  y equipamiento agropecuario y piscícola,  Magangue</t>
+    <t>Inundaciones,  residuos,  deforestación,  contaminación por minería,  sedimentación,  ecosistema nativo,  erosión,  sequía,  contaminación de fuentes hídricas y ecosistemas,  salud,  vivienda,  educación,  cultura,  acceso a servicios públicos y saneamiento básico,  participación comunitaria,  equipamiento municipal,  recreación y deporte,  espacio público,  transporte,  TICs,  clasificación del suelo y seguridad,  vías,  emprendimiento,  propiedad de la tierra,  uso del suelo,  legalización de predios comerciales y residenciales,  y equipamiento agropecuario y piscícola,  Magangue</t>
   </si>
   <si>
     <t>R0106</t>
@@ -1467,7 +1292,7 @@
     <t>Matriz en la que sistematizan las problemáticas y las soluciones a esas problemáticas propuestas en los talleres realizados en el municipio de Majagual. Estas se dividen en problemáticas y soluciones ambientales, sociales y económica. Asimismo, cada una de estas se encuentra asociada a unos actores, una ubicación geográfica, un componente del POT y una variable.  Las variables ambientales para el municipio de Majagual son: inundaciones, residuos, deforestación, contaminación por minería, sedimentación, ecosistema nativo, erosión, contaminación de fuentes hidrícas y ecosistemas, especies foráneas  y sequía. Las variables sociales son: salud, vivienda, educación, cultura, acceso a servicios públicos y saneamiento básico, participación comunitaria, TICs, recreación y deporte, y equipamiento municipal. Las variables económicas son: vías, emprendimiento, propiedad de la tierra y equipamiento agropecuario.</t>
   </si>
   <si>
-    <t>inundaciones,  residuos,  deforestación,  contaminación por minería,  sedimentación,  ecosistema nativo,  erosión,  contaminación de fuentes hidrícas y ecosistemas,  especies foráneas  y sequía,  salud,  vivienda,  educación,  cultura,  acceso a servicios públicos y saneamiento básico,  participación comunitaria,  TICs,  recreación y deporte,  y equipamiento municipal,  vías,  emprendimiento,  propiedad de la tierra y equipamiento agropecuario,  Majagual</t>
+    <t>Inundaciones,  residuos,  deforestación,  contaminación por minería,  sedimentación,  ecosistema nativo,  erosión,  contaminación de fuentes hidrícas y ecosistemas,  especies foráneas  y sequía,  salud,  vivienda,  educación,  cultura,  acceso a servicios públicos y saneamiento básico,  participación comunitaria,  TICs,  recreación y deporte,  y equipamiento municipal,  vías,  emprendimiento,  propiedad de la tierra y equipamiento agropecuario,  Majagual</t>
   </si>
   <si>
     <t>R0107</t>
@@ -1482,7 +1307,7 @@
     <t>Matriz en la que sistematizan las problemáticas y las soluciones a esas problemáticas propuestas en los talleres realizados en el municipio de Nechí. Estas se dividen en problemáticas y soluciones ambientales, sociales y económica. Asimismo, cada una de estas se encuentra asociada a unos actores, una ubicación geográfica, un componente del POT y una variable.  Las variables ambientales para el municipio de Nechí son: inundaciones, residuos, deforestación, contaminación por minería, ecosistema nativo, contaminación de fuentes hidrícas y ecosistemas, especies foráneas. Las variables sociales son: salud, vivienda, educación, cultura, acceso a servicios públicos y saneamiento básico, participación comunitaria, TICs, recreación y deporte, legalización de predios para educación y equipamiento municipal. Las variables económicas son: vías, emprendimiento, propiedad de la tierra, y equipamiento agropecuario y piscícola.</t>
   </si>
   <si>
-    <t>inundaciones,  residuos,  deforestación,  contaminación por minería,  ecosistema nativo,  contaminación de fuentes hidrícas y ecosistemas,  especies foráneas,  salud,  vivienda,  educación,  cultura,  acceso a servicios públicos y saneamiento básico,  participación comunitaria,  TICs,  recreación y deporte,  legalización de predios para educación,  equipamiento municipal,  vías,  emprendimiento,  propiedad de la tierra,  equipamiento agropecuario y piscícola,  Nechí</t>
+    <t>Inundaciones,  residuos,  deforestación,  contaminación por minería,  ecosistema nativo,  contaminación de fuentes hidrícas y ecosistemas,  especies foráneas,  salud,  vivienda,  educación,  cultura,  acceso a servicios públicos y saneamiento básico,  participación comunitaria,  TICs,  recreación y deporte,  legalización de predios para educación,  equipamiento municipal,  vías,  emprendimiento,  propiedad de la tierra,  equipamiento agropecuario y piscícola,  Nechí</t>
   </si>
   <si>
     <t>R0108</t>
@@ -1497,7 +1322,7 @@
     <t>Matriz en la que sistematizan las problemáticas y las soluciones a esas problemáticas propuestas en los talleres realizados en el municipio de San Jacinto del Cauca. Estas se dividen en problemáticas y soluciones ambientales, sociales y económica. Asimismo, cada una de estas se encuentra asociada a unos actores, una ubicación geográfica, un componente del POT y una variable. Las variables ambientales para el municipio de San Jacinto del Cauca son: inundaciones, residuos, deforestación, contaminación por minería, ecosistema nativo, contaminación de fuentes hidrícas y ecosistemas. Las variables sociales son: salud, vivienda, educación, cultura, acceso a servicios públicos y saneamiento básico, participación comunitaria, TICs, recreación y deporte, y equipamiento municipal. Las variables económicas son: vías, emprendimiento, propiedad de la tierra, puertos y equipamiento agropecuario.</t>
   </si>
   <si>
-    <t>inundaciones,  residuos,  deforestación,  contaminación por minería,  ecosistema nativo,  contaminación de fuentes hidrícas y ecosistemas,  salud,  vivienda,  educación,  cultura,  acceso a servicios públicos y saneamiento básico,  participación comunitaria,  TICs,  recreación y deporte,  equipamiento municipal,  vías,  emprendimiento,  propiedad de la tierra,  puertos y equipamiento agropecuario.</t>
+    <t>Inundaciones,  residuos,  deforestación,  contaminación por minería,  ecosistema nativo,  contaminación de fuentes hidrícas y ecosistemas,  salud,  vivienda,  educación,  cultura,  acceso a servicios públicos y saneamiento básico,  participación comunitaria,  TICs,  recreación y deporte,  equipamiento municipal,  vías,  emprendimiento,  propiedad de la tierra,  puertos y equipamiento agropecuario.</t>
   </si>
   <si>
     <t>R0109</t>
@@ -1530,14 +1355,185 @@
     <t>Sistematiza problemáticas y soluciones en escala de municipio y se refiere a las variables asignadas a cada situación. Parece que poner la variable "recreación y deporte" en las variables económicas es un error.</t>
   </si>
   <si>
-    <t>inundación,  sequía,  residuos,  deforestación,  contaminación por minería,  ecosistema nativo,  contaminación de fuentes hidrícas y ecosistemas,  salud,  vivienda,  educación,  cultura,  acceso a servicios públicos y saneamiento básico,  participación comunitaria,  TICs,  recreación y deporte,  espacio público y equipamiento municipal,  vías,  emprendimiento,  propiedad de la tierra,  equipamiento agropecuario y piscícola,  Sucre</t>
+    <t>Inundación,  sequía,  residuos,  deforestación,  contaminación por minería,  ecosistema nativo,  contaminación de fuentes hidrícas y ecosistemas,  salud,  vivienda,  educación,  cultura,  acceso a servicios públicos y saneamiento básico,  participación comunitaria,  TICs,  recreación y deporte,  espacio público y equipamiento municipal,  vías,  emprendimiento,  propiedad de la tierra,  equipamiento agropecuario y piscícola,  Sucre</t>
+  </si>
+  <si>
+    <t>PR0032</t>
+  </si>
+  <si>
+    <t>R0111</t>
+  </si>
+  <si>
+    <t>Modelo de ocupación - Achi</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/ACHI/01_Expediente/ANEXOS/Modelo de ocupación - Achi.xlsx</t>
+  </si>
+  <si>
+    <t>Tabla de Excel en donde se encuentran datos de diferentes variables relacionadas con Ambiente y recursos naturales, Riesgo, Servicios públicos, Espacio público, Vivienda, Vías y Suelo. Relacionando su año de referencia y fuente de la información</t>
+  </si>
+  <si>
+    <t>El año de referencia más reciente es de 2015, por lo que la información puede estar más actualizada</t>
+  </si>
+  <si>
+    <t>Ambiente y recursos naturales, Riesgo, Servicios públicos, Espacio público, Vivienda, Vías, Suelo, Achí</t>
+  </si>
+  <si>
+    <t>R0112</t>
+  </si>
+  <si>
+    <t>Anexo A. Diccionario_de_Datos_Achi</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/ACHI/08_Anexos/Anexo A. Diccionario_de_Datos_Achi.xlsx</t>
+  </si>
+  <si>
+    <t>ACHI.gdb</t>
+  </si>
+  <si>
+    <t>Tabla de excel que preseta el diccionario de datos de las capas cartográficas presentes en la carpeta de Achí. Separándolas en "base, formulación y diagnóstico". Presenta: gdb, dataset	,nombre objeto geografico (feature class), nombre completo del feature class, tipo geometria, descripcion, sistema de coordenadas, fuente de información, ruta provi, ruta, fecha de corte, procesamiento geográfico, modelo, topología, reglas topológicas, "errores detectados/errores corregidos", nombre, campo, tipo dato, longitud dato, descripcion del campo, subtipo/dominio</t>
+  </si>
+  <si>
+    <t>Presenta el diccionario de datos de 62 objetos geográficos</t>
+  </si>
+  <si>
+    <t>Achí, Diccionario de datos, Gdb, Dataset, Nombre objeto geografico (feature class), Nombre completo del feature class, Tipo geometria, Descripcion, Sistema de coordenadas, Fuente de información, Ruta provi, Ruta, Fecha de corte, Procesamiento geográfico, Modelo, Topología, Reglas topológicas, "Errores detectados/errores corregidos", Nombre, Campo, Tipo dato, Longitud dato, Descripcion del campo, Subtipo/dominio</t>
+  </si>
+  <si>
+    <t>PR0033</t>
+  </si>
+  <si>
+    <t>R0113</t>
+  </si>
+  <si>
+    <t>Modelo de ocupación - Ayapel</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/Ayapel/01_Expediente/ANEXOS/Modelo de ocupación - Ayapel.xlsx</t>
+  </si>
+  <si>
+    <t>PR0029</t>
+  </si>
+  <si>
+    <t>R0114</t>
+  </si>
+  <si>
+    <t>Modelo de ocupación - Caimito</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/Caimito/01_Expediente/ANEXOS/Modelo de ocupación - Caimito.xlsx</t>
+  </si>
+  <si>
+    <t>PR0030</t>
+  </si>
+  <si>
+    <t>R0115</t>
+  </si>
+  <si>
+    <t>Modelo de ocupación - Guaranda</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/Guaranda/01_Expediente/ANEXOS/Modelo de ocupación - Guaranda.xlsx</t>
+  </si>
+  <si>
+    <t>PR0031</t>
+  </si>
+  <si>
+    <t>R0116</t>
+  </si>
+  <si>
+    <t>Modelo de ocupación - Magangué</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/Magangue/01_Expediente/ANEXOS/Modelo de ocupación - Magangué.xlsx</t>
+  </si>
+  <si>
+    <t>R0117</t>
+  </si>
+  <si>
+    <t>Anexo A.Diccionario_de_Datos_Magangue</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/Magangue/08_Anexos/Anexo A.Diccionario_de_Datos_Magangue.xlsx</t>
+  </si>
+  <si>
+    <t>PR0068</t>
+  </si>
+  <si>
+    <t>R0118</t>
+  </si>
+  <si>
+    <t>Modelo de ocupación - Majagual</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/Majagual/01_Expediente/ANEXOS/Modelo de ocupación - Majagual.xlsx</t>
+  </si>
+  <si>
+    <t>PR0077</t>
+  </si>
+  <si>
+    <t>R0119</t>
+  </si>
+  <si>
+    <t>Modelo de ocupación - Nechí</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/Nechi/01_Expediente/ANEXOS/Modelo de ocupación - Nechí.xlsx</t>
+  </si>
+  <si>
+    <t>PR0027</t>
+  </si>
+  <si>
+    <t>R0120</t>
+  </si>
+  <si>
+    <t>Modelo de ocupación_San Benito Abad</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/San Benito Abad/01_Expediente/ANEXOS/Modelo de ocupación_San Benito Abad.xlsx</t>
+  </si>
+  <si>
+    <t>PR0073</t>
+  </si>
+  <si>
+    <t>R0121</t>
+  </si>
+  <si>
+    <t>Modelo de ocupación - San Jacinto del Cauca</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/San Jacinto del Cauca/01_Expediente/ANEXOS/Modelo de ocupación - San Jacinto del Cauca.xlsx</t>
+  </si>
+  <si>
+    <t>PR0083</t>
+  </si>
+  <si>
+    <t>R0122</t>
+  </si>
+  <si>
+    <t>Modelo de ocupación - San Marcos</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/San Marcos/01_Expediente/ANEXOS/Modelo de ocupación - San Marcos.xlsx</t>
+  </si>
+  <si>
+    <t>PR0028</t>
+  </si>
+  <si>
+    <t>R0123</t>
+  </si>
+  <si>
+    <t>Modelo de ocupación - Sucre</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/Sucre/01_Expediente/ANEXOS/Modelo de ocupación - Sucre.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1545,13 +1541,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1581,9 +1595,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1864,15 +1882,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P111"/>
+  <dimension ref="A1:Q124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="H113" sqref="H113"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D77" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="G103" sqref="G103:H103"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <cols>
+    <col min="4" max="4" width="34.85546875" customWidth="1"/>
+    <col min="5" max="5" width="91.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.7109375" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" customWidth="1"/>
+    <col min="15" max="15" width="39.85546875" customWidth="1"/>
+    <col min="16" max="16" width="54.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1922,14 +1956,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="18" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1972,14 +2006,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -2022,14 +2056,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -2072,14 +2106,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -2122,14 +2156,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -2172,14 +2206,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -2222,14 +2256,14 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -2272,14 +2306,14 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -2322,14 +2356,14 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -2372,14 +2406,14 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -2422,64 +2456,65 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    <row r="12" spans="1:17">
+      <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="1" t="s">
+      <c r="F12" s="4">
+        <v>2017</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O12" s="1" t="s">
+      <c r="M12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O12" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="P12" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q12" s="5"/>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -2507,7 +2542,7 @@
         <v>25</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>27</v>
@@ -2516,24 +2551,24 @@
         <v>28</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="C14" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>93</v>
@@ -2557,7 +2592,7 @@
         <v>25</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>27</v>
@@ -2566,24 +2601,24 @@
         <v>28</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>93</v>
@@ -2607,7 +2642,7 @@
         <v>25</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>27</v>
@@ -2616,24 +2651,24 @@
         <v>28</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>101</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>93</v>
@@ -2645,7 +2680,7 @@
         <v>21</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>23</v>
@@ -2657,7 +2692,7 @@
         <v>25</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>27</v>
@@ -2666,24 +2701,24 @@
         <v>28</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P16" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>93</v>
@@ -2695,7 +2730,7 @@
         <v>21</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>23</v>
@@ -2716,24 +2751,24 @@
         <v>28</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P17" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>93</v>
@@ -2745,7 +2780,7 @@
         <v>21</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>23</v>
@@ -2766,24 +2801,24 @@
         <v>28</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P18" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>93</v>
@@ -2795,7 +2830,7 @@
         <v>21</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>23</v>
@@ -2816,24 +2851,24 @@
         <v>28</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P19" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>93</v>
@@ -2845,7 +2880,7 @@
         <v>21</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>23</v>
@@ -2866,24 +2901,24 @@
         <v>28</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P20" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>93</v>
@@ -2895,7 +2930,7 @@
         <v>21</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>23</v>
@@ -2916,24 +2951,24 @@
         <v>28</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P21" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>93</v>
@@ -2966,24 +3001,24 @@
         <v>28</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P22" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>93</v>
@@ -3016,24 +3051,24 @@
         <v>28</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P23" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="D24" s="1" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>93</v>
@@ -3066,24 +3101,24 @@
         <v>28</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>134</v>
+        <v>91</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>93</v>
@@ -3116,86 +3151,86 @@
         <v>28</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P25" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="5" customFormat="1">
+      <c r="A26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F26" s="4">
+        <v>2017</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="I26" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O26" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="P26" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F26" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="1" t="s">
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O26" s="1" t="s">
+      <c r="C27" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="P26" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="F27" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F27" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>23</v>
@@ -3207,7 +3242,7 @@
         <v>25</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>27</v>
@@ -3216,36 +3251,36 @@
         <v>28</v>
       </c>
       <c r="O27" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F28" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>23</v>
@@ -3257,7 +3292,7 @@
         <v>25</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>27</v>
@@ -3266,28 +3301,28 @@
         <v>28</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="F29" s="1">
         <v>2017</v>
       </c>
@@ -3295,7 +3330,7 @@
         <v>21</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>23</v>
@@ -3307,7 +3342,7 @@
         <v>25</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>27</v>
@@ -3316,27 +3351,27 @@
         <v>28</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="F30" s="1">
         <v>2017</v>
@@ -3366,28 +3401,28 @@
         <v>28</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="F31" s="1">
         <v>2017</v>
       </c>
@@ -3395,7 +3430,7 @@
         <v>21</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>23</v>
@@ -3416,28 +3451,28 @@
         <v>28</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="F32" s="1">
         <v>2017</v>
       </c>
@@ -3445,7 +3480,7 @@
         <v>21</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>23</v>
@@ -3466,28 +3501,28 @@
         <v>28</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="F33" s="1">
         <v>2017</v>
       </c>
@@ -3495,7 +3530,7 @@
         <v>21</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>23</v>
@@ -3516,27 +3551,27 @@
         <v>28</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="F34" s="1">
         <v>2017</v>
@@ -3566,27 +3601,27 @@
         <v>28</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="F35" s="1">
         <v>2017</v>
@@ -3616,27 +3651,27 @@
         <v>28</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="F36" s="1">
         <v>2017</v>
@@ -3666,77 +3701,77 @@
         <v>28</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D37" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" s="5" customFormat="1">
+      <c r="A37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F37" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="I37" s="1" t="s">
+      <c r="E37" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F37" s="4">
+        <v>2017</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="I37" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="J37" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="K37" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="L37" s="1" t="s">
+      <c r="L37" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="M37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M37" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>187</v>
+        <v>176</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>188</v>
+        <v>141</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="F38" s="1">
         <v>2017</v>
@@ -3745,7 +3780,7 @@
         <v>21</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>23</v>
@@ -3757,7 +3792,7 @@
         <v>25</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>27</v>
@@ -3766,27 +3801,27 @@
         <v>28</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>193</v>
+        <v>176</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>194</v>
+        <v>32</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="F39" s="1">
         <v>2017</v>
@@ -3795,7 +3830,7 @@
         <v>21</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>23</v>
@@ -3807,7 +3842,7 @@
         <v>25</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>27</v>
@@ -3816,36 +3851,36 @@
         <v>28</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F40" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F40" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>23</v>
@@ -3857,7 +3892,7 @@
         <v>25</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>27</v>
@@ -3866,36 +3901,36 @@
         <v>28</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>201</v>
+        <v>176</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>202</v>
+        <v>56</v>
       </c>
       <c r="E41" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F41" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="F41" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>23</v>
@@ -3916,36 +3951,36 @@
         <v>28</v>
       </c>
       <c r="O41" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="P41" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="D42" s="1" t="s">
-        <v>206</v>
+        <v>51</v>
       </c>
       <c r="E42" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F42" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="F42" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>23</v>
@@ -3966,27 +4001,27 @@
         <v>28</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>207</v>
+        <v>176</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>208</v>
+        <v>60</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="F43" s="1">
         <v>2017</v>
@@ -4016,27 +4051,27 @@
         <v>28</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>210</v>
+        <v>176</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>211</v>
+        <v>65</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="F44" s="1">
         <v>2017</v>
@@ -4045,7 +4080,7 @@
         <v>21</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>23</v>
@@ -4066,27 +4101,27 @@
         <v>28</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>214</v>
+        <v>176</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>215</v>
+        <v>41</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="F45" s="1">
         <v>2017</v>
@@ -4095,7 +4130,7 @@
         <v>21</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>23</v>
@@ -4116,27 +4151,27 @@
         <v>28</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>218</v>
+        <v>176</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>200</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>219</v>
+        <v>47</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="F46" s="1">
         <v>2017</v>
@@ -4145,7 +4180,7 @@
         <v>21</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>23</v>
@@ -4166,27 +4201,27 @@
         <v>28</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
       <c r="A47" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>222</v>
+        <v>176</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>203</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>223</v>
+        <v>105</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="F47" s="1">
         <v>2017</v>
@@ -4195,7 +4230,7 @@
         <v>21</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>23</v>
@@ -4216,77 +4251,77 @@
         <v>28</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D48" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" s="5" customFormat="1">
+      <c r="A48" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="F48" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="I48" s="1" t="s">
+      <c r="E48" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F48" s="4">
+        <v>2017</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="I48" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="J48" s="1" t="s">
+      <c r="J48" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="K48" s="1" t="s">
+      <c r="K48" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="L48" s="1" t="s">
+      <c r="L48" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="M48" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O48" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M48" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O48" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="P48" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
       <c r="A49" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>232</v>
+        <v>211</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>233</v>
+        <v>141</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="F49" s="1">
         <v>2017</v>
@@ -4295,7 +4330,7 @@
         <v>21</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>23</v>
@@ -4307,7 +4342,7 @@
         <v>25</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>27</v>
@@ -4316,27 +4351,27 @@
         <v>28</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
       <c r="A50" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>238</v>
+        <v>211</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>217</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>239</v>
+        <v>32</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="F50" s="1">
         <v>2017</v>
@@ -4345,7 +4380,7 @@
         <v>21</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>23</v>
@@ -4357,7 +4392,7 @@
         <v>25</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>27</v>
@@ -4366,27 +4401,27 @@
         <v>28</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
       <c r="A51" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>242</v>
+        <v>211</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>243</v>
+        <v>150</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="F51" s="1">
         <v>2017</v>
@@ -4395,7 +4430,7 @@
         <v>21</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>23</v>
@@ -4407,7 +4442,7 @@
         <v>25</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>27</v>
@@ -4416,27 +4451,27 @@
         <v>28</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
       <c r="A52" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>246</v>
+        <v>211</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>247</v>
+        <v>56</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="F52" s="1">
         <v>2017</v>
@@ -4445,7 +4480,7 @@
         <v>21</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>23</v>
@@ -4466,27 +4501,27 @@
         <v>28</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
       <c r="A53" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>249</v>
+        <v>211</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>250</v>
+        <v>51</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="F53" s="1">
         <v>2017</v>
@@ -4495,7 +4530,7 @@
         <v>21</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>23</v>
@@ -4516,27 +4551,27 @@
         <v>28</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
       <c r="A54" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>252</v>
+        <v>211</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>253</v>
+        <v>60</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="F54" s="1">
         <v>2017</v>
@@ -4566,27 +4601,27 @@
         <v>28</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
       <c r="A55" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>255</v>
+        <v>211</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>229</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>256</v>
+        <v>65</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="F55" s="1">
         <v>2017</v>
@@ -4595,7 +4630,7 @@
         <v>21</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>23</v>
@@ -4616,27 +4651,27 @@
         <v>28</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
       <c r="A56" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>259</v>
+        <v>211</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>260</v>
+        <v>41</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="F56" s="1">
         <v>2017</v>
@@ -4645,7 +4680,7 @@
         <v>21</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>23</v>
@@ -4666,36 +4701,36 @@
         <v>28</v>
       </c>
       <c r="O56" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F57" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="P56" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F57" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>23</v>
@@ -4716,27 +4751,27 @@
         <v>28</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
       <c r="A58" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>267</v>
+        <v>211</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>238</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>268</v>
+        <v>105</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="F58" s="1">
         <v>2017</v>
@@ -4745,7 +4780,7 @@
         <v>21</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>23</v>
@@ -4766,77 +4801,77 @@
         <v>28</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D59" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" s="5" customFormat="1">
+      <c r="A59" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="F59" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="I59" s="1" t="s">
+      <c r="E59" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F59" s="4">
+        <v>2017</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="I59" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="J59" s="1" t="s">
+      <c r="J59" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="K59" s="1" t="s">
+      <c r="K59" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="L59" s="1" t="s">
+      <c r="L59" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="M59" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N59" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="P59" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M59" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N59" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O59" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P59" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
       <c r="A60" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>277</v>
+        <v>246</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F60" s="1">
         <v>2017</v>
@@ -4845,7 +4880,7 @@
         <v>21</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>23</v>
@@ -4857,7 +4892,7 @@
         <v>25</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="M60" s="1" t="s">
         <v>27</v>
@@ -4866,27 +4901,27 @@
         <v>28</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
       <c r="A61" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>283</v>
+        <v>246</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>253</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F61" s="1">
         <v>2017</v>
@@ -4895,7 +4930,7 @@
         <v>21</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>23</v>
@@ -4907,7 +4942,7 @@
         <v>25</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="M61" s="1" t="s">
         <v>27</v>
@@ -4916,27 +4951,27 @@
         <v>28</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
       <c r="A62" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>287</v>
+        <v>246</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>257</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F62" s="1">
         <v>2017</v>
@@ -4945,7 +4980,7 @@
         <v>21</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>23</v>
@@ -4957,7 +4992,7 @@
         <v>25</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="M62" s="1" t="s">
         <v>27</v>
@@ -4966,27 +5001,27 @@
         <v>28</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
       <c r="A63" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>291</v>
+        <v>246</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>292</v>
+        <v>125</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F63" s="1">
         <v>2017</v>
@@ -4995,7 +5030,7 @@
         <v>21</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>23</v>
@@ -5016,27 +5051,27 @@
         <v>28</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
       <c r="A64" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>295</v>
+        <v>246</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>296</v>
+        <v>265</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F64" s="1">
         <v>2017</v>
@@ -5045,7 +5080,7 @@
         <v>21</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>23</v>
@@ -5066,27 +5101,27 @@
         <v>28</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
       <c r="A65" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>297</v>
+        <v>246</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>266</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>298</v>
+        <v>60</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F65" s="1">
         <v>2017</v>
@@ -5116,27 +5151,27 @@
         <v>28</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
       <c r="A66" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>300</v>
+        <v>246</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>268</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F66" s="1">
         <v>2017</v>
@@ -5145,7 +5180,7 @@
         <v>21</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>23</v>
@@ -5166,27 +5201,27 @@
         <v>28</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
       <c r="A67" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>304</v>
+        <v>246</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>272</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>305</v>
+        <v>121</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F67" s="1">
         <v>2017</v>
@@ -5195,7 +5230,7 @@
         <v>21</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>23</v>
@@ -5216,77 +5251,77 @@
         <v>28</v>
       </c>
       <c r="O67" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" s="5" customFormat="1">
+      <c r="A68" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="F68" s="4">
+        <v>2017</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L68" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M68" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N68" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O68" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="P68" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="P67" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="F68" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L68" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M68" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N68" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O68" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="P68" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>314</v>
-      </c>
       <c r="D69" s="1" t="s">
-        <v>315</v>
+        <v>258</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>316</v>
+        <v>282</v>
       </c>
       <c r="F69" s="1">
         <v>2017</v>
@@ -5295,7 +5330,7 @@
         <v>21</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>23</v>
@@ -5307,7 +5342,7 @@
         <v>25</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="M69" s="1" t="s">
         <v>27</v>
@@ -5316,27 +5351,27 @@
         <v>28</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>318</v>
+        <v>284</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
       <c r="A70" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>320</v>
+        <v>280</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>321</v>
+        <v>265</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>316</v>
+        <v>282</v>
       </c>
       <c r="F70" s="1">
         <v>2017</v>
@@ -5345,7 +5380,7 @@
         <v>21</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>23</v>
@@ -5366,27 +5401,27 @@
         <v>28</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>318</v>
+        <v>284</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
       <c r="A71" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>324</v>
+        <v>280</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>289</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>325</v>
+        <v>269</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>316</v>
+        <v>282</v>
       </c>
       <c r="F71" s="1">
         <v>2017</v>
@@ -5395,7 +5430,7 @@
         <v>21</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>23</v>
@@ -5416,27 +5451,27 @@
         <v>28</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>318</v>
+        <v>284</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
       <c r="A72" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>329</v>
+        <v>292</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>293</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>330</v>
+        <v>248</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="F72" s="1">
         <v>2017</v>
@@ -5445,7 +5480,7 @@
         <v>21</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>332</v>
+        <v>295</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>23</v>
@@ -5457,7 +5492,7 @@
         <v>25</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="M72" s="1" t="s">
         <v>27</v>
@@ -5466,27 +5501,27 @@
         <v>28</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
       <c r="A73" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>335</v>
+        <v>292</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>298</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>336</v>
+        <v>37</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="F73" s="1">
         <v>2017</v>
@@ -5495,7 +5530,7 @@
         <v>21</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>337</v>
+        <v>299</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>23</v>
@@ -5507,7 +5542,7 @@
         <v>25</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="M73" s="1" t="s">
         <v>27</v>
@@ -5516,27 +5551,27 @@
         <v>28</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
       <c r="A74" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>339</v>
+        <v>292</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>301</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>340</v>
+        <v>254</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="F74" s="1">
         <v>2017</v>
@@ -5545,7 +5580,7 @@
         <v>21</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>23</v>
@@ -5557,7 +5592,7 @@
         <v>25</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="M74" s="1" t="s">
         <v>27</v>
@@ -5566,27 +5601,27 @@
         <v>28</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
       <c r="A75" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>343</v>
+        <v>292</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>304</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>344</v>
+        <v>125</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="F75" s="1">
         <v>2017</v>
@@ -5595,7 +5630,7 @@
         <v>21</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>23</v>
@@ -5616,27 +5651,27 @@
         <v>28</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
       <c r="A76" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>347</v>
+        <v>292</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>307</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>348</v>
+        <v>265</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="F76" s="1">
         <v>2017</v>
@@ -5645,7 +5680,7 @@
         <v>21</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>23</v>
@@ -5666,27 +5701,27 @@
         <v>28</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
       <c r="A77" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>349</v>
+        <v>292</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>308</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>350</v>
+        <v>60</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="F77" s="1">
         <v>2017</v>
@@ -5716,27 +5751,27 @@
         <v>28</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
       <c r="A78" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>352</v>
+        <v>292</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>310</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>353</v>
+        <v>269</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="F78" s="1">
         <v>2017</v>
@@ -5745,7 +5780,7 @@
         <v>21</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>354</v>
+        <v>311</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>23</v>
@@ -5766,27 +5801,27 @@
         <v>28</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
       <c r="A79" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>356</v>
+        <v>292</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>313</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>357</v>
+        <v>314</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="F79" s="1">
         <v>2017</v>
@@ -5795,7 +5830,7 @@
         <v>21</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>358</v>
+        <v>315</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>23</v>
@@ -5816,27 +5851,27 @@
         <v>28</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
       <c r="A80" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>360</v>
+        <v>292</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>317</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>361</v>
+        <v>314</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="F80" s="1">
         <v>2017</v>
@@ -5845,7 +5880,7 @@
         <v>21</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>358</v>
+        <v>315</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>23</v>
@@ -5866,27 +5901,27 @@
         <v>28</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
       <c r="A81" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>362</v>
+        <v>292</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>318</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>363</v>
+        <v>105</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="F81" s="1">
         <v>2017</v>
@@ -5895,7 +5930,7 @@
         <v>21</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>23</v>
@@ -5916,78 +5951,78 @@
         <v>28</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
       <c r="P81" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B82" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" s="5" customFormat="1">
+      <c r="A82" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="F82" s="4">
+        <v>2017</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K82" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L82" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M82" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N82" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O82" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="P82" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
+      <c r="A83" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="F82" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L82" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M82" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N82" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O82" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="P82" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>374</v>
-      </c>
       <c r="F83" s="1">
         <v>2017</v>
       </c>
@@ -5995,7 +6030,7 @@
         <v>21</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>375</v>
+        <v>329</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>23</v>
@@ -6007,7 +6042,7 @@
         <v>25</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="M83" s="1" t="s">
         <v>27</v>
@@ -6016,27 +6051,27 @@
         <v>28</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>376</v>
+        <v>330</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
       <c r="A84" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>378</v>
+        <v>326</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>332</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>379</v>
+        <v>32</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>374</v>
+        <v>328</v>
       </c>
       <c r="F84" s="1">
         <v>2017</v>
@@ -6045,7 +6080,7 @@
         <v>21</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>380</v>
+        <v>333</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>23</v>
@@ -6057,7 +6092,7 @@
         <v>25</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="M84" s="1" t="s">
         <v>27</v>
@@ -6066,27 +6101,27 @@
         <v>28</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>376</v>
+        <v>330</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
       <c r="A85" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>382</v>
+        <v>326</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>383</v>
+        <v>56</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>374</v>
+        <v>328</v>
       </c>
       <c r="F85" s="1">
         <v>2017</v>
@@ -6095,7 +6130,7 @@
         <v>21</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>384</v>
+        <v>336</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>23</v>
@@ -6116,27 +6151,27 @@
         <v>28</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>376</v>
+        <v>330</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
       <c r="A86" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>386</v>
+        <v>326</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>338</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>387</v>
+        <v>51</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>374</v>
+        <v>328</v>
       </c>
       <c r="F86" s="1">
         <v>2017</v>
@@ -6145,7 +6180,7 @@
         <v>21</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>384</v>
+        <v>336</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>23</v>
@@ -6166,27 +6201,27 @@
         <v>28</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>376</v>
+        <v>330</v>
       </c>
       <c r="P86" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
       <c r="A87" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>388</v>
+        <v>326</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>339</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>389</v>
+        <v>60</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>374</v>
+        <v>328</v>
       </c>
       <c r="F87" s="1">
         <v>2017</v>
@@ -6216,27 +6251,27 @@
         <v>28</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>376</v>
+        <v>330</v>
       </c>
       <c r="P87" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16">
       <c r="A88" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>390</v>
+        <v>326</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>340</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>391</v>
+        <v>65</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>374</v>
+        <v>328</v>
       </c>
       <c r="F88" s="1">
         <v>2017</v>
@@ -6245,7 +6280,7 @@
         <v>21</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>392</v>
+        <v>341</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>23</v>
@@ -6266,27 +6301,27 @@
         <v>28</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>376</v>
+        <v>330</v>
       </c>
       <c r="P88" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16">
       <c r="A89" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>393</v>
+        <v>326</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>342</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>394</v>
+        <v>41</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>374</v>
+        <v>328</v>
       </c>
       <c r="F89" s="1">
         <v>2017</v>
@@ -6295,7 +6330,7 @@
         <v>21</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>395</v>
+        <v>343</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>23</v>
@@ -6316,27 +6351,27 @@
         <v>28</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>376</v>
+        <v>330</v>
       </c>
       <c r="P89" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16">
       <c r="A90" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>397</v>
+        <v>326</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>345</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>398</v>
+        <v>47</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>374</v>
+        <v>328</v>
       </c>
       <c r="F90" s="1">
         <v>2017</v>
@@ -6345,7 +6380,7 @@
         <v>21</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>399</v>
+        <v>346</v>
       </c>
       <c r="I90" s="1" t="s">
         <v>23</v>
@@ -6366,27 +6401,27 @@
         <v>28</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>376</v>
+        <v>330</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16">
       <c r="A91" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>401</v>
+        <v>326</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>348</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>402</v>
+        <v>105</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>374</v>
+        <v>328</v>
       </c>
       <c r="F91" s="1">
         <v>2017</v>
@@ -6395,7 +6430,7 @@
         <v>21</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>403</v>
+        <v>349</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>23</v>
@@ -6416,77 +6451,77 @@
         <v>28</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>376</v>
+        <v>330</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="D92" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" s="5" customFormat="1">
+      <c r="A92" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="D92" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="F92" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="I92" s="1" t="s">
+      <c r="E92" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="F92" s="4">
+        <v>2017</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="I92" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="J92" s="1" t="s">
+      <c r="J92" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="K92" s="1" t="s">
+      <c r="K92" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="L92" s="1" t="s">
+      <c r="L92" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="M92" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N92" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O92" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="P92" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M92" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N92" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O92" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="P92" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16">
       <c r="A93" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>411</v>
+        <v>356</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>357</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>412</v>
+        <v>141</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>413</v>
+        <v>358</v>
       </c>
       <c r="F93" s="1">
         <v>2017</v>
@@ -6495,7 +6530,7 @@
         <v>21</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>414</v>
+        <v>359</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>23</v>
@@ -6507,7 +6542,7 @@
         <v>25</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="M93" s="1" t="s">
         <v>27</v>
@@ -6516,27 +6551,27 @@
         <v>28</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>415</v>
+        <v>360</v>
       </c>
       <c r="P93" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
       <c r="A94" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>417</v>
+        <v>356</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>362</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>418</v>
+        <v>32</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>413</v>
+        <v>358</v>
       </c>
       <c r="F94" s="1">
         <v>2017</v>
@@ -6545,7 +6580,7 @@
         <v>21</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>419</v>
+        <v>363</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>23</v>
@@ -6557,7 +6592,7 @@
         <v>25</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="M94" s="1" t="s">
         <v>27</v>
@@ -6566,27 +6601,27 @@
         <v>28</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>415</v>
+        <v>360</v>
       </c>
       <c r="P94" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
       <c r="A95" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>421</v>
+        <v>356</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>365</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>422</v>
+        <v>56</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>413</v>
+        <v>358</v>
       </c>
       <c r="F95" s="1">
         <v>2017</v>
@@ -6595,7 +6630,7 @@
         <v>21</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>423</v>
+        <v>366</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>23</v>
@@ -6607,7 +6642,7 @@
         <v>53</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="M95" s="1" t="s">
         <v>27</v>
@@ -6616,27 +6651,27 @@
         <v>28</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>415</v>
+        <v>360</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
       <c r="A96" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>425</v>
+        <v>356</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>368</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>426</v>
+        <v>51</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>413</v>
+        <v>358</v>
       </c>
       <c r="F96" s="1">
         <v>2017</v>
@@ -6645,7 +6680,7 @@
         <v>21</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>423</v>
+        <v>366</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>23</v>
@@ -6666,27 +6701,27 @@
         <v>28</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>415</v>
+        <v>360</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16">
       <c r="A97" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>427</v>
+        <v>356</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>369</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>428</v>
+        <v>60</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>413</v>
+        <v>358</v>
       </c>
       <c r="F97" s="1">
         <v>2017</v>
@@ -6716,27 +6751,27 @@
         <v>28</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>415</v>
+        <v>360</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16">
       <c r="A98" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>430</v>
+        <v>356</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>371</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>431</v>
+        <v>65</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>413</v>
+        <v>358</v>
       </c>
       <c r="F98" s="1">
         <v>2017</v>
@@ -6745,7 +6780,7 @@
         <v>21</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>432</v>
+        <v>372</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>23</v>
@@ -6766,27 +6801,27 @@
         <v>28</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>415</v>
+        <v>360</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16">
       <c r="A99" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>434</v>
+        <v>356</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>374</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>435</v>
+        <v>41</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>413</v>
+        <v>358</v>
       </c>
       <c r="F99" s="1">
         <v>2017</v>
@@ -6795,7 +6830,7 @@
         <v>21</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>436</v>
+        <v>375</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>23</v>
@@ -6816,27 +6851,27 @@
         <v>28</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>415</v>
+        <v>360</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16">
       <c r="A100" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>437</v>
+        <v>356</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>376</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>438</v>
+        <v>47</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>413</v>
+        <v>358</v>
       </c>
       <c r="F100" s="1">
         <v>2017</v>
@@ -6845,7 +6880,7 @@
         <v>21</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>399</v>
+        <v>346</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>23</v>
@@ -6866,27 +6901,27 @@
         <v>28</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>415</v>
+        <v>360</v>
       </c>
       <c r="P100" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16">
       <c r="A101" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>440</v>
+        <v>356</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>378</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>441</v>
+        <v>105</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>413</v>
+        <v>358</v>
       </c>
       <c r="F101" s="1">
         <v>2017</v>
@@ -6895,7 +6930,7 @@
         <v>21</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>442</v>
+        <v>379</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>23</v>
@@ -6916,513 +6951,812 @@
         <v>28</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>415</v>
+        <v>360</v>
       </c>
       <c r="P101" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="D102" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" s="5" customFormat="1">
+      <c r="A102" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="D102" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E102" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="F102" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="I102" s="1" t="s">
+      <c r="E102" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="F102" s="4">
+        <v>2017</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="I102" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="J102" s="1" t="s">
+      <c r="J102" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="K102" s="1" t="s">
+      <c r="K102" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="L102" s="1" t="s">
+      <c r="L102" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="M102" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N102" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O102" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="P102" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M102" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N102" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O102" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="P102" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16">
       <c r="A103" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>449</v>
+        <v>139</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>386</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>450</v>
+        <v>387</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>451</v>
+        <v>388</v>
       </c>
       <c r="F103" s="1">
         <v>2017</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>452</v>
+        <v>389</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>453</v>
+        <v>390</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>454</v>
+        <v>391</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>455</v>
+        <v>392</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>456</v>
+        <v>393</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>456</v>
+        <v>393</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>456</v>
+        <v>393</v>
       </c>
       <c r="N103" s="1" t="s">
         <v>28</v>
       </c>
       <c r="O103" s="1" t="s">
-        <v>457</v>
+        <v>394</v>
       </c>
       <c r="P103" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16">
       <c r="A104" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F104" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="M104" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="N104" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O104" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="P104" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16">
+      <c r="A105" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F105" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="M105" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="N105" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O105" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="P105" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16">
+      <c r="A106" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="F106" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="N106" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O106" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="P106" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16">
+      <c r="A107" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="F107" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="N107" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O107" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="P107" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16">
+      <c r="A108" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="F108" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="N108" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O108" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="P108" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16">
+      <c r="A109" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="F109" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="M109" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="N109" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O109" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="P109" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16">
+      <c r="A110" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F110" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="M110" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="N110" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O110" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="P110" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16">
+      <c r="A111" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="F111" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="M111" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="N111" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O111" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P111" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16">
+      <c r="A112" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F112">
+        <v>2017</v>
+      </c>
+      <c r="G112" t="s">
+        <v>393</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="I112" t="s">
+        <v>391</v>
+      </c>
+      <c r="J112" t="s">
+        <v>392</v>
+      </c>
+      <c r="K112" t="s">
+        <v>393</v>
+      </c>
+      <c r="L112" t="s">
+        <v>393</v>
+      </c>
+      <c r="M112" t="s">
+        <v>393</v>
+      </c>
+      <c r="N112" t="s">
+        <v>28</v>
+      </c>
+      <c r="O112" t="s">
+        <v>444</v>
+      </c>
+      <c r="P112" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16">
+      <c r="A113" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="F113" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="J113" t="s">
+        <v>392</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="M113" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="N113" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O113" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="P113" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16">
+      <c r="A114" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H114" s="2"/>
+    </row>
+    <row r="115" spans="1:16">
+      <c r="A115" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D115" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="E115" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="H115" s="2"/>
+    </row>
+    <row r="116" spans="1:16">
+      <c r="A116" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="F104" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="H104" s="1" t="s">
+      <c r="C116" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="I104" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="K104" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="L104" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="M104" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="N104" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O104" s="1" t="s">
+      <c r="D116" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="P104" s="1" t="s">
+      <c r="E116" s="1" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C105" s="1" t="s">
+      <c r="H116" s="2"/>
+    </row>
+    <row r="117" spans="1:16">
+      <c r="A117" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="C117" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="D117" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="F105" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="H105" s="1" t="s">
+      <c r="E117" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="I105" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="J105" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="K105" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="L105" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="M105" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="N105" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O105" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="P105" s="1" t="s">
+      <c r="H117" s="2"/>
+    </row>
+    <row r="118" spans="1:16">
+      <c r="A118" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C106" s="1" t="s">
+      <c r="D118" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="E118" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="H118" s="2"/>
+    </row>
+    <row r="119" spans="1:16">
+      <c r="A119" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="F106" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="H106" s="1" t="s">
+      <c r="C119" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="I106" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="K106" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="L106" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="M106" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="N106" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O106" s="1" t="s">
+      <c r="D119" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="P106" s="1" t="s">
+      <c r="E119" s="1" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C107" s="1" t="s">
+      <c r="H119" s="2"/>
+    </row>
+    <row r="120" spans="1:16">
+      <c r="A120" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="C120" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="D120" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="F107" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="H107" s="1" t="s">
+      <c r="E120" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="I107" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="J107" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="K107" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="L107" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="M107" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="N107" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O107" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="P107" s="1" t="s">
+      <c r="H120" s="2"/>
+    </row>
+    <row r="121" spans="1:16">
+      <c r="A121" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C108" s="1" t="s">
+      <c r="C121" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D121" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="E108" s="1" t="s">
+      <c r="E121" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="F108" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="H108" s="1" t="s">
+      <c r="H121" s="2"/>
+    </row>
+    <row r="122" spans="1:16">
+      <c r="A122" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="I108" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="K108" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="L108" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="M108" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="N108" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O108" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="P108" s="1" t="s">
+      <c r="C122" s="1" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C109" s="1" t="s">
+      <c r="D122" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="E122" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="H122" s="2"/>
+    </row>
+    <row r="123" spans="1:16">
+      <c r="A123" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="F109" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="H109" s="1" t="s">
+      <c r="C123" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="I109" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="J109" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="K109" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="L109" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="M109" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="N109" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O109" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="P109" s="1" t="s">
+      <c r="D123" s="1" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C110" s="1" t="s">
+      <c r="E123" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="H123" s="2"/>
+    </row>
+    <row r="124" spans="1:16">
+      <c r="A124" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="E110" s="1" t="s">
+      <c r="C124" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="F110" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="H110" s="1" t="s">
+      <c r="D124" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="I110" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="K110" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="L110" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="M110" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="N110" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O110" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="P110" s="1" t="s">
+      <c r="E124" s="1" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="F111" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="K111" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="L111" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="M111" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="N111" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O111" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="P111" s="1" t="s">
-        <v>501</v>
-      </c>
+      <c r="H124" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:P124" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/P0013/09_FICHAS/N3-FD-General.xlsx
+++ b/P0013/09_FICHAS/N3-FD-General.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0013/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="335" documentId="13_ncr:1_{DB568217-8B5E-4575-9351-15D5A2E362BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C6B9349-4686-4297-BEB5-8DAD0CACFDB9}"/>
+  <xr:revisionPtr revIDLastSave="799" documentId="13_ncr:1_{DB568217-8B5E-4575-9351-15D5A2E362BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77F3A5D2-2308-45F9-A573-E039557FBD32}"/>
   <bookViews>
     <workbookView minimized="1" xWindow="30525" yWindow="1740" windowWidth="14340" windowHeight="7245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$P$124</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$P$114</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="457">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -92,7 +92,7 @@
     <t>P0013</t>
   </si>
   <si>
-    <t>PR0019</t>
+    <t>PR0007</t>
   </si>
   <si>
     <t>R0001</t>
@@ -107,7 +107,7 @@
     <t xml:space="preserve">Cartografia base </t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo punto,  de Equipamientos rurales de Achi contiene en su tabla de atributos informacion de : Tipo de cubierta, Uso, Armazón</t>
+    <t>Shapefile, geometría tipo punto de Equipamientos rurales de Achi contiene en su tabla de atributos informacion de : tipo de cubierta, uso, armazón</t>
   </si>
   <si>
     <t>Feature class</t>
@@ -131,7 +131,7 @@
     <t>La gdb contienen 61 objetos geográficos con geometrías tipo polígonos (45), polilínea (13) y puntos (3).  Muchas capas son información general que no entraría en el modelo de toma de decisiones</t>
   </si>
   <si>
-    <t>Achí, Equipamientos Rurales, Tipo de cubierta,  Uso,  Armazón</t>
+    <t>Achí, equipamientos rurales,  tipo de cubiertas, armazón, capa, red vial, ecosistemas, áreas, uso de suelo, tratamientos urbano/rural, centros poblados, drenaje</t>
   </si>
   <si>
     <t>R0002</t>
@@ -140,13 +140,13 @@
     <t>VIAS_RURALES_EN_RIESGO</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo línea,  de vías rurales en riesgo de Achi contiene en su tabla de atributos informacion de : Tipo (Caminos y senderos, Veredal, municipal...etc)</t>
+    <t>Shapefile, geometría tipo línea de vías rurales en riesgo de Achi contiene en su tabla de atributos informacion de : tipo de caminos y senderos, veredal, municipal y otros</t>
   </si>
   <si>
     <t>Línea</t>
   </si>
   <si>
-    <t>Achí, Vias, Caminos, Senderos, Veredal, Municipal, Estado</t>
+    <t>Achí, vias, caminos, senderos, veredal, municipal, estado</t>
   </si>
   <si>
     <t>R0003</t>
@@ -155,10 +155,10 @@
     <t>Vias_regional</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo línea de vías regionales de Achi contiene en su tabla de atributos informacion de: Tipo de vía, Estado, Accesibilidad, Tipo;Clasificación vial</t>
-  </si>
-  <si>
-    <t>Achí, Tipo de vía, Estado, Accesibilidad, Tipo, Clasificación vial</t>
+    <t>Shapefile, geometría tipo línea de vías regionales de Achi contiene en su tabla de atributos informacion de: tipo de vía, estado, accesibilidad, tipo, clasificación vial</t>
+  </si>
+  <si>
+    <t>Achí, tipo de vía, estado, accesibilidad, tipo, clasificación vial</t>
   </si>
   <si>
     <t>R0004</t>
@@ -167,7 +167,7 @@
     <t>EEP_URBANA</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo polígono, de Estructura Ecológica Principal (EEP), contiene en su tabla de atributo los tipos: Rondas hídricas, ríos, pantanos, rondas hídricas</t>
+    <t>Shapefile, geometría tipo polígono de estructura ecológica principal (EEP), contiene en su tabla de atributo los tipos: rondas hídricas, ríos, pantanos</t>
   </si>
   <si>
     <t>AMBIENTAL</t>
@@ -176,7 +176,7 @@
     <t>Polígono</t>
   </si>
   <si>
-    <t>Achí, Estructura Ecológica Principal (EEP), Urbano, Rondas hídricas, ríos, pantanos, rondas hídricas</t>
+    <t>Achí, estructura ecológica principal (EEP), urbano, rondas hídricas, ríos, pantanos</t>
   </si>
   <si>
     <t>R0005</t>
@@ -185,10 +185,10 @@
     <t>EEP_RURAL</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo polígono, de Estructura Ecológica Principal (EEP) Rurales, contiene en su tabla de atributo los tipos: Rondas hídricas, ríos, pantanos, rondas hídricas</t>
-  </si>
-  <si>
-    <t>Achí, Estructura Ecológica Principal (EEP), Rural, Rondas hídricas, ríos, pantanos, rondas hídricas</t>
+    <t>Shapefile, geometría tipo polígono de estructura ecológica principal (EEP) rural, contiene en su tabla de atributo los tipos: rondas hídricas, ríos, pantanos</t>
+  </si>
+  <si>
+    <t>Achí, estructura ecológica principal (EEP), rural, rondas hídricas, ríos, pantanos</t>
   </si>
   <si>
     <t>R0006</t>
@@ -197,13 +197,13 @@
     <t>ECOSISTEMAS_RURALES</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo polígono, de Ecosistemas Rurales, contiene en su tabla de atributo los tipos: Zonas de agua, de transición, terrestres</t>
+    <t>Shapefile, geometría tipo polígono de ecosistemas rurales, contiene en su tabla de atributo los tipos: zonas de agua, de transición, terrestres</t>
   </si>
   <si>
     <t>MEDIO BIÓTICO</t>
   </si>
   <si>
-    <t>Achí, Ecosistemas, Rural, Zonas de agua, transición, terrestres</t>
+    <t>Achí, ecosistemas, rural, zonas de agua, transición, terrestres</t>
   </si>
   <si>
     <t>R0007</t>
@@ -212,10 +212,10 @@
     <t>ECOSISTEMAS_URBANOS</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo polígono, de Ecosistemas Rurales, contiene en su tabla de atributo los tipos: Seco, Transición, Permanente</t>
-  </si>
-  <si>
-    <t>Achí, Ecosistemas, Urbano, Seco, Agua permanente</t>
+    <t>Shapefile, geometría tipo polígono de ecosistemas urbanos, contiene en su tabla de atributo los tipos: seco, transición, permanente</t>
+  </si>
+  <si>
+    <t>Achí, ecosistemas, urbano, seco, agua permanente</t>
   </si>
   <si>
     <t>R0008</t>
@@ -224,13 +224,13 @@
     <t>CONSERVACION_PROTECCION_AMB</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo polígono, de Conservación y protección ambiental, contiene en su tabla de atributo los tipos: Rondas rios, ronda cienagas, bosques, ciénagas.  Tambien tiene el área de cada poligono</t>
+    <t>Shapefile, geometría tipo polígono de conservación y protección ambiental, contiene en su tabla de atributo los tipos: rondas rios, ronda ciénagas, bosques, ciénagas, área de cada poligono</t>
   </si>
   <si>
     <t>ÁREAS DE CONSERVACIÓN Y PROTECCIÓN</t>
   </si>
   <si>
-    <t>Achí, Rondas rios, ronda cienagas, bosques, ciénagas</t>
+    <t>Achí, rondas rios, ronda, bosques, ciénagas</t>
   </si>
   <si>
     <t>R0009</t>
@@ -239,13 +239,13 @@
     <t>AMENAZA_POR_INUNDACION_RURAL</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo polígono de Amenaza por inundación rural.  La tabla de atributo contiene los tipos de amenaza: media, baja, alta, sin amenaza</t>
+    <t>Shapefile, geometría tipo polígono de amenaza por inundación rural en Achí.  La tabla de atributo contiene los tipos de amenaza: media, baja, alta, sin amenaza</t>
   </si>
   <si>
     <t>GESTIÓN DEL RIESGO</t>
   </si>
   <si>
-    <t>Achí, Amenaza, Inundación, Media, Alta, Sin Amenaza</t>
+    <t>Achí, amenaza, inundación, media, alta, sin amenaza</t>
   </si>
   <si>
     <t>R0010</t>
@@ -254,37 +254,10 @@
     <t>AREAS_DE_ACTIVIDAD</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo polígono de Areas de actividad.  La tabla de atributo contiene información de Tipos de amenazas, clasficación del suelo, tratamiento (Productividad, Seguridad alimentaria, vocación), uso principal, ecosistema</t>
-  </si>
-  <si>
-    <t>Achí, Amenazas, Clasficación del suelo, Productividad, Seguridad alimentaria, Vocación, Uso principal, Ecosistema</t>
-  </si>
-  <si>
-    <t>R0011</t>
-  </si>
-  <si>
-    <t>PDF</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/ACHI/07 Cartografia/PDF</t>
-  </si>
-  <si>
-    <t>Mapas en PDF de la cartografía base usada para la elaboración del POT del municipio de Achí</t>
-  </si>
-  <si>
-    <t>pdf</t>
-  </si>
-  <si>
-    <t>MEDIO SOCIOECONÓMICO, MEDIO BIÓTICO, GESTIÓN DEL RIESGO, ÁREAS DE CONSERVACIÓN Y PROTECCIÓN AMBIENTAL</t>
-  </si>
-  <si>
-    <t>Polígono;Línea;Puntos</t>
-  </si>
-  <si>
-    <t>Esta carpeta contiene 33 archivos en formato .pdf que corresponden a la composición de los mapas por cada información base utilizada para la elaboración del POT del municipio de Achí</t>
-  </si>
-  <si>
-    <t>Achí, EOT, Esquema Regional, Equipamientos Rurales, Red Vial, Ecosistemas, Areas, Uso de Suelo, Tratamientos Urbano/Rural, Centros Poblados, Drenajes, Modelo Ocupación, Sistema Ambiental, Areas con condiciones de Riesgo, EEP, Espacio Público, Amenazas por Inundación</t>
+    <t>Shapefile, geometría tipo polígono de áreas de actividad Achí. La tabla de atributo contiene información de tipos de amenazas, clasficación del suelo, tratamiento: productividad, seguridad alimentaria, vocación, uso principal, ecosistema</t>
+  </si>
+  <si>
+    <t>Achí, amenazas, clasficación del suelo, productividad, seguridad alimentaria, vocación, uso principal, ecosistema</t>
   </si>
   <si>
     <t>R0012</t>
@@ -308,10 +281,10 @@
     <t>linea</t>
   </si>
   <si>
-    <t>dentro de la .gdb Achi no se encontró este archivo, por tanto se incluye.  Contiene una polilínea y una capa de polígono</t>
-  </si>
-  <si>
-    <t>Achí, EOT, Equipamientos Rurales</t>
+    <t>Dentro de la gdb Achi no se encontró este archivo, por tanto se incluye. Contiene una polilínea y una capa de polígono</t>
+  </si>
+  <si>
+    <t>Achí, esquema de ordenamiento territorial EOT, equipamientos rurales</t>
   </si>
   <si>
     <t>PR0009</t>
@@ -323,7 +296,7 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/Caimito/07_Cartografia/GEODATABASE/CAIMITO.gdb</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo punto, de equipamientos rurales de Caimito, contiene en su tabla de atributos informacion de : Tipo de cubierta, Uso, Armazón</t>
+    <t>Shapefile, geometría tipo punto de equipamientos rurales de Caimito, contiene en su tabla de atributos informacion de : tipo de cubierta, uso, armazón</t>
   </si>
   <si>
     <t>punto</t>
@@ -332,25 +305,22 @@
     <t>La gdb contienen 61 objetos geográficos con geometrías tipo polígonos (44), polilínea (14) y puntos (3).  Muchas capas son información general que no entraría en el modelo de toma de decisiones</t>
   </si>
   <si>
-    <t>Caimito, Equipamientos, Tipo de cubierta, Uso, Armazón</t>
+    <t>Caimito, equipamientos rurales,  tipo de cubiertas, armazón, capa, red vial, ecosistemas, áreas, uso de suelo, tratamientos urbano/rural, centros poblados, drenaje</t>
   </si>
   <si>
     <t>R0014</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo línea, de vías rurales en riesgo de Caimito contiene en su tabla de atributos informacion de : Tipo (Caminos y senderos,Veredal, municipal...etc)</t>
-  </si>
-  <si>
-    <t>Caimito, Caminos, Senderos, Veredal, Municipal, Estado</t>
+    <t>Shapefile, geometría tipo línea de vías rurales en riesgo de Caimito contiene en su tabla de atributos informacion de : tipo caminos y senderos, veredal, municipal y otros.</t>
+  </si>
+  <si>
+    <t>Caimito, caminos, senderos, veredal, municipal, estado</t>
   </si>
   <si>
     <t>R0015</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo línea,  de vías regionales de Caimito contiene en su tabla de atributos informacion de: Tipo de vía, Estado, Accesibilidad, Tipo;Clasificación vial</t>
-  </si>
-  <si>
-    <t>Caimito, Tipo de vía, Estado, Accesibilidad, Tipo, Clasificación vial</t>
+    <t>Caimito, tipo de vía, estado, accesibilidad, tipo, clasificación vial</t>
   </si>
   <si>
     <t>R0016</t>
@@ -359,10 +329,10 @@
     <t>PRODUCCION_PROTECCION</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo polígono, de producción / protección de Caimito, la tabla de atributo contiene información de la temporada, ecosistemas, protección, amenaza, clasificacion del suelo, tratamiento</t>
-  </si>
-  <si>
-    <t>Caimito, Temporada climática, Ecosistemas, Protección, Amenaza, Clasificacion del suelo, Tratamiento</t>
+    <t>Shapefile, geometría tipo polígono de producción / protección de Caimito, la tabla de atributo contiene información de la temporada, ecosistemas, protección, amenaza, clasificación del suelo, tratamiento</t>
+  </si>
+  <si>
+    <t>Caimito, temporada climática, ecosistemas, protección, amenaza, clasificacion del suelo, tratamiento</t>
   </si>
   <si>
     <t>R0017</t>
@@ -374,7 +344,7 @@
     <t>Shapefile, geometría tipo polígono, de capacidad agrícola de Caimito, la tabla de atributo contiene información de clasificación agrícola</t>
   </si>
   <si>
-    <t>Caimito, Capacidad, Agrícola, áreas</t>
+    <t>Caimito, capacidad, agrícola, áreas</t>
   </si>
   <si>
     <t>R0018</t>
@@ -383,10 +353,10 @@
     <t>AREAS_ACTIVIDAD</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo polígono de Areas de actividad de Caimito.  La tabla de atributo contiene información de Tipos de amenazas, clasficación del suelo, tratamiento (Productividad, Seguridad alimentaria, vocación), uso principal, ecosistema</t>
-  </si>
-  <si>
-    <t>Caimito, Clasficación del suelo, Productividad, Seguridad alimentaria, Vocación, Uso principal, Ecosistema</t>
+    <t>Shapefile, geometría tipo polígono de Areas de actividad de Caimito. La tabla de atributo contiene información de tipos de amenazas, clasficación del suelo, tratamiento: productividad, seguridad alimentaria, vocación, uso principal, ecosistema</t>
+  </si>
+  <si>
+    <t>Caimito, amenazas, clasficación del suelo, productividad, seguridad alimentaria, vocación, uso principal, ecosistema</t>
   </si>
   <si>
     <t>R0019</t>
@@ -395,10 +365,7 @@
     <t>EEP_urbana</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo polígono, de Estructura Ecológica Principal (EEP) de Caimito, contiene en su tabla de atributo los tipos: Rondas hìdricas, ríos, pantanos, rondas hídricas</t>
-  </si>
-  <si>
-    <t>Caimito, Estructura Ecológica Principal (EEP), Urbano, Rondas hídricas, ríos, pantanos, rondas hídricas</t>
+    <t>Caimito, estructura ecológica principal (EEP), urbano, rondas hídricas, ríos, pantanos</t>
   </si>
   <si>
     <t>R0020</t>
@@ -410,7 +377,7 @@
     <t>Shapefile, geometría tipo polígono, de Estructura Ecológica Principal (EEP) Rurales de Caimito, contiene en su tabla de atributo los tipos: Rondas hídricas, ríos, pantanos, rondas hídricas</t>
   </si>
   <si>
-    <t>Caimito, Estructura Ecológica Principal (EEP), Rural, Rondas hídricas, ríos, pantanos, rondas hídricas</t>
+    <t>Caimito, estructura ecológica principal (EEP), rural, rondas hídricas, ríos, pantanos, rondas hídricas</t>
   </si>
   <si>
     <t>R0021</t>
@@ -419,7 +386,7 @@
     <t>Ecosistemas_Urbanos</t>
   </si>
   <si>
-    <t>Caimito, Ecosistemas, Urbano, Seco, Agua permanente</t>
+    <t>Caimito, ecosistemas, urbano, seco, agua permanente</t>
   </si>
   <si>
     <t>R0022</t>
@@ -428,34 +395,22 @@
     <t>Ecosistemas</t>
   </si>
   <si>
-    <t>Caimito, Ecosistemas, Rural, Zonas de agua, transición, terrestres</t>
+    <t>Caimito, ecosistemas, rural, zonas de agua, transición, terrestres</t>
   </si>
   <si>
     <t>R0023</t>
   </si>
   <si>
-    <t>Caimito, Rondas rios, ronda cienagas, bosques, ciénagas</t>
+    <t>Caimito, Rondas rios, ronda ciénagas, bosques, ciénagas</t>
   </si>
   <si>
     <t>R0024</t>
   </si>
   <si>
-    <t>Caimito, Amenaza, Inundación, Media, Alta, Sin Amenaza</t>
-  </si>
-  <si>
-    <t>R0025</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/Caimito/07_Cartografia/PDF</t>
-  </si>
-  <si>
-    <t>Mapas en PDF de la cartografía base usada para la elaboración del POT del municipio de Caimito</t>
-  </si>
-  <si>
-    <t>Esta carpeta contiene 34 archivos en formato .pdf que corresponden a la composición de los mapas por cada información base utilizada para la elaboración del POT del municipio de Caimito</t>
-  </si>
-  <si>
-    <t>Caimito, Esquema Regional, Equipamientos Rurales, Red Vial, Ecosistemas, Areas, Uso de Suelo, Tratamientos Urbano/Rural, Centros Poblados, Drenajes, Modelo Ocupación, Sistema Ambiental, Areas con condiciones de Riesgo, EEP, Espacio Público, Amenazas por Inundación</t>
+    <t>Shapefile, geometría tipo polígono de Amenaza por inundación rural en Caimito.  La tabla de atributo contiene los tipos de amenaza: media, baja, alta, sin amenaza</t>
+  </si>
+  <si>
+    <t>Caimito, amenaza, inundación, media, alta, sin amenaza</t>
   </si>
   <si>
     <t>PR0004</t>
@@ -470,22 +425,22 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/Guaranda/07_Cartografia/GEODATABASE/GUARANDA.gdb</t>
   </si>
   <si>
-    <t>Cartografia base usada para actualización del EOT del municipio de Guaranda</t>
+    <t>Shapefile, geometría tipo punto de equipamientos rurales de Guaranda, contiene en su tabla de atributos informacion de : tipo de cubierta, uso, armazón</t>
   </si>
   <si>
     <t>La gdb contienen 63 objetos geográficos con geometrías tipo polígonos (47), polilínea (13) y puntos (3).  Muchas capas son información general que no entraría en el modelo de toma de decisiones por ejemplo capas de límites de países, departamentales, drenajes etc</t>
   </si>
   <si>
-    <t>Guaranda, EOT, Equipamientos Rurales, Red Vial, Ecosistemas, Areas, Uso de Suelo, Tratamientos Urbano/Rural, Centros Poblados, Drenajes</t>
+    <t>Guaranda, EOT, equipamientos rurales, red vial, ecosistemas, áreas, uso del suelo, tratamientos urbano/rural, centros poblados, drenajes</t>
   </si>
   <si>
     <t>R0027</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo línea,  de vías regionales de Guranda contiene en su tabla de atributos informacion de: Tipo de vía, Estado, Accesibilidad, Tipo;Clasificación vial</t>
-  </si>
-  <si>
-    <t>Guaranda, Caminos, Senderos, Veredal, Municipal, Estado</t>
+    <t>Shapefile, geometría tipo línea,  de vías regionales de Guranda contiene en su tabla de atributos informacion de: tipo de vía, estado, accesibilidad, tipo, clasificación vial</t>
+  </si>
+  <si>
+    <t>Guaranda, caminos, senderos, veredal, municipal, estado</t>
   </si>
   <si>
     <t>R0028</t>
@@ -494,10 +449,7 @@
     <t>VIAS_REGIONAL</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo línea,  de vías regionales de Guaranda contiene en su tabla de atributos informacion de: Tipo de vía, Estado, Accesibilidad, Tipo;Clasificación vial</t>
-  </si>
-  <si>
-    <t>Guaranda, Tipo de vía, Estado, Accesibilidad, Tipo, Clasificación vial</t>
+    <t>Guaranda, tipo de vía, estado, accesibilidad, tipo, clasificación vial</t>
   </si>
   <si>
     <t>R0029</t>
@@ -506,67 +458,52 @@
     <t>AMENAZA_INUNDACION_RURAL</t>
   </si>
   <si>
-    <t>Guaranda, Amenaza, Inundación, Media, Alta, Sin Amenaza</t>
+    <t>Shapefile, geometría tipo polígono de amenaza por inundación rural en Guaranda. La tabla de atributo contiene los tipos de amenaza: media, baja, alta, sin amenaza</t>
+  </si>
+  <si>
+    <t>Guaranda, amenaza, inundación, media, alta, sin amenaza</t>
   </si>
   <si>
     <t>R0030</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo polígono, de producción / protección de Guaranda, la tabla de atributo contiene información de la temporada, ecosistemas, protección, amenaza, clasificacion del suelo, tratamiento</t>
-  </si>
-  <si>
-    <t>Guaranda, Temporada climática, Ecosistemas, Protección, Amenaza, Clasificacion del suelo, Tratamiento</t>
+    <t>Shapefile, geometría tipo polígono de producción / protección de Guaranda, la tabla de atributo contiene información de la temporada, ecosistemas, protección, amenaza, clasificación del suelo, tratamiento</t>
+  </si>
+  <si>
+    <t>Guaranda, temporada climática, ecosistemas, protección, amenaza, clasificacion del suelo, tratamiento</t>
   </si>
   <si>
     <t>R0031</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo polígono de Areas de actividad de Guaranda.  La tabla de atributo contiene información de Tipos de amenazas, clasficación del suelo, tratamiento (Productividad, Seguridad alimentaria, vocación), uso principal, ecosistema</t>
-  </si>
-  <si>
-    <t>Guaranda, Clasficación del suelo, Productividad, Seguridad alimentaria, Vocación, Uso principal, Ecosistema</t>
+    <t>Shapefile, geometría tipo polígono de Areas de actividad de Guaranda. La tabla de atributo contiene información de tipos de amenazas, clasficación del suelo, tratamiento: productividad, seguridad alimentaria, vocación, uso principal, ecosistema</t>
+  </si>
+  <si>
+    <t>Guaranda, amenazas, clasficación del suelo, productividad, seguridad alimentaria, vocación, uso principal, ecosistema</t>
   </si>
   <si>
     <t>R0032</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo polígono, de Estructura Ecológica Principal (EEP) de Guaranda, contiene en su tabla de atributo los tipos: Rondas hìdricas, ríos, pantanos, rondas hídricas</t>
-  </si>
-  <si>
-    <t>Guaranda, Estructura Ecológica Principal (EEP), Urbano, Rondas hídricas, ríos, pantanos, rondas hídricas</t>
+    <t>Guaranda, estructura ecológica principal (EEP), urbano, rondas hídricas, ríos, pantanos</t>
   </si>
   <si>
     <t>R0033</t>
   </si>
   <si>
-    <t>Guaranda, Ecosistemas, Urbano, Seco, Agua permanente</t>
+    <t>Guaranda, Eecosistemas, urbano, seco, agua permanente</t>
   </si>
   <si>
     <t>R0034</t>
   </si>
   <si>
-    <t>Guaranda, Ecosistemas, Rural, Zonas de agua, transición, terrestres</t>
+    <t>Guaranda, Ecosistemas, rural, zonas de agua, transición, terrestres</t>
   </si>
   <si>
     <t>R0035</t>
   </si>
   <si>
-    <t>Guaranda, Rondas rios, ronda cienagas, bosques, ciénagas</t>
-  </si>
-  <si>
-    <t>R0036</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/Guaranda/07_Cartografia/PDF</t>
-  </si>
-  <si>
-    <t>Mapas en PDF de la cartografía base usada para la elaboración del POT del municipio de Guaranda</t>
-  </si>
-  <si>
-    <t>Esta carpeta contiene 36 archivos en formato .pdf que corresponden a la composición de los mapas por cada información base utilizada para la elaboración del POT del municipio de Guaranda</t>
-  </si>
-  <si>
-    <t>Guaranda, Esquema Regional, Equipamientos Rurales, Red Vial, Ecosistemas, Areas, Uso de Suelo, Tratamientos Urbano/Rural, Centros Poblados, Drenajes, Modelo Ocupación, Sistema Ambiental, Areas con condiciones de Riesgo, EEP, Espacio Público, Amenazas por Inundación</t>
+    <t>Guaranda, Rondas rios, ronda ciénagas, bosques, ciénagas</t>
   </si>
   <si>
     <t>PR0006</t>
@@ -578,100 +515,79 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/Magangue/07_Cartografia/GEODATABASE/MAGANGUE.gdb</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo punto, contiene los equipamientos rurales en riesgo de Magangué.  La tabla de atributos contiene Tipode cubiertas, armazón, capa</t>
+    <t>Shapefile, geometría tipo punto, contiene los equipamientos rurales en riesgo de Magangué.  La tabla de atributos contiene tipode cubiertas, armazón, capa</t>
   </si>
   <si>
     <t>La gdb contienen 77 objetos geográficos con geometrías tipo polígonos (48), polilínea (22) y puntos (7).  Muchas capas son información general que no entraría en el modelo de toma de decisiones por ejemplo capas de límites de países, departamentales, drenajes etc</t>
   </si>
   <si>
-    <t>Magangue, Equipamientos Rurales, Tipode cubiertas, armazón, capa</t>
+    <t>Magangue, Equipamientos Rurales, tipo de cubiertas, armazón, capa, red vial, ecosistemas, áreas, uso del suelo, tratamientos urbano/rural, centros poblados, drenajes</t>
   </si>
   <si>
     <t>R0038</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo línea de las vias rurales en riesgo de Magangue.  La tabla de atributos contiene los tipo de vías, la longitud y forma</t>
-  </si>
-  <si>
-    <t>Magangué, Tipo de vías, Longitud, Forma</t>
+    <t>Shapefile, geometría tipo línea de las vias rurales en riesgo de Magangue. La tabla de atributos contiene los tipo de vías, la longitud y forma</t>
+  </si>
+  <si>
+    <t>Magangué, caminos, senderos, veredal, municipal, estado</t>
   </si>
   <si>
     <t>R0039</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo línea de las vias regionales que conectan con Magangue.  La tabla de atributos contiene los tipo de vías, estado, la longitud y forma</t>
-  </si>
-  <si>
-    <t>Magangué, Tipo de vías, Longitud, Forma, Estado</t>
+    <t>Magangué, tipo de vía, estado, accesibilidad, tipo, clasificación vial</t>
   </si>
   <si>
     <t>R0040</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo polígono  de ecosistemas urbanos de Magangue. La tabla de atributos contiene el tipo de ecosistemas</t>
-  </si>
-  <si>
-    <t>Magangué, Ecosistemas, Seco, Transición, Agua permanente</t>
+    <t>Shapefile, geometría tipo polígono de ecosistemas urbanos de Magangue. La tabla de atributos contiene el tipo de ecosistemas</t>
+  </si>
+  <si>
+    <t>Magangué, ecosistemas, seco, transición, agua permanente</t>
   </si>
   <si>
     <t>R0041</t>
   </si>
   <si>
+    <t>Shapefile, geometría tipo polígono de ecosistemas rurales de Magangue. La tabla de atributos contiene el tipo de ecosistemas</t>
+  </si>
+  <si>
     <t>R0042</t>
   </si>
   <si>
-    <t>Magangué, Rondas rios, ronda cienagas, bosques, ciénagas</t>
+    <t>Magangué, Rondas rios, ronda ciénagas, bosques, ciénagas</t>
   </si>
   <si>
     <t>R0043</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo polígono de Amenaza por inundación rural de Magangué.  La tabla de atributo contiene los tipos de amenaza: media, baja, alta, sin amenaza</t>
-  </si>
-  <si>
-    <t>Magangué, Amenaza, Inundación, Media, Alta, Sin Amenaza</t>
+    <t>Shapefile, geometría tipo polígono de amenaza por inundación rural de Magangué. La tabla de atributo contiene los tipos de amenaza: media, baja, alta, sin amenaza</t>
+  </si>
+  <si>
+    <t>Magangué, amenaza, inundación, media, alta, sin amenaza</t>
   </si>
   <si>
     <t>R0044</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo polígono, de Estructura Ecológica Principal (EEP) de Magangué, contiene en su tabla de atributo los tipos: Rondas hìdricas, ríos, pantanos, rondas hídricas</t>
-  </si>
-  <si>
-    <t>Magangué, Estructura Ecológica Principal (EEP), Urbano, Rondas hídricas, ríos, pantanos, rondas hídricas</t>
+    <t>Magangué, estructura ecológica principal (EEP), urbano, rondas hídricas, ríos, pantanos</t>
   </si>
   <si>
     <t>R0045</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo polígono, de Estructura Ecológica Principal (EEP) Rurales de Magangué, contiene en su tabla de atributo los tipos: Rondas hídricas, ríos, pantanos, rondas hídricas</t>
-  </si>
-  <si>
-    <t>Magangué, Estructura Ecológica Principal (EEP), Rural, Rondas hídricas, ríos, pantanos, rondas hídricas</t>
+    <t>Magangué, estructura ecológica principal (EEP), rural, rondas hídricas, ríos, pantanos</t>
   </si>
   <si>
     <t>R0046</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo polígono, de producción / protección de Magangué, la tabla de atributo contiene información de la temporada, ecosistemas, protección, amenaza, clasificacion del suelo, tratamiento</t>
-  </si>
-  <si>
-    <t>Magangué, Temporada climática, Ecosistemas, Protección, Amenaza, Clasificacion del suelo, Tratamiento</t>
-  </si>
-  <si>
-    <t>R0047</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/Magangue/07_Cartografia/PDF</t>
-  </si>
-  <si>
-    <t>Mapas en PDF de la cartografía base usada para la elaboración del POT del municipio de Magangue</t>
-  </si>
-  <si>
-    <t>Esta carpeta contiene 34 archivos en formato .pdf que corresponden a la composición de los mapas por cada información base utilizada para la elaboración del POT del municipio de Magangue</t>
-  </si>
-  <si>
-    <t>Magangue, Esquema Regional, Equipamientos Rurales, Red Vial, Ecosistemas, Areas, Uso de Suelo, Tratamientos Urbano/Rural, Centros Poblados, Drenajes, Modelo Ocupación, Sistema Ambiental, Areas con condiciones de Riesgo, EEP, Espacio Público, Amenazas por Inundación</t>
+    <t>Shapefile, geometría tipo polígono de producción / protección de Magangué, la tabla de atributo contiene información de la temporada, ecosistemas, protección, amenaza, clasificación del suelo, tratamiento</t>
+  </si>
+  <si>
+    <t>Magangué, temporada climática, ecosistemas, protección, amenaza, clasificacion del suelo, tratamiento</t>
   </si>
   <si>
     <t>PR0005</t>
@@ -683,100 +599,76 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/Majagual/07_Cartografia/GEODATABASE/MAJAGUAL.gdb</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo punto, contiene los equipamientos rurales en riesgo de Majagual.  La tabla de atributos contiene Tipode cubiertas, armazón, capa</t>
+    <t>Shapefile, geometría tipo punto, contiene los equipamientos rurales en riesgo de Majagual.  La tabla de atributos contiene tipo de cubiertas, armazón, capa</t>
   </si>
   <si>
     <t>La gdb contienen 65 objetos geográficos con geometrías tipo polígonos (47), polilínea (15) y puntos (3).  Muchas capas son información general que no entraría en el modelo de toma de decisiones por ejemplo capas de límites de países, departamentales, drenajes etc</t>
   </si>
   <si>
-    <t>Majagual, EOT, Equipamientos Rurales</t>
+    <t>Majagual, EOT, equipamientos rurales, red vial, ecosistemas, áreas, uso de suelo, tratamientos urbano/rural, centros poblados, drenaje</t>
   </si>
   <si>
     <t>R0049</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo línea de las vias rurales en riesgo de Majagual.  La tabla de atributos contiene los tipo de vías, la longitud y forma</t>
-  </si>
-  <si>
-    <t>Majagual, Tipo de vías, Longitud, Forma</t>
+    <t>Shapefile, geometría tipo línea de las vias rurales en riesgo de Majagual. La tabla de atributos contiene los tipo de vías, la longitud y forma</t>
+  </si>
+  <si>
+    <t>Majagual, caminos, senderos, veredal, municipal, estado</t>
   </si>
   <si>
     <t>R0050</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo línea de las vias regionales que conectan con Majagual.  La tabla de atributos contiene los tipo de vías, estado, la longitud y forma</t>
-  </si>
-  <si>
-    <t>Majagual, Tipo de vías, Longitud, Forma, Estado</t>
+    <t>Majagual, tipo de vía, estado, accesibilidad, tipo, clasificación vial</t>
   </si>
   <si>
     <t>R0051</t>
   </si>
   <si>
-    <t>Majagual, Ecosistemas, Seco, Transición, Agua permanente</t>
+    <t>Majagual, ecosistemas, seco, transición, agua permanente</t>
   </si>
   <si>
     <t>R0052</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo polígono  de ecosistemas urbanos de Majagual. La tabla de atributos contiene el tipo de ecosistemas</t>
+    <t>Shapefile, geometría tipo polígono  de ecosistemas rurales de Majagual. La tabla de atributos contiene el tipo de ecosistemas</t>
   </si>
   <si>
     <t>R0053</t>
   </si>
   <si>
-    <t>Majagual, Rondas rios, ronda cienagas, bosques, ciénagas</t>
+    <t>Majagual, Rondas rios, ronda ciénagas, bosques, ciénagas</t>
   </si>
   <si>
     <t>R0054</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo polígono de Amenaza por inundación rural de Majagual.  La tabla de atributo contiene los tipos de amenaza: media, baja, alta, sin amenaza</t>
-  </si>
-  <si>
-    <t>Majagual, Amenaza, Inundación, Media, Alta, Sin Amenaza</t>
+    <t>Shapefile, geometría tipo polígono de amenaza por inundación rural de Majagual. La tabla de atributo contiene los tipos de amenaza: media, baja, alta, sin amenaza</t>
+  </si>
+  <si>
+    <t>Majagual, amenaza, inundación, media, alta, sin amenaza</t>
   </si>
   <si>
     <t>R0055</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo polígono, de Estructura Ecológica Principal (EEP) de Majagual, contiene en su tabla de atributo los tipos: Rondas hìdricas, ríos, pantanos, rondas hídricas</t>
-  </si>
-  <si>
-    <t>Majagual, Estructura Ecológica Principal (EEP), Urbano, Rondas hídricas, ríos, pantanos, rondas hídricas</t>
+    <t>Majagual, estructura ecológica principal (EEP), urbano, rondas hídricas, ríos, pantanos</t>
   </si>
   <si>
     <t>R0056</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo polígono, de Estructura Ecológica Principal (EEP) Rurales de Majagual, contiene en su tabla de atributo los tipos: Rondas hídricas, ríos, pantanos, rondas hídricas</t>
-  </si>
-  <si>
-    <t>Majagual, Estructura Ecológica Principal (EEP), Rural, Rondas hídricas, ríos, pantanos, rondas hídricas</t>
+    <t>Majagual, estructura ecológica principal (EEP), rural, rondas hídricas, ríos, pantanos</t>
   </si>
   <si>
     <t>R0057</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo polígono, de producción / protección de Majagual, la tabla de atributo contiene información de la temporada, ecosistemas, protección, amenaza, clasificacion del suelo, tratamiento</t>
-  </si>
-  <si>
-    <t>Majagual, Temporada climática, Ecosistemas, Protección, Amenaza, Clasificacion del suelo, Tratamiento</t>
-  </si>
-  <si>
-    <t>R0058</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/Majagual/07_Cartografia/PDF</t>
-  </si>
-  <si>
-    <t>Mapas en PDF de la cartografía base usada para la elaboración del POT del municipio de Majagual</t>
-  </si>
-  <si>
-    <t>Esta carpeta contiene 36 archivos en formato .pdf que corresponden a la composición de los mapas por cada información base utilizada para la elaboración del POT del municipio de Majagual</t>
-  </si>
-  <si>
-    <t>Majagual, Esquema Regional, Equipamientos Rurales, Red Vial, Ecosistemas, Areas, Uso de Suelo, Tratamientos Urbano/Rural, Centros Poblados, Drenajes, Modelo Ocupación, Sistema Ambiental, Areas con condiciones de Riesgo, EEP, Espacio Público, Amenazas por Inundación</t>
+    <t>Shapefile, geometría tipo polígono de producción / protección de Majagual, la tabla de atributo contiene información de la temporada, ecosistemas, protección, amenaza, clasificación del suelo, tratamiento</t>
+  </si>
+  <si>
+    <t>Majagual, temporada climática, ecosistemas, protección, amenaza, clasificacion del suelo, tratamiento</t>
   </si>
   <si>
     <t>PR0002</t>
@@ -797,7 +689,7 @@
     <t>La gdb contienen 55 objetos geográficos con geometrías tipo polígonos (33), polilínea (16) y puntos (6).  Muchas capas son información general que no entraría en el modelo de toma de decisiones por ejemplo capas de límites de países, departamentales, drenajes etc</t>
   </si>
   <si>
-    <t>Nechí, Equipamientos, Rural, Armazón, Uso, Cubierta</t>
+    <t>Nechí, equipamientos, rural, armazón, uso, cubierta</t>
   </si>
   <si>
     <t>R0060</t>
@@ -806,10 +698,13 @@
     <t>Condicion_riesgo_vias_rural</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo línea de las vias rurales en riesgo de Nechi.  La tabla de atributos contiene los tipo de vías, la longitud y forma</t>
-  </si>
-  <si>
-    <t>Nechí, Tipo de vías, Longitud, Forma</t>
+    <t>Shapefile, geometría tipo línea de las vias rurales en riesgo de Nechi. La tabla de atributos contiene los tipo de vías, longitud y forma</t>
+  </si>
+  <si>
+    <t>La gdb contienen 55 objetos geográficos con geometrías tipo polígonos (33), polilínea (16) y puntos (6).  Muchas capas son información general que no entraría en el modelo de toma de decisiones por ejemplo capas de límites de países, departamentales, drenajes y otros</t>
+  </si>
+  <si>
+    <t>Nechí, tipo de vías, longitud, forma</t>
   </si>
   <si>
     <t>R0061</t>
@@ -818,19 +713,16 @@
     <t>Vias regional</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo línea de las vias regionales que conectan con Nechi.  La tabla de atributos contiene los tipo de vías, estado, la longitud y forma</t>
-  </si>
-  <si>
-    <t>Nechí, Tipo de vías, Longitud, Forma, Estado</t>
+    <t>Nechí, tipo de vía, estado, accesibilidad, tipo, clasificación vial</t>
   </si>
   <si>
     <t>R0062</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo polígono  de ecosistemas urbanos de Nechí. La tabla de atributos contiene el tipo de ecosistemas</t>
-  </si>
-  <si>
-    <t>Nechí, Ecosistemas, Seco, Transición, Agua permanente</t>
+    <t>Shapefile, geometría tipo polígono de ecosistemas urbanos de Nechí. La tabla de atributos contiene el tipo de ecosistemas</t>
+  </si>
+  <si>
+    <t>Nechí, ecosistemas, seco, transición, agua permanente</t>
   </si>
   <si>
     <t>R0063</t>
@@ -839,10 +731,13 @@
     <t>Ecosistemas_rurales</t>
   </si>
   <si>
+    <t>Shapefile, geometría tipo polígono  de ecosistemas rurales de Nechí. La tabla de atributos contiene el tipo de ecosistemas</t>
+  </si>
+  <si>
     <t>R0064</t>
   </si>
   <si>
-    <t>Nechí, Rondas rios, ronda cienagas, bosques, ciénagas</t>
+    <t>Nechí, Rondas rios, ronda ciénagas, bosques, ciénagas</t>
   </si>
   <si>
     <t>R0065</t>
@@ -851,10 +746,10 @@
     <t>Amenaza_Inundacion_Rural</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo polígono de Amenaza por inundación rural de Nechí.  La tabla de atributo contiene los tipos de amenaza: media, baja, alta, sin amenaza</t>
-  </si>
-  <si>
-    <t>Nechí, Amenaza, Inundación, Media, Alta, Sin Amenaza</t>
+    <t>Shapefile, geometría tipo polígono de amenaza por inundación rural de Nechí. La tabla de atributo contiene los tipos de amenaza: media, baja, alta, sin amenaza</t>
+  </si>
+  <si>
+    <t>Nechí, amenaza, inundación, media, alta, sin amenaza</t>
   </si>
   <si>
     <t>R0066</t>
@@ -863,22 +758,7 @@
     <t>Shapefile, geometría tipo polígono, de Estructura Ecológica Principal (EEP) de Nechí, contiene en su tabla de atributo los tipos: Rondas hìdricas, ríos, pantanos, rondas hídricas</t>
   </si>
   <si>
-    <t>Nechí, Estructura Ecológica Principal (EEP), Urbano, Rondas hídricas, ríos, pantanos, rondas hídricas</t>
-  </si>
-  <si>
-    <t>R0067</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/Nechi/07_Cartografia/PDF</t>
-  </si>
-  <si>
-    <t>Mapas en PDF de la cartografía base usada para la elaboración del POT del municipio de Nechí</t>
-  </si>
-  <si>
-    <t>Esta carpeta contiene 33 archivos en formato .pdf que corresponden a la composición de los mapas por cada información base utilizada para la elaboración del POT del municipio de Nechí</t>
-  </si>
-  <si>
-    <t>Nechí, Esquema Regional, Equipamientos Rurales, Red Vial, Ecosistemas, Areas, Uso de Suelo, Tratamientos Urbano/Rural, Centros Poblados, Drenajes, Modelo Ocupación, Sistema Ambiental, Areas con condiciones de Riesgo, EEP, Espacio Público, Amenazas por Inundación</t>
+    <t>Nechí, estructura ecológica principal (EEP), urbano, rondas hídricas, ríos, pantanos</t>
   </si>
   <si>
     <t>PR0018</t>
@@ -890,31 +770,28 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/San Benito Abad/SAN_BENITO_ABAD.gdb</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo línea de las vias regionales que conectan con San Benito de Abad.  La tabla de atributos contiene los tipo de vías, estado, la longitud y forma</t>
-  </si>
-  <si>
     <t>La gdb contienen 9 objetos geográficos con geometrías tipo polígonos (7), polilínea (2).  En comparación con las demas .gdb revisadas esta carece de mucha información.  Adicionalmente en la carpeta del proyecto no hay mas información asociada de otros formatos como PDF, KMZ o shp</t>
   </si>
   <si>
-    <t>San Benito de Abad, Vías, Longitud, Forma, Estado</t>
+    <t>San Benito de Abad, tipo de vía, estado, accesibilidad, tipo, clasificación vial</t>
   </si>
   <si>
     <t>R0069</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo polígono  de ecosistemas urbanos de San Benito de Abad. La tabla de atributos contiene el tipo de ecosistemas</t>
-  </si>
-  <si>
-    <t>San Benito de Abad, Ecosistemas, Seco, Transición, Agua permanente</t>
+    <t>Shapefile, geometría tipo polígono  de ecosistemas rurales de San Benito de Abad. La tabla de atributos contiene el tipo de ecosistemas</t>
+  </si>
+  <si>
+    <t>San Benito de Abad, ecosistemas, seco, transición, agua permanente</t>
   </si>
   <si>
     <t>R0070</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo polígono de Amenaza por inundación rural de San Benito de Abad.  La tabla de atributo contiene los tipos de amenaza: media, baja, alta, sin amenaza</t>
-  </si>
-  <si>
-    <t>San Benito de Abad, Amenaza, Inundación, Media, Alta, Sin Amenaza</t>
+    <t>Shapefile, geometría tipo polígono de amenaza por inundación rural de San Benito de Abad.  La tabla de atributo contiene los tipos de amenaza: media, baja, alta, sin amenaza</t>
+  </si>
+  <si>
+    <t>San Benito de Abad, amenaza, inundación, media, alta, sin amenaza</t>
   </si>
   <si>
     <t>PR0001</t>
@@ -932,52 +809,58 @@
     <t>La gdb contienen 63 objetos geográficos con geometrías tipo polígonos (41), polilínea (16) y puntos (6).  Muchas capas son información general que no entraría en el modelo de toma de decisiones por ejemplo capas de límites de países, departamentales, drenajes etc</t>
   </si>
   <si>
-    <t>San Jacinto del Cauca, Equipamientos, Rural, Armazón, Uso, Cubierta</t>
+    <t>San Jacinto del Cauca, equipamientos, rural, armazón, uso, cubierta</t>
   </si>
   <si>
     <t>R0072</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo línea de las vias regionales que conectan con San Jacinto del Cauca.  La tabla de atributos contiene los tipo de vías, estado, la longitud y forma</t>
-  </si>
-  <si>
-    <t>San Jacinto del Cauca, Vías, Longitud, Forma, Estado</t>
+    <t>San Jacinto del Cauca, tipo de vía, estado, accesibilidad, tipo, clasificación vial</t>
+  </si>
+  <si>
+    <t>PR0057</t>
   </si>
   <si>
     <t>R0073</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo línea de las vias rurales en riesgo de San Jacinto de Cauca.  La tabla de atributos contiene los tipo de vías, la longitud y forma</t>
-  </si>
-  <si>
-    <t>San Jacinto del Cauca, Tipo de vías, Longitud, Forma</t>
+    <t>Shapefile, geometría tipo línea de las vias rurales en riesgo de San Jacinto de Cauca. La tabla de atributos contiene los tipo de vías, la longitud y forma</t>
+  </si>
+  <si>
+    <t>La gdb contienen 63 objetos geográficos con geometrías tipo polígonos (41), polilínea (16) y puntos (6).  Muchas capas son información general que no entraría en el modelo de toma de decisiones por ejemplo capas de límites de países, departamentales, drenajes y otros</t>
+  </si>
+  <si>
+    <t>San Jacinto del Cauca, tipo de vías, longitud, forma</t>
   </si>
   <si>
     <t>R0074</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo polígono  de ecosistemas urbanos de San Jacinto del Cauca. La tabla de atributos contiene el tipo de ecosistemas</t>
-  </si>
-  <si>
-    <t>San Jacinto del Cauca, Ecosistemas, Seco, Transición, Agua permanente</t>
+    <t>Shapefile, geometría tipo polígono de ecosistemas urbanos de San Jacinto del Cauca. La tabla de atributos contiene el tipo de ecosistemas</t>
+  </si>
+  <si>
+    <t>San Jacinto del Cauca, ecosistemas, seco, transición, agua permanente</t>
   </si>
   <si>
     <t>R0075</t>
   </si>
   <si>
+    <t>Shapefile, geometría tipo polígono  de ecosistemas rurales de San Jacinto del Cauca. La tabla de atributos contiene el tipo de ecosistemas</t>
+  </si>
+  <si>
     <t>R0076</t>
   </si>
   <si>
-    <t>San Jacinto del Cauca, Rondas rios, ronda cienagas, bosques, ciénagas</t>
+    <t>San Jacinto del Cauca, rondas rios, ronda ciénagas, bosques, ciénagas</t>
   </si>
   <si>
     <t>R0077</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo polígono de Amenaza por inundación rural de San Jacinto del Cauca.  La tabla de atributo contiene los tipos de amenaza: media, baja, alta, sin amenaza</t>
-  </si>
-  <si>
-    <t>San Jacinto del Cauca, Amenaza, Inundación, Media, Alta, Sin Amenaza</t>
+    <t>Shapefile, geometría tipo polígono de amenaza por inundación rural de San Jacinto del Cauca. La tabla de atributo contiene los tipos de amenaza: media, baja, alta, sin amenaza</t>
+  </si>
+  <si>
+    <t>San Jacinto del Cauca, amenaza, inundación, media, alta, sin amenaza</t>
   </si>
   <si>
     <t>R0078</t>
@@ -986,37 +869,16 @@
     <t>EEP_Urbana</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo polígono, de Estructura Ecológica Principal (EEP) de San Jacinto del Cauca, contiene en su tabla de atributo los tipos: Rondas hìdricas, ríos, pantanos, rondas hídricas</t>
-  </si>
-  <si>
-    <t>San Jacinto del Cauca, Estructura Ecológica Principal (EEP), Urbano, Rondas hídricas, ríos, pantanos, rondas hídricas</t>
-  </si>
-  <si>
-    <t>R0079</t>
+    <t>San Jacinto del Cauca, estructura ecológica principal (EEP), urbano, rondas hídricas, ríos, pantanos</t>
   </si>
   <si>
     <t>R0080</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo polígono, de producción / protección de San Jacinto del Cauca, la tabla de atributo contiene información de la temporada, ecosistemas, protección, amenaza, clasificacion del suelo, tratamiento</t>
-  </si>
-  <si>
-    <t>San Jacinto del Cauca, Temporada climática, Ecosistemas, Protección, Amenaza, Clasificacion del suelo, Tratamiento</t>
-  </si>
-  <si>
-    <t>R0081</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/San Jacinto del Cauca/07_Cartografia/PDF</t>
-  </si>
-  <si>
-    <t>Mapas en PDF de la cartografía base usada para la elaboración del POT del municipio de San Jacinto del Cauca</t>
-  </si>
-  <si>
-    <t>Esta carpeta contiene 30 archivos en formato .pdf que corresponden a la composición de los mapas por cada información base utilizada para la elaboración del POT del municipio de San Jacinto del Cauca</t>
-  </si>
-  <si>
-    <t>San Jacinto del Cauca, Esquema Regional, Equipamientos Rurales, Red Vial, Ecosistemas, Areas, Uso de Suelo, Tratamientos Urbano/Rural, Centros Poblados, Drenajes, Modelo Ocupación, Sistema Ambiental, Areas con condiciones de Riesgo, EEP, Espacio Público, Amenazas por Inundación</t>
+    <t>Shapefile, geometría tipo polígono de producción / protección de San Jacinto del Cauca, la tabla de atributo contiene información de la temporada, ecosistemas, protección, amenaza, clasificación del suelo, tratamiento</t>
+  </si>
+  <si>
+    <t>San Jacinto del Cauca, temporada climática, ecosistemas, protección, amenaza, clasificacion del suelo, tratamiento</t>
   </si>
   <si>
     <t>PR0056</t>
@@ -1028,85 +890,73 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/San Marcos/07_Cartografia/GEODATABASE/SAN_MARCOS.gdb</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo punto, contiene los equipamientos rurales en riesgo de San Marcos.  La tabla de atributos contiene Tipode cubiertas, armazón, capa</t>
+    <t>Shapefile, geometría tipo punto, contiene los equipamientos rurales en riesgo de San Marcos.  La tabla de atributos contiene tipo de cubiertas, armazón, capa</t>
   </si>
   <si>
     <t>La gdb contienen 65 objetos geográficos con geometrías tipo polígonos (44), polilínea (17) y puntos (4).  Muchas capas son información general que no entraría en el modelo de toma de decisiones por ejemplo capas de límites de países, departamentales, drenajes etc</t>
   </si>
   <si>
-    <t>San Marcos, EOT, Equipamientos Rurales, Red Vial, Ecosistemas, Areas, Uso de Suelo, Tratamientos Urbano/Rural, Centros Poblados, Drenaje</t>
+    <t>San Marcos, EOT, equipamientos rurales, red vial, ecosistemas, áreas, uso de suelo, tratamientos urbano/rural, centros poblados, drenaje</t>
   </si>
   <si>
     <t>R0083</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo línea de las vias rurales en riesgo de San Marcos.  La tabla de atributos contiene los tipo de vías, la longitud y forma</t>
-  </si>
-  <si>
-    <t>San Marcos, Amenaza, Inundación, Media, Alta, Sin Amenaza</t>
+    <t>Shapefile, geometría tipo línea de las vias rurales en riesgo de San Marcos. La tabla de atributos contiene los tipo de vías, la longitud y forma</t>
+  </si>
+  <si>
+    <t>San Marcos, caminos, senderos, veredal, municipal, estado</t>
   </si>
   <si>
     <t>R0084</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo polígono  de ecosistemas urbanos de San Marcos. La tabla de atributos contiene el tipo de ecosistemas</t>
-  </si>
-  <si>
-    <t>San Marcos, Ecosistemas, Seco, Transición, Agua permanente</t>
+    <t>Shapefile, geometría tipo polígono de ecosistemas urbanos de San Marcos. La tabla de atributos contiene el tipo de ecosistemas</t>
+  </si>
+  <si>
+    <t>San Marcos, ecosistemas, seco, transición, agua permanente</t>
   </si>
   <si>
     <t>R0085</t>
   </si>
   <si>
+    <t>Shapefile, geometría tipo polígono  de ecosistemas rurales de San Marcos. La tabla de atributos contiene el tipo de ecosistemas</t>
+  </si>
+  <si>
     <t>R0086</t>
   </si>
   <si>
+    <t>San Jacinto del Cauca, rondas ríos, ronda ciénagas, bosques, ciénagas</t>
+  </si>
+  <si>
     <t>R0087</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo polígono de Amenaza por inundación rural de San Marcos.  La tabla de atributo contiene los tipos de amenaza: media, baja, alta, sin amenaza</t>
+    <t>Shapefile, geometría tipo polígono de amenaza por inundación rural de San Marcos. La tabla de atributo contiene los tipos de amenaza: media, baja, alta, sin amenaza</t>
+  </si>
+  <si>
+    <t>San Marcos, amenaza, inundación, media, alta, sin amenaza</t>
   </si>
   <si>
     <t>R0088</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo polígono, de Estructura Ecológica Principal (EEP) de San Marcos, contiene en su tabla de atributo los tipos: Rondas hìdricas, ríos, pantanos, rondas hídricas</t>
-  </si>
-  <si>
-    <t>San Marcos, Estructura Ecológica Principal (EEP), Urbano, Rondas hídricas, ríos, pantanos, rondas hídricas</t>
+    <t>San Marcos, estructura ecológica principal (EEP), urbano, rondas hídricas, ríos, pantanos</t>
   </si>
   <si>
     <t>R0089</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo polígono la tabla de atributo contiene los tipos:  Ronda hídrica, Ríos, Pantanos, Rondas Hídricas</t>
-  </si>
-  <si>
-    <t>San Marcos, Ronda hídrica, Ríos, Pantanos, Rondas Hídricas</t>
+    <t>San Marcos, estructura ecológica principal (EEP), rural, rondas hídricas, ríos, pantanos</t>
   </si>
   <si>
     <t>R0090</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo polígono, de producción / protección de San Marcos, la tabla de atributo contiene información de la temporada, ecosistemas, protección, amenaza, clasificacion del suelo, tratamiento</t>
-  </si>
-  <si>
-    <t>San Marcos, Temporada climática, Ecosistemas, Protección, Amenaza, Clasificacion del suelo, Tratamiento</t>
-  </si>
-  <si>
-    <t>R0091</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/San Marcos/07_Cartografia/PDF</t>
-  </si>
-  <si>
-    <t>Mapas en PDF de la cartografía base usada para la elaboración del POT del municipio de San Marcos</t>
-  </si>
-  <si>
-    <t>Esta carpeta contiene 35 archivos en formato .pdf que corresponden a la composición de los mapas por cada información base utilizada para la elaboración del POT del municipio de San Marcos</t>
-  </si>
-  <si>
-    <t>San Marcos, Esquema Regional, Equipamientos Rurales, Red Vial, Ecosistemas, Areas, Uso de Suelo, Tratamientos Urbano/Rural, Centros Poblados, Drenajes, Modelo Ocupación, Sistema Ambiental, Areas con condiciones de Riesgo, EEP, Espacio Público, Amenazas por Inundación</t>
+    <t>Shapefile, geometría tipo polígono de producción / protección de San Marcos, la tabla de atributo contiene información de la temporada, ecosistemas, protección, amenaza, clasificación del suelo, tratamiento</t>
+  </si>
+  <si>
+    <t>San Marcos, temporada climática, ecosistemas, protección, amenaza, clasificacion del suelo, tratamiento</t>
   </si>
   <si>
     <t>PR0008</t>
@@ -1118,85 +968,73 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/Sucre/07_Cartografia/GEODATABASE/SUCRE_SUCRE.gdb</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo punto, contiene los equipamientos rurales en riesgo de Sucre Sucre  La tabla de atributos contiene Tipode cubiertas, armazón, capa</t>
+    <t>Shapefile, geometría tipo punto, contiene los equipamientos rurales en riesgo de Sucre (Sucre). La tabla de atributos contiene tipo de cubiertas, armazón, capa</t>
   </si>
   <si>
     <t>La gdb contienen 62 objetos geográficos con geometrías tipo polígonos (45), polilínea (14) y puntos (3).  Muchas capas son información general que no entraría en el modelo de toma de decisiones por ejemplo capas de límites de países, departamentales, drenajes etc</t>
   </si>
   <si>
-    <t>Sucre Sucre, Equipamientos Rurales, Rondas, Hidríca, Pantanos</t>
+    <t>Sucre Sucre, equipamientos rurales, red vial, ecosistemas, áreas, uso de suelo, tratamientos urbano/rural, centros poblados, drenaje</t>
   </si>
   <si>
     <t>R0093</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo línea de las vias rurales en riesgo de Sucre Sucre.  La tabla de atributos contiene los tipo de vías, la longitud y forma</t>
-  </si>
-  <si>
-    <t>Sucre Sucre, Amenaza, Inundación, Media, Alta, Sin Amenaza</t>
+    <t>Shapefile, geometría tipo línea de las vias rurales en riesgo de Sucre Sucre. La tabla de atributos contiene los tipo de vías, la longitud y forma</t>
+  </si>
+  <si>
+    <t>Sucre Sucre, caminos, senderos, veredal, municipal, estado</t>
   </si>
   <si>
     <t>R0094</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo polígono  de ecosistemas urbanos de Sucre Sucre. La tabla de atributos contiene el tipo de ecosistemas</t>
-  </si>
-  <si>
-    <t>Sucre Sucre, Ecosistemas, Seco, Transición, Agua permanente</t>
+    <t>Shapefile, geometría tipo polígono de ecosistemas urbanos, contiene en su tabla de atributo los tipos: seco, transición, permanente. Para el municipio Sucre Sucre</t>
+  </si>
+  <si>
+    <t>Sucre Sucre, ecosistemas, seco, transición, agua permanente</t>
   </si>
   <si>
     <t>R0095</t>
   </si>
   <si>
+    <t>Shapefile, geometría tipo polígono  de ecosistemas rurales de Sucre Sucre. La tabla de atributos contiene el tipo de ecosistemas</t>
+  </si>
+  <si>
     <t>R0096</t>
   </si>
   <si>
-    <t>Sucre Sucre, Rondas rios, ronda cienagas, bosques, ciénagas</t>
+    <t>Sucre Sucre, Rondas rios, ronda ciénagas, bosques, ciénagas</t>
   </si>
   <si>
     <t>R0097</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo polígono de Amenaza por inundación rural de Sucre Sucre.  La tabla de atributo contiene los tipos de amenaza: media, baja, alta, sin amenaza</t>
-  </si>
-  <si>
-    <t>Sucre Sucre, Estructura Ecológica Principal (EEP), Urbano, Rondas hídricas, ríos, pantanos, rondas hídricas</t>
+    <t>Shapefile, geometría tipo polígono de amenaza por inundación rural de Sucre Sucre. La tabla de atributo contiene los tipos de amenaza: media, baja, alta, sin amenaza</t>
+  </si>
+  <si>
+    <t>Sucre Sucre, amenaza, inundación, media, alta, sin amenaza</t>
   </si>
   <si>
     <t>R0098</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo polígono, de Estructura Ecológica Principal (EEP) de Sucre Sucre, contiene en su tabla de atributo los tipos: Rondas hìdricas, ríos, pantanos, rondas hídricas</t>
+    <t>Sucre Sucre, estructura ecológica principal (EEP), urbano, rondas hídricas, ríos, pantanos</t>
   </si>
   <si>
     <t>R0099</t>
   </si>
   <si>
-    <t>Sucre Sucre, Ronda hídrica, Ríos, Pantanos, Rondas Hídricas</t>
+    <t>Sucre Sucre, estructura ecológica principal (EEP), rural, rondas hídricas, ríos, pantanos</t>
   </si>
   <si>
     <t>R0100</t>
   </si>
   <si>
-    <t>Shapefile, geometría tipo polígono, de producción / protección de Sucre Sucre, la tabla de atributo contiene información de la temporada, ecosistemas, protección, amenaza, clasificacion del suelo, tratamiento</t>
-  </si>
-  <si>
-    <t>Sucre Sucre, Temporada climática, Ecosistemas, Protección, Amenaza, Clasificacion del suelo, Tratamiento</t>
-  </si>
-  <si>
-    <t>R0101</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/Sucre/07_Cartografia/PDF</t>
-  </si>
-  <si>
-    <t>Mapas en PDF de la cartografía base usada para la elaboración del POT del municipio de Sucre Sucre</t>
-  </si>
-  <si>
-    <t>Esta carpeta contiene 40 archivos en formato .pdf que corresponden a la composición de los mapas por cada información base utilizada para la elaboración del POT del municipio de Sucre Sucre.</t>
-  </si>
-  <si>
-    <t>Sucre Sucre, Esquema Regional, Equipamientos Rurales, Red Vial, Ecosistemas, Areas, Uso de Suelo, Tratamientos Urbano/Rural, Centros Poblados, Drenajes, Modelo Ocupación, Sistema Ambiental, Areas con condiciones de Riesgo, EEP, Espacio Público, Amenazas por Inundación</t>
+    <t>Shapefile, geometría tipo polígono de producción / protección de Sucre Sucre, la tabla de atributo contiene información de la temporada, ecosistemas, protección, amenaza, clasificacion del suelo, tratamiento</t>
+  </si>
+  <si>
+    <t>Sucre Sucre, temporada climática, ecosistemas, protección, amenaza, clasificacion del suelo, tratamiento</t>
   </si>
   <si>
     <t>R0102</t>
@@ -1211,7 +1049,7 @@
     <t>Matriz de sistematización</t>
   </si>
   <si>
-    <t>Este documento contiene información importante ya que refleja las problemáticas que las personas participantes de los talleres priorizaron para el municipio de Guaranda.</t>
+    <t>Matriz en la que sistematizan las problemáticas y las soluciones a esas problemáticas propuestas en los talleres realizados en el municipio de Guaranda. Estas se dividen en problemáticas y soluciones ambientales, sociales y económica. Asimismo, cada una de estas se encuentra asociada a unos actores, una ubicación geográfica, un componente del POT y una variable. Las variables ambientales para el municipio de Achí son: inundaciones, residuos, deforestación y contaminación por minería. Las variables sociales son: salud, vivienda, educación, cultura, propiedad de la tierra, acceso a servicios públicos y saneamiento básico, participación comunitaria y equipamiento municipal. Las variables económicas son: vías, emprendimiento, propiedad de la tierra y equipamiento agropecuario.</t>
   </si>
   <si>
     <t>Excel</t>
@@ -1223,7 +1061,7 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Este documento contiene la sistematización de los seis talleres realizados en el municipio de Guaranda. Es esta sistematización se prioriza la división de problemáticas según la dimensión: social, ambienta y económica. Estas problemáticas están casificadas en la veredas, variables, actores, dimesiones y componente POT. Además contemplan unas soluciones que los participantes de los talleres propusieron.</t>
+    <t>Sistematiza problemáticas y soluciones en escala de municipio y se refiere a las variables asignadas a cada situación.</t>
   </si>
   <si>
     <t>Inundaciones,  infraestructura,  deforestación,  contaminación,  actores,  dimensiones económicas,  sociales,  ambientales</t>
@@ -1241,9 +1079,6 @@
     <t>Matriz en la que sistematizan las problemáticas y las soluciones a esas problemáticas propuestas en los talleres realizados en el municipio de Achí. Estas se dividen en problemáticas y soluciones ambientales, sociales y económica. Asimismo, cada una de estas se encuentra asociada a unos actores, una ubicación geográfica, un componente del POT y una variable. Las variables ambientales para el municipio de Achí son: inundaciones, residuos, deforestación y contaminación por minería. Las variables sociales son: salud, vivienda, educación, cultura, propiedad de la tierra, acceso a servicios públicos y saneamiento básico, participación comunitaria y equipamiento municipal. Las variables económicas son: vías, emprendimiento, propiedad de la tierra y equipamiento agropecuario.</t>
   </si>
   <si>
-    <t>Sistematiza problemáticas y soluciones en escala de municipio y se refiere a las variables asignadas a cada situación.</t>
-  </si>
-  <si>
     <t>Inundaciones,  residuos,  deforestación,  contaminación por minería,  salud,  vivienda,  educación,  cultura,  propiedad de la tierra,  acceso a servicios públicos y saneamiento básico,  participación comunitaria y equipamiento municipal vías,  emprendimiento,  equipamiento agropecuario,  Achí</t>
   </si>
   <si>
@@ -1337,9 +1172,6 @@
     <t>Matriz en la que sistematizan las problemáticas y las soluciones a esas problemáticas propuestas en los talleres realizados en el municipio de San Marcos. Estas se dividen en problemáticas y soluciones ambientales, sociales y económica. Asimismo, cada una de estas se encuentra asociada a unos actores, una ubicación geográfica, un componente del POT y una variable. Las variables ambientales para el municipio de San Marcos son: residuos, deforestación, contaminación por minería, ecosistema nativo, contaminación de fuentes hidrícas y ecosistemas, especies foráneas. Las variables sociales son: salud, vivienda, educación, cultura, acceso a servicios públicos y saneamiento básico, participación comunitaria, TICs, recreación y deporte, seguridad y equipamiento municipal. Las variables económicas son: vías, emprendimiento, propiedad de la tierra, y equipamiento agropecuario y piscícola.</t>
   </si>
   <si>
-    <t>residuos,  deforestación,  contaminación por minería,  ecosistema nativo,  contaminación de fuentes hidrícas y ecosistemas,  especies foráneas,  salud,  vivienda,  educación,  cultura,  acceso a servicios públicos y saneamiento básico,  participación comunitaria,  TICs,  recreación y deporte,  seguridad,  equipamiento municipal,   vías,  emprendimiento,  propiedad de la tierra,  equipamiento agropecuario y piscícola,  San Marcos</t>
-  </si>
-  <si>
     <t>R0110</t>
   </si>
   <si>
@@ -1355,9 +1187,6 @@
     <t>Sistematiza problemáticas y soluciones en escala de municipio y se refiere a las variables asignadas a cada situación. Parece que poner la variable "recreación y deporte" en las variables económicas es un error.</t>
   </si>
   <si>
-    <t>Inundación,  sequía,  residuos,  deforestación,  contaminación por minería,  ecosistema nativo,  contaminación de fuentes hidrícas y ecosistemas,  salud,  vivienda,  educación,  cultura,  acceso a servicios públicos y saneamiento básico,  participación comunitaria,  TICs,  recreación y deporte,  espacio público y equipamiento municipal,  vías,  emprendimiento,  propiedad de la tierra,  equipamiento agropecuario y piscícola,  Sucre</t>
-  </si>
-  <si>
     <t>PR0032</t>
   </si>
   <si>
@@ -1373,10 +1202,10 @@
     <t>Tabla de Excel en donde se encuentran datos de diferentes variables relacionadas con Ambiente y recursos naturales, Riesgo, Servicios públicos, Espacio público, Vivienda, Vías y Suelo. Relacionando su año de referencia y fuente de la información</t>
   </si>
   <si>
-    <t>El año de referencia más reciente es de 2015, por lo que la información puede estar más actualizada</t>
-  </si>
-  <si>
-    <t>Ambiente y recursos naturales, Riesgo, Servicios públicos, Espacio público, Vivienda, Vías, Suelo, Achí</t>
+    <t>El año de referencia más reciente es de 2015, por lo que la información puede estar desactualizada</t>
+  </si>
+  <si>
+    <t>Ambiente y recursos naturales, riesgo, servicios públicos, espacio público, vivienda, vías, suelo, Achí</t>
   </si>
   <si>
     <t>R0112</t>
@@ -1391,13 +1220,13 @@
     <t>ACHI.gdb</t>
   </si>
   <si>
-    <t>Tabla de excel que preseta el diccionario de datos de las capas cartográficas presentes en la carpeta de Achí. Separándolas en "base, formulación y diagnóstico". Presenta: gdb, dataset	,nombre objeto geografico (feature class), nombre completo del feature class, tipo geometria, descripcion, sistema de coordenadas, fuente de información, ruta provi, ruta, fecha de corte, procesamiento geográfico, modelo, topología, reglas topológicas, "errores detectados/errores corregidos", nombre, campo, tipo dato, longitud dato, descripcion del campo, subtipo/dominio</t>
+    <t>Tabla de excel que presenta el diccionario de datos de las capas cartográficas presentes en la carpeta de Achí. Separándolas en "base, formulación y diagnóstico". Presenta: gdb, dataset, nombre objeto geografico (feature class), nombre completo del feature class, tipo geometria, descripción, sistema de coordenadas, fuente de información, ruta provi, ruta, fecha de corte, procesamiento geográfico, modelo, topología, reglas topológicas, "errores detectados/errores corregidos", nombre, campo, tipo dato, longitud dato, descripción del campo, subtipo/dominio</t>
   </si>
   <si>
     <t>Presenta el diccionario de datos de 62 objetos geográficos</t>
   </si>
   <si>
-    <t>Achí, Diccionario de datos, Gdb, Dataset, Nombre objeto geografico (feature class), Nombre completo del feature class, Tipo geometria, Descripcion, Sistema de coordenadas, Fuente de información, Ruta provi, Ruta, Fecha de corte, Procesamiento geográfico, Modelo, Topología, Reglas topológicas, "Errores detectados/errores corregidos", Nombre, Campo, Tipo dato, Longitud dato, Descripcion del campo, Subtipo/dominio</t>
+    <t>Achí, diccionario de datos, gdb, dataset, nombre objeto geografico (feature class), nombre completo del feature class, tipo geometria, descripción, sistema de coordenadas, fuente de información, ruta provi, ruta, fecha de corte, procesamiento geográfico, modelo, topología, reglas topológicas, "errores detectados/errores corregidos", nombre, Campo, tipo dato, longitud dato, descripción del campo, Subtipo/dominio</t>
   </si>
   <si>
     <t>PR0033</t>
@@ -1412,6 +1241,15 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/Ayapel/01_Expediente/ANEXOS/Modelo de ocupación - Ayapel.xlsx</t>
   </si>
   <si>
+    <t xml:space="preserve">Tabla de excel que relaciona datos de diferentes variables con  temas como: ambiente y recursos naturales, riesgos, servicios públicos, espacio público, vivienda, equipamientos, vías y suelo. Para cada una de estas variables se registran el año de referencia, el área y  la fuente de información </t>
+  </si>
+  <si>
+    <t>En la temática de riesgo y espacio público, no se registraron datos</t>
+  </si>
+  <si>
+    <t>Ambiente y recursos naturales, riesgo, servicios públicos, espacio público, vivienda, equipamientos, vías, suelo, Ayapel</t>
+  </si>
+  <si>
     <t>PR0029</t>
   </si>
   <si>
@@ -1424,6 +1262,12 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/Caimito/01_Expediente/ANEXOS/Modelo de ocupación - Caimito.xlsx</t>
   </si>
   <si>
+    <t xml:space="preserve">Tabla de excel que relaciona datos de diferentes variables relacionadas con  temas como: ambiente y recursos naturales, riesgos, servicios públicos, espacio público, vivienda, equipamientos, vías y suelo. Para cada una de estas variables se registran el año de referencia, el área y  la fuente de información </t>
+  </si>
+  <si>
+    <t>Ambiente y recursos naturales, riesgo, servicios públicos, espacio público, vivienda, equipamientos, vías, suelo, Caimito</t>
+  </si>
+  <si>
     <t>PR0030</t>
   </si>
   <si>
@@ -1436,6 +1280,9 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/Guaranda/01_Expediente/ANEXOS/Modelo de ocupación - Guaranda.xlsx</t>
   </si>
   <si>
+    <t>Ambiente y recursos naturales, riesgo, servicios públicos, espacio público, vivienda, equipamientos, vías, suelo, Guaranda</t>
+  </si>
+  <si>
     <t>PR0031</t>
   </si>
   <si>
@@ -1448,6 +1295,9 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/Magangue/01_Expediente/ANEXOS/Modelo de ocupación - Magangué.xlsx</t>
   </si>
   <si>
+    <t>Ambiente y recursos naturales, riesgo, servicios públicos, espacio público, vivienda, equipamientos, vías, suelo, Magangué</t>
+  </si>
+  <si>
     <t>R0117</t>
   </si>
   <si>
@@ -1457,6 +1307,18 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/Magangue/08_Anexos/Anexo A.Diccionario_de_Datos_Magangue.xlsx</t>
   </si>
   <si>
+    <t>MAGANGUE.gdb</t>
+  </si>
+  <si>
+    <t>Tabla de excel que relaciona el diccionario de datos donde se presentan las capas cartograficas del municipio de Magangué. Este archivo se divide entres temas con los siguientes nombres: base, formulación y diagnóstico. Cada una de los temas contiene los siguientes parámetros: Gdb, Dataset, nombre objeto geográfico (Feature class), nombre completo del feature class,  tipo geometría, descripción, sistema de coordenadas, fuente de información, ruta provi, ruta, fecha de corte, procesamiento geográfico, modelo, topología, reglas topologicas, errores detectados/errores corregidos, nombre campo, tipo dato, longitud dato, descripción del campo, subtipo/dominio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No todos los parámetros registran datos </t>
+  </si>
+  <si>
+    <t>Magangué, gdb, dataset, nombre objeto geográfico (Feature class), nombre completo del feature class,  tipo geometría, descripción, sistema de coordenadas, fuente de información, ruta provi, ruta, fecha de corte, procesamiento geográfico, modelo, topología, reglas topologicas, errores detectados/errores corregidos, nombre campo, tipo dato, longitud dato, descripción del campo, subtipo/dominio</t>
+  </si>
+  <si>
     <t>PR0068</t>
   </si>
   <si>
@@ -1469,6 +1331,9 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/Majagual/01_Expediente/ANEXOS/Modelo de ocupación - Majagual.xlsx</t>
   </si>
   <si>
+    <t>Ambiente y recursos naturales, riesgo, servicios públicos, espacio público, vivienda, equipamientos, vías, suelo, Majagual</t>
+  </si>
+  <si>
     <t>PR0077</t>
   </si>
   <si>
@@ -1481,6 +1346,9 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/Nechi/01_Expediente/ANEXOS/Modelo de ocupación - Nechí.xlsx</t>
   </si>
   <si>
+    <t>Ambiente y recursos naturales, riesgo, servicios públicos, espacio público, vivienda, equipamientos, vías, suelo, Nechí</t>
+  </si>
+  <si>
     <t>PR0027</t>
   </si>
   <si>
@@ -1493,6 +1361,9 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/San Benito Abad/01_Expediente/ANEXOS/Modelo de ocupación_San Benito Abad.xlsx</t>
   </si>
   <si>
+    <t>Ambiente y recursos naturales, riesgo, servicios públicos, espacio público, vivienda, equipamientos, vías, suelo, San Benito Abad</t>
+  </si>
+  <si>
     <t>PR0073</t>
   </si>
   <si>
@@ -1505,6 +1376,12 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/San Jacinto del Cauca/01_Expediente/ANEXOS/Modelo de ocupación - San Jacinto del Cauca.xlsx</t>
   </si>
   <si>
+    <t>En la temática de riesgo, y espacio público, no se registraron datos</t>
+  </si>
+  <si>
+    <t>Ambiente y recursos naturales, riesgo, servicios públicos, espacio público, vivienda, equipamientos, vías, suelo, San Jacinto del Cauca</t>
+  </si>
+  <si>
     <t>PR0083</t>
   </si>
   <si>
@@ -1517,6 +1394,9 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/San Marcos/01_Expediente/ANEXOS/Modelo de ocupación - San Marcos.xlsx</t>
   </si>
   <si>
+    <t>Ambiente y recursos naturales, riesgo, servicios públicos, espacio público, vivienda, equipamientos, vías, suelo, San Marcos</t>
+  </si>
+  <si>
     <t>PR0028</t>
   </si>
   <si>
@@ -1527,13 +1407,16 @@
   </si>
   <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/Sucre/01_Expediente/ANEXOS/Modelo de ocupación - Sucre.xlsx</t>
+  </si>
+  <si>
+    <t>Ambiente y recursos naturales, riesgo, servicios públicos, espacio público, vivienda, equipamientos, vías, suelo, Sucre</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1547,8 +1430,14 @@
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1557,18 +1446,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1591,17 +1474,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1882,11 +1835,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q124"/>
+  <dimension ref="A1:Q123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D77" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="G103" sqref="G103:H103"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E89" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="H98" sqref="H98"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -1896,7 +1849,7 @@
     <col min="4" max="4" width="34.85546875" customWidth="1"/>
     <col min="5" max="5" width="91.42578125" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" customWidth="1"/>
-    <col min="8" max="8" width="28.85546875" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="31.7109375" customWidth="1"/>
@@ -1906,7 +1859,7 @@
     <col min="16" max="16" width="54.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1956,14 +1909,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="18" customHeight="1">
+    <row r="2" spans="1:16" ht="18" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -2006,14 +1959,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -2056,14 +2009,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -2106,14 +2059,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -2156,14 +2109,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -2206,14 +2159,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -2256,14 +2209,14 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -2306,14 +2259,14 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -2356,14 +2309,14 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -2406,14 +2359,14 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -2456,69 +2409,68 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="1:16">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="4">
-        <v>2017</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="4" t="s">
+      <c r="F12" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J12" s="4" t="s">
+      <c r="I12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="J12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="K12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="M12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O12" s="4" t="s">
+      <c r="M12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="P12" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="Q12" s="5"/>
-    </row>
-    <row r="13" spans="1:17">
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="3" t="s">
         <v>82</v>
       </c>
+      <c r="C13" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="D13" s="1" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>84</v>
@@ -2533,54 +2485,54 @@
         <v>85</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P13" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O13" s="1" t="s">
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="D14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>23</v>
@@ -2592,7 +2544,7 @@
         <v>25</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>27</v>
@@ -2601,27 +2553,27 @@
         <v>28</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>98</v>
+        <v>82</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F15" s="1">
         <v>2017</v>
@@ -2630,7 +2582,7 @@
         <v>21</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>23</v>
@@ -2642,7 +2594,7 @@
         <v>25</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>27</v>
@@ -2651,36 +2603,36 @@
         <v>28</v>
       </c>
       <c r="O15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F16" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>23</v>
@@ -2692,7 +2644,7 @@
         <v>25</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>27</v>
@@ -2701,10 +2653,10 @@
         <v>28</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2712,16 +2664,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>104</v>
+        <v>82</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F17" s="1">
         <v>2017</v>
@@ -2730,7 +2682,7 @@
         <v>21</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>23</v>
@@ -2751,10 +2703,10 @@
         <v>28</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2762,16 +2714,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F18" s="1">
         <v>2017</v>
@@ -2780,7 +2732,7 @@
         <v>21</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>23</v>
@@ -2801,10 +2753,10 @@
         <v>28</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2812,16 +2764,16 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>112</v>
+        <v>82</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F19" s="1">
         <v>2017</v>
@@ -2830,7 +2782,7 @@
         <v>21</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>23</v>
@@ -2839,7 +2791,7 @@
         <v>24</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>44</v>
@@ -2851,10 +2803,10 @@
         <v>28</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2862,16 +2814,16 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>116</v>
+        <v>82</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F20" s="1">
         <v>2017</v>
@@ -2880,7 +2832,7 @@
         <v>21</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>23</v>
@@ -2901,10 +2853,10 @@
         <v>28</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2912,16 +2864,16 @@
         <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>120</v>
+        <v>82</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F21" s="1">
         <v>2017</v>
@@ -2930,7 +2882,7 @@
         <v>21</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>122</v>
+        <v>57</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>23</v>
@@ -2939,7 +2891,7 @@
         <v>24</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>44</v>
@@ -2951,10 +2903,10 @@
         <v>28</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2962,16 +2914,16 @@
         <v>16</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>124</v>
+        <v>82</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F22" s="1">
         <v>2017</v>
@@ -2980,7 +2932,7 @@
         <v>21</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>23</v>
@@ -3001,10 +2953,10 @@
         <v>28</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -3012,16 +2964,16 @@
         <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>127</v>
+        <v>82</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F23" s="1">
         <v>2017</v>
@@ -3030,7 +2982,7 @@
         <v>21</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>23</v>
@@ -3039,7 +2991,7 @@
         <v>24</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>44</v>
@@ -3051,10 +3003,10 @@
         <v>28</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -3062,16 +3014,16 @@
         <v>16</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>130</v>
+        <v>82</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F24" s="1">
         <v>2017</v>
@@ -3080,7 +3032,7 @@
         <v>21</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>23</v>
@@ -3089,7 +3041,7 @@
         <v>24</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>44</v>
@@ -3101,10 +3053,10 @@
         <v>28</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -3112,99 +3064,99 @@
         <v>16</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F25" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="P25" s="1" t="s">
+      <c r="I26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="P26" s="1" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" s="5" customFormat="1">
-      <c r="A26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F26" s="4">
-        <v>2017</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N26" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O26" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="P26" s="4" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -3212,16 +3164,16 @@
         <v>16</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>140</v>
+        <v>124</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F27" s="1">
         <v>2017</v>
@@ -3230,7 +3182,7 @@
         <v>21</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>143</v>
+        <v>38</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>23</v>
@@ -3242,7 +3194,7 @@
         <v>25</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>27</v>
@@ -3251,10 +3203,10 @@
         <v>28</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -3262,26 +3214,26 @@
         <v>16</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F28" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="I28" s="1" t="s">
         <v>23</v>
       </c>
@@ -3289,10 +3241,10 @@
         <v>24</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>27</v>
@@ -3301,10 +3253,10 @@
         <v>28</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -3312,25 +3264,25 @@
         <v>16</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>149</v>
+        <v>124</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="F29" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>23</v>
@@ -3342,7 +3294,7 @@
         <v>25</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>27</v>
@@ -3351,10 +3303,10 @@
         <v>28</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -3362,16 +3314,16 @@
         <v>16</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>153</v>
+        <v>124</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>154</v>
+        <v>103</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F30" s="1">
         <v>2017</v>
@@ -3380,7 +3332,7 @@
         <v>21</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>23</v>
@@ -3389,7 +3341,7 @@
         <v>24</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>44</v>
@@ -3401,10 +3353,10 @@
         <v>28</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -3412,16 +3364,16 @@
         <v>16</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>156</v>
+        <v>124</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F31" s="1">
         <v>2017</v>
@@ -3430,7 +3382,7 @@
         <v>21</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>23</v>
@@ -3439,7 +3391,7 @@
         <v>24</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>44</v>
@@ -3451,10 +3403,10 @@
         <v>28</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -3462,16 +3414,16 @@
         <v>16</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>159</v>
+        <v>124</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F32" s="1">
         <v>2017</v>
@@ -3480,7 +3432,7 @@
         <v>21</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>160</v>
+        <v>57</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>23</v>
@@ -3489,7 +3441,7 @@
         <v>24</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>44</v>
@@ -3501,10 +3453,10 @@
         <v>28</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -3512,16 +3464,16 @@
         <v>16</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>162</v>
+        <v>124</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F33" s="1">
         <v>2017</v>
@@ -3530,7 +3482,7 @@
         <v>21</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>163</v>
+        <v>52</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>23</v>
@@ -3539,7 +3491,7 @@
         <v>24</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>44</v>
@@ -3551,10 +3503,10 @@
         <v>28</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3562,16 +3514,16 @@
         <v>16</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>165</v>
+        <v>124</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F34" s="1">
         <v>2017</v>
@@ -3580,7 +3532,7 @@
         <v>21</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>23</v>
@@ -3589,7 +3541,7 @@
         <v>24</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>44</v>
@@ -3601,10 +3553,10 @@
         <v>28</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3612,16 +3564,16 @@
         <v>16</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>167</v>
+        <v>155</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="F35" s="1">
         <v>2017</v>
@@ -3630,7 +3582,7 @@
         <v>21</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>52</v>
+        <v>158</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>23</v>
@@ -3639,10 +3591,10 @@
         <v>24</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>27</v>
@@ -3651,10 +3603,10 @@
         <v>28</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3662,16 +3614,16 @@
         <v>16</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>169</v>
+        <v>155</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="F36" s="1">
         <v>2017</v>
@@ -3680,7 +3632,7 @@
         <v>21</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>61</v>
+        <v>162</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>23</v>
@@ -3689,10 +3641,10 @@
         <v>24</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>27</v>
@@ -3701,60 +3653,60 @@
         <v>28</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" s="5" customFormat="1">
-      <c r="A37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="F37" s="4">
-        <v>2017</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="L37" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="M37" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N37" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O37" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="P37" s="4" t="s">
-        <v>175</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F37" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3762,16 +3714,16 @@
         <v>16</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>177</v>
+        <v>155</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>141</v>
+        <v>56</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="F38" s="1">
         <v>2017</v>
@@ -3780,7 +3732,7 @@
         <v>21</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>23</v>
@@ -3789,10 +3741,10 @@
         <v>24</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>27</v>
@@ -3801,10 +3753,10 @@
         <v>28</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3812,16 +3764,16 @@
         <v>16</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>182</v>
+        <v>155</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="F39" s="1">
         <v>2017</v>
@@ -3830,7 +3782,7 @@
         <v>21</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>23</v>
@@ -3839,10 +3791,10 @@
         <v>24</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>27</v>
@@ -3851,10 +3803,10 @@
         <v>28</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3862,16 +3814,16 @@
         <v>16</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>185</v>
+        <v>155</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="F40" s="1">
         <v>2017</v>
@@ -3880,7 +3832,7 @@
         <v>21</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>186</v>
+        <v>61</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>23</v>
@@ -3889,10 +3841,10 @@
         <v>24</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>27</v>
@@ -3901,10 +3853,10 @@
         <v>28</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3912,16 +3864,16 @@
         <v>16</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>188</v>
+        <v>155</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="F41" s="1">
         <v>2017</v>
@@ -3930,7 +3882,7 @@
         <v>21</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>23</v>
@@ -3939,7 +3891,7 @@
         <v>24</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>44</v>
@@ -3951,10 +3903,10 @@
         <v>28</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3962,16 +3914,16 @@
         <v>16</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>191</v>
-      </c>
       <c r="D42" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="F42" s="1">
         <v>2017</v>
@@ -3980,7 +3932,7 @@
         <v>21</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>189</v>
+        <v>42</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>23</v>
@@ -3989,7 +3941,7 @@
         <v>24</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>44</v>
@@ -4001,10 +3953,10 @@
         <v>28</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -4012,16 +3964,16 @@
         <v>16</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>192</v>
+        <v>155</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="F43" s="1">
         <v>2017</v>
@@ -4030,7 +3982,7 @@
         <v>21</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>23</v>
@@ -4039,7 +3991,7 @@
         <v>24</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>44</v>
@@ -4051,10 +4003,10 @@
         <v>28</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -4062,16 +4014,16 @@
         <v>16</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>194</v>
+        <v>155</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="F44" s="1">
         <v>2017</v>
@@ -4080,7 +4032,7 @@
         <v>21</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>23</v>
@@ -4089,7 +4041,7 @@
         <v>24</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>44</v>
@@ -4101,10 +4053,10 @@
         <v>28</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -4112,16 +4064,16 @@
         <v>16</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>197</v>
+        <v>183</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="F45" s="1">
         <v>2017</v>
@@ -4130,7 +4082,7 @@
         <v>21</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>23</v>
@@ -4139,10 +4091,10 @@
         <v>24</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>27</v>
@@ -4151,10 +4103,10 @@
         <v>28</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -4162,16 +4114,16 @@
         <v>16</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>200</v>
+        <v>183</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="F46" s="1">
         <v>2017</v>
@@ -4180,7 +4132,7 @@
         <v>21</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>23</v>
@@ -4189,10 +4141,10 @@
         <v>24</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>27</v>
@@ -4201,10 +4153,10 @@
         <v>28</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -4212,16 +4164,16 @@
         <v>16</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>203</v>
+        <v>183</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="F47" s="1">
         <v>2017</v>
@@ -4230,7 +4182,7 @@
         <v>21</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>204</v>
+        <v>38</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>23</v>
@@ -4242,86 +4194,86 @@
         <v>25</v>
       </c>
       <c r="L47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F48" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L48" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M47" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" s="5" customFormat="1">
-      <c r="A48" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="F48" s="4">
-        <v>2017</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="K48" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="L48" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="M48" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N48" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O48" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="P48" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16">
+      <c r="M48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="15">
       <c r="A49" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>212</v>
+        <v>183</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>141</v>
+        <v>51</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="F49" s="1">
         <v>2017</v>
@@ -4330,7 +4282,7 @@
         <v>21</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>23</v>
@@ -4339,10 +4291,10 @@
         <v>24</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>27</v>
@@ -4351,10 +4303,10 @@
         <v>28</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -4362,16 +4314,16 @@
         <v>16</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>217</v>
+        <v>183</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="F50" s="1">
         <v>2017</v>
@@ -4380,7 +4332,7 @@
         <v>21</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>218</v>
+        <v>61</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>23</v>
@@ -4389,10 +4341,10 @@
         <v>24</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>27</v>
@@ -4401,10 +4353,10 @@
         <v>28</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -4412,16 +4364,16 @@
         <v>16</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>220</v>
+        <v>183</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="F51" s="1">
         <v>2017</v>
@@ -4430,7 +4382,7 @@
         <v>21</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>23</v>
@@ -4439,10 +4391,10 @@
         <v>24</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>27</v>
@@ -4451,10 +4403,10 @@
         <v>28</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -4462,16 +4414,16 @@
         <v>16</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>223</v>
+        <v>183</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="F52" s="1">
         <v>2017</v>
@@ -4480,7 +4432,7 @@
         <v>21</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>189</v>
+        <v>42</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>23</v>
@@ -4489,7 +4441,7 @@
         <v>24</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>44</v>
@@ -4501,10 +4453,10 @@
         <v>28</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -4512,16 +4464,16 @@
         <v>16</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>225</v>
+        <v>183</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="F53" s="1">
         <v>2017</v>
@@ -4530,7 +4482,7 @@
         <v>21</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>226</v>
+        <v>48</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>23</v>
@@ -4539,7 +4491,7 @@
         <v>24</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>44</v>
@@ -4551,10 +4503,10 @@
         <v>28</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -4562,16 +4514,16 @@
         <v>16</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>227</v>
+        <v>183</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="F54" s="1">
         <v>2017</v>
@@ -4580,7 +4532,7 @@
         <v>21</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>61</v>
+        <v>208</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>23</v>
@@ -4589,7 +4541,7 @@
         <v>24</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>44</v>
@@ -4601,10 +4553,10 @@
         <v>28</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4612,13 +4564,13 @@
         <v>16</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="D55" s="1" t="s">
-        <v>65</v>
+        <v>212</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>213</v>
@@ -4630,7 +4582,7 @@
         <v>21</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>23</v>
@@ -4639,10 +4591,10 @@
         <v>24</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>27</v>
@@ -4654,7 +4606,7 @@
         <v>215</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4662,13 +4614,13 @@
         <v>16</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>232</v>
+        <v>210</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>41</v>
+        <v>218</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>213</v>
@@ -4680,7 +4632,7 @@
         <v>21</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>23</v>
@@ -4689,10 +4641,10 @@
         <v>24</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>27</v>
@@ -4701,10 +4653,10 @@
         <v>28</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4712,13 +4664,13 @@
         <v>16</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>235</v>
+        <v>210</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>47</v>
+        <v>223</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>213</v>
@@ -4730,7 +4682,7 @@
         <v>21</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>236</v>
+        <v>38</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>23</v>
@@ -4739,10 +4691,10 @@
         <v>24</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="M57" s="1" t="s">
         <v>27</v>
@@ -4754,7 +4706,7 @@
         <v>215</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4762,13 +4714,13 @@
         <v>16</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>238</v>
+        <v>210</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>213</v>
@@ -4780,7 +4732,7 @@
         <v>21</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>23</v>
@@ -4789,7 +4741,7 @@
         <v>24</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>44</v>
@@ -4804,57 +4756,57 @@
         <v>215</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" s="5" customFormat="1">
-      <c r="A59" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="F59" s="4">
-        <v>2017</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J59" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="K59" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="L59" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="M59" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N59" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O59" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="P59" s="4" t="s">
-        <v>245</v>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F59" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4862,16 +4814,16 @@
         <v>16</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>247</v>
+        <v>210</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>248</v>
+        <v>60</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="F60" s="1">
         <v>2017</v>
@@ -4880,7 +4832,7 @@
         <v>21</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>250</v>
+        <v>61</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>23</v>
@@ -4889,10 +4841,10 @@
         <v>24</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="M60" s="1" t="s">
         <v>27</v>
@@ -4901,10 +4853,10 @@
         <v>28</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4912,16 +4864,16 @@
         <v>16</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>253</v>
+        <v>210</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="F61" s="1">
         <v>2017</v>
@@ -4930,7 +4882,7 @@
         <v>21</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>23</v>
@@ -4939,10 +4891,10 @@
         <v>24</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="M61" s="1" t="s">
         <v>27</v>
@@ -4951,10 +4903,10 @@
         <v>28</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4962,16 +4914,16 @@
         <v>16</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>257</v>
+        <v>210</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>258</v>
+        <v>110</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="F62" s="1">
         <v>2017</v>
@@ -4980,7 +4932,7 @@
         <v>21</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>23</v>
@@ -4989,10 +4941,10 @@
         <v>24</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="M62" s="1" t="s">
         <v>27</v>
@@ -5001,10 +4953,10 @@
         <v>28</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -5012,16 +4964,16 @@
         <v>16</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>261</v>
+        <v>240</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>125</v>
+        <v>223</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="F63" s="1">
         <v>2017</v>
@@ -5030,7 +4982,7 @@
         <v>21</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>262</v>
+        <v>38</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>23</v>
@@ -5039,10 +4991,10 @@
         <v>24</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="M63" s="1" t="s">
         <v>27</v>
@@ -5051,10 +5003,10 @@
         <v>28</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -5062,25 +5014,25 @@
         <v>16</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F64" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H64" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="F64" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>23</v>
@@ -5101,10 +5053,10 @@
         <v>28</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -5112,26 +5064,26 @@
         <v>16</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>266</v>
+        <v>240</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>60</v>
+        <v>234</v>
       </c>
       <c r="E65" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F65" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H65" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="F65" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="I65" s="1" t="s">
         <v>23</v>
       </c>
@@ -5139,7 +5091,7 @@
         <v>24</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="L65" s="1" t="s">
         <v>44</v>
@@ -5151,10 +5103,10 @@
         <v>28</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -5162,16 +5114,16 @@
         <v>16</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>268</v>
+        <v>251</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>269</v>
+        <v>212</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F66" s="1">
         <v>2017</v>
@@ -5180,7 +5132,7 @@
         <v>21</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>23</v>
@@ -5189,10 +5141,10 @@
         <v>24</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="M66" s="1" t="s">
         <v>27</v>
@@ -5201,10 +5153,10 @@
         <v>28</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -5212,16 +5164,16 @@
         <v>16</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>272</v>
+        <v>251</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F67" s="1">
         <v>2017</v>
@@ -5230,7 +5182,7 @@
         <v>21</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>273</v>
+        <v>38</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>23</v>
@@ -5239,10 +5191,10 @@
         <v>24</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="M67" s="1" t="s">
         <v>27</v>
@@ -5251,60 +5203,60 @@
         <v>28</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" s="5" customFormat="1">
-      <c r="A68" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="F68" s="4">
-        <v>2017</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J68" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="K68" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="L68" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F68" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L68" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="M68" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N68" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O68" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="P68" s="4" t="s">
-        <v>279</v>
+      <c r="M68" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -5312,16 +5264,16 @@
         <v>16</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>281</v>
+        <v>259</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>258</v>
+        <v>114</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="F69" s="1">
         <v>2017</v>
@@ -5330,7 +5282,7 @@
         <v>21</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>23</v>
@@ -5339,10 +5291,10 @@
         <v>24</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="M69" s="1" t="s">
         <v>27</v>
@@ -5351,10 +5303,10 @@
         <v>28</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -5362,16 +5314,16 @@
         <v>16</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>286</v>
+        <v>259</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="F70" s="1">
         <v>2017</v>
@@ -5380,7 +5332,7 @@
         <v>21</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>23</v>
@@ -5401,10 +5353,10 @@
         <v>28</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -5412,16 +5364,16 @@
         <v>16</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>289</v>
+        <v>259</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>269</v>
+        <v>60</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="F71" s="1">
         <v>2017</v>
@@ -5430,7 +5382,7 @@
         <v>21</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>290</v>
+        <v>61</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>23</v>
@@ -5439,7 +5391,7 @@
         <v>24</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L71" s="1" t="s">
         <v>44</v>
@@ -5451,10 +5403,10 @@
         <v>28</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -5462,16 +5414,16 @@
         <v>16</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>293</v>
+        <v>259</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>294</v>
+        <v>253</v>
       </c>
       <c r="F72" s="1">
         <v>2017</v>
@@ -5480,7 +5432,7 @@
         <v>21</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>23</v>
@@ -5489,10 +5441,10 @@
         <v>24</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="M72" s="1" t="s">
         <v>27</v>
@@ -5501,10 +5453,10 @@
         <v>28</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -5512,16 +5464,16 @@
         <v>16</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>298</v>
+        <v>259</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>274</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>37</v>
+        <v>275</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>294</v>
+        <v>253</v>
       </c>
       <c r="F73" s="1">
         <v>2017</v>
@@ -5530,7 +5482,7 @@
         <v>21</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>299</v>
+        <v>42</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>23</v>
@@ -5539,10 +5491,10 @@
         <v>24</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="M73" s="1" t="s">
         <v>27</v>
@@ -5551,10 +5503,10 @@
         <v>28</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -5562,16 +5514,16 @@
         <v>16</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>301</v>
+        <v>251</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>277</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>254</v>
+        <v>95</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>294</v>
+        <v>253</v>
       </c>
       <c r="F74" s="1">
         <v>2017</v>
@@ -5580,7 +5532,7 @@
         <v>21</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>23</v>
@@ -5592,7 +5544,7 @@
         <v>25</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="M74" s="1" t="s">
         <v>27</v>
@@ -5601,10 +5553,10 @@
         <v>28</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5612,16 +5564,16 @@
         <v>16</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>304</v>
+        <v>280</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>281</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="F75" s="1">
         <v>2017</v>
@@ -5630,7 +5582,7 @@
         <v>21</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>23</v>
@@ -5639,10 +5591,10 @@
         <v>24</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="M75" s="1" t="s">
         <v>27</v>
@@ -5651,10 +5603,10 @@
         <v>28</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5662,16 +5614,16 @@
         <v>16</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>307</v>
+        <v>280</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>286</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>265</v>
+        <v>32</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="F76" s="1">
         <v>2017</v>
@@ -5680,7 +5632,7 @@
         <v>21</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>23</v>
@@ -5689,10 +5641,10 @@
         <v>24</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="M76" s="1" t="s">
         <v>27</v>
@@ -5701,10 +5653,10 @@
         <v>28</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5712,16 +5664,16 @@
         <v>16</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>308</v>
+        <v>280</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>289</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="F77" s="1">
         <v>2017</v>
@@ -5730,7 +5682,7 @@
         <v>21</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>61</v>
+        <v>290</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>23</v>
@@ -5739,7 +5691,7 @@
         <v>24</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="L77" s="1" t="s">
         <v>44</v>
@@ -5751,10 +5703,10 @@
         <v>28</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5762,16 +5714,16 @@
         <v>16</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>310</v>
-      </c>
       <c r="D78" s="1" t="s">
-        <v>269</v>
+        <v>51</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="F78" s="1">
         <v>2017</v>
@@ -5780,7 +5732,7 @@
         <v>21</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>23</v>
@@ -5789,7 +5741,7 @@
         <v>24</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="L78" s="1" t="s">
         <v>44</v>
@@ -5801,10 +5753,10 @@
         <v>28</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5812,16 +5764,16 @@
         <v>16</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>313</v>
+        <v>280</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>294</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>314</v>
+        <v>60</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="F79" s="1">
         <v>2017</v>
@@ -5830,7 +5782,7 @@
         <v>21</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>315</v>
+        <v>61</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>23</v>
@@ -5839,7 +5791,7 @@
         <v>24</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="L79" s="1" t="s">
         <v>44</v>
@@ -5851,10 +5803,10 @@
         <v>28</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5862,16 +5814,16 @@
         <v>16</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>317</v>
+        <v>280</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>314</v>
+        <v>65</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="F80" s="1">
         <v>2017</v>
@@ -5880,7 +5832,7 @@
         <v>21</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>23</v>
@@ -5889,7 +5841,7 @@
         <v>24</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="L80" s="1" t="s">
         <v>44</v>
@@ -5901,10 +5853,10 @@
         <v>28</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5912,16 +5864,16 @@
         <v>16</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>318</v>
+        <v>280</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="F81" s="1">
         <v>2017</v>
@@ -5930,7 +5882,7 @@
         <v>21</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>319</v>
+        <v>42</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>23</v>
@@ -5939,7 +5891,7 @@
         <v>24</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="L81" s="1" t="s">
         <v>44</v>
@@ -5951,60 +5903,60 @@
         <v>28</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="P81" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" s="5" customFormat="1">
-      <c r="A82" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F82" s="4">
-        <v>2017</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="I82" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J82" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="K82" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="L82" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="M82" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N82" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O82" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="P82" s="4" t="s">
-        <v>325</v>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
+      <c r="A82" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F82" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O82" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="P82" s="1" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -6012,16 +5964,16 @@
         <v>16</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>327</v>
+        <v>280</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>303</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>328</v>
+        <v>282</v>
       </c>
       <c r="F83" s="1">
         <v>2017</v>
@@ -6030,7 +5982,7 @@
         <v>21</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>23</v>
@@ -6042,7 +5994,7 @@
         <v>25</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="M83" s="1" t="s">
         <v>27</v>
@@ -6051,10 +6003,10 @@
         <v>28</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>330</v>
+        <v>284</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -6062,16 +6014,16 @@
         <v>16</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>332</v>
+        <v>306</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>307</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="F84" s="1">
         <v>2017</v>
@@ -6080,7 +6032,7 @@
         <v>21</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>23</v>
@@ -6092,7 +6044,7 @@
         <v>25</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M84" s="1" t="s">
         <v>27</v>
@@ -6101,10 +6053,10 @@
         <v>28</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -6112,16 +6064,16 @@
         <v>16</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>335</v>
+        <v>306</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>312</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="F85" s="1">
         <v>2017</v>
@@ -6130,7 +6082,7 @@
         <v>21</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>23</v>
@@ -6139,10 +6091,10 @@
         <v>24</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="M85" s="1" t="s">
         <v>27</v>
@@ -6151,10 +6103,10 @@
         <v>28</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -6162,16 +6114,16 @@
         <v>16</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>338</v>
+        <v>306</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="F86" s="1">
         <v>2017</v>
@@ -6180,7 +6132,7 @@
         <v>21</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>23</v>
@@ -6201,10 +6153,10 @@
         <v>28</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="P86" s="1" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -6212,16 +6164,16 @@
         <v>16</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>339</v>
+        <v>306</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>318</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="F87" s="1">
         <v>2017</v>
@@ -6230,7 +6182,7 @@
         <v>21</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>61</v>
+        <v>319</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>23</v>
@@ -6239,7 +6191,7 @@
         <v>24</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="L87" s="1" t="s">
         <v>44</v>
@@ -6251,10 +6203,10 @@
         <v>28</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="P87" s="1" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -6262,16 +6214,16 @@
         <v>16</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>340</v>
+        <v>306</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>320</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="F88" s="1">
         <v>2017</v>
@@ -6280,7 +6232,7 @@
         <v>21</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>341</v>
+        <v>61</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>23</v>
@@ -6289,7 +6241,7 @@
         <v>24</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L88" s="1" t="s">
         <v>44</v>
@@ -6301,10 +6253,10 @@
         <v>28</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="P88" s="1" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -6312,16 +6264,16 @@
         <v>16</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>342</v>
+        <v>306</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>322</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="F89" s="1">
         <v>2017</v>
@@ -6330,7 +6282,7 @@
         <v>21</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>23</v>
@@ -6339,7 +6291,7 @@
         <v>24</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="L89" s="1" t="s">
         <v>44</v>
@@ -6351,10 +6303,10 @@
         <v>28</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="P89" s="1" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -6362,16 +6314,16 @@
         <v>16</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>345</v>
+        <v>306</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>325</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="F90" s="1">
         <v>2017</v>
@@ -6380,7 +6332,7 @@
         <v>21</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>346</v>
+        <v>42</v>
       </c>
       <c r="I90" s="1" t="s">
         <v>23</v>
@@ -6401,10 +6353,10 @@
         <v>28</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -6412,16 +6364,16 @@
         <v>16</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>348</v>
+        <v>306</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>327</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="F91" s="1">
         <v>2017</v>
@@ -6430,7 +6382,7 @@
         <v>21</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>349</v>
+        <v>48</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>23</v>
@@ -6439,7 +6391,7 @@
         <v>24</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="L91" s="1" t="s">
         <v>44</v>
@@ -6451,60 +6403,60 @@
         <v>28</v>
       </c>
       <c r="O91" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="P91" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16">
+      <c r="A92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F92" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H92" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="P91" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" s="5" customFormat="1">
-      <c r="A92" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="F92" s="4">
-        <v>2017</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H92" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="I92" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J92" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="K92" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="L92" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="M92" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N92" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O92" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="P92" s="4" t="s">
-        <v>355</v>
+      <c r="I92" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="P92" s="1" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -6512,49 +6464,49 @@
         <v>16</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>357</v>
+        <v>124</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>141</v>
+        <v>333</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="F93" s="1">
         <v>2017</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>21</v>
+        <v>335</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>23</v>
+        <v>337</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>24</v>
+        <v>338</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>25</v>
+        <v>339</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>95</v>
+        <v>339</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>27</v>
+        <v>339</v>
       </c>
       <c r="N93" s="1" t="s">
         <v>28</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="P93" s="1" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -6562,49 +6514,49 @@
         <v>16</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>362</v>
+        <v>17</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>342</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>32</v>
+        <v>343</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="F94" s="1">
         <v>2017</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>21</v>
+        <v>335</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>23</v>
+        <v>337</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>24</v>
+        <v>338</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>25</v>
+        <v>339</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>88</v>
+        <v>339</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>27</v>
+        <v>339</v>
       </c>
       <c r="N94" s="1" t="s">
         <v>28</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="P94" s="1" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -6612,49 +6564,49 @@
         <v>16</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>365</v>
+        <v>82</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>56</v>
+        <v>348</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="F95" s="1">
         <v>2017</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>21</v>
+        <v>335</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>23</v>
+        <v>337</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>24</v>
+        <v>338</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>53</v>
+        <v>339</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>88</v>
+        <v>339</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>27</v>
+        <v>339</v>
       </c>
       <c r="N95" s="1" t="s">
         <v>28</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -6662,392 +6614,392 @@
         <v>16</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="F96" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="N96" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O96" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="P96" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17">
+      <c r="A97" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F97" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O97" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="P97" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17">
+      <c r="A98" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F98" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="P98" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17">
+      <c r="A99" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="F96" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K96" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L96" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M96" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N96" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O96" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="P96" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16">
-      <c r="A97" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C97" s="3" t="s">
+      <c r="D99" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="F97" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K97" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L97" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M97" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N97" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O97" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="P97" s="1" t="s">
+      <c r="E99" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="98" spans="1:16">
-      <c r="A98" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C98" s="3" t="s">
+      <c r="F99" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H99" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="F98" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H98" s="1" t="s">
+      <c r="I99" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="P99" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="I98" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K98" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L98" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M98" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N98" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O98" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="P98" s="1" t="s">
+    </row>
+    <row r="100" spans="1:17">
+      <c r="A100" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="99" spans="1:16">
-      <c r="A99" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C99" s="3" t="s">
+      <c r="D100" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="D99" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="F99" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H99" s="1" t="s">
+      <c r="E100" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="I99" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K99" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L99" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M99" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N99" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O99" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="P99" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16">
-      <c r="A100" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C100" s="3" t="s">
+      <c r="F100" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H100" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="F100" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>346</v>
-      </c>
       <c r="I100" s="1" t="s">
-        <v>23</v>
+        <v>337</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>24</v>
+        <v>338</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>43</v>
+        <v>339</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>44</v>
+        <v>339</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>27</v>
+        <v>339</v>
       </c>
       <c r="N100" s="1" t="s">
         <v>28</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="P100" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17">
+      <c r="A101" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="101" spans="1:16">
-      <c r="A101" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C101" s="3" t="s">
+      <c r="D101" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="E101" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="F101" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H101" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="I101" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K101" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L101" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M101" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N101" s="1" t="s">
+      <c r="F101" s="8">
+        <v>2017</v>
+      </c>
+      <c r="G101" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="H101" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="I101" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="J101" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="K101" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="L101" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="M101" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="N101" s="8" t="s">
         <v>28</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>360</v>
+        <v>381</v>
       </c>
       <c r="P101" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" s="5" customFormat="1">
-      <c r="A102" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>74</v>
+        <v>372</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17">
+      <c r="A102" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>384</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="F102" s="4">
-        <v>2017</v>
-      </c>
-      <c r="G102" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H102" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="I102" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J102" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="K102" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="L102" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="M102" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N102" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O102" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="P102" s="4" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="103" spans="1:16">
+      <c r="F102" s="3">
+        <v>2017</v>
+      </c>
+      <c r="G102" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="I102" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O102" t="s">
+        <v>387</v>
+      </c>
+      <c r="P102" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17">
       <c r="A103" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>386</v>
+        <v>339</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>389</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="F103" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="I103" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="J103" s="1" t="s">
+      <c r="F103" s="5">
+        <v>2017</v>
+      </c>
+      <c r="G103" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="K103" s="1" t="s">
+      <c r="H103" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="L103" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="M103" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="N103" s="1" t="s">
+      <c r="I103" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="J103" t="s">
+        <v>338</v>
+      </c>
+      <c r="K103" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="L103" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="M103" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="N103" s="5" t="s">
         <v>28</v>
       </c>
       <c r="O103" s="1" t="s">
@@ -7057,706 +7009,568 @@
         <v>395</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:17" ht="15">
       <c r="A104" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C104" s="3" t="s">
         <v>396</v>
       </c>
+      <c r="C104" s="1" t="s">
+        <v>397</v>
+      </c>
       <c r="D104" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E104" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="F104" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="H104" s="1" t="s">
+      <c r="E104" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="I104" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="K104" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L104" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="M104" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="N104" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O104" s="1" t="s">
+      <c r="F104" s="3">
+        <v>2017</v>
+      </c>
+      <c r="G104" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="H104" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="P104" s="1" t="s">
+      <c r="I104" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="K104" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="L104" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="M104" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="N104" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O104" s="3" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="105" spans="1:16">
+      <c r="P104" s="9" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" ht="15">
       <c r="A105" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>404</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="F105" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="H105" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="I105" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="J105" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="K105" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L105" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="M105" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="N105" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O105" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="P105" s="1" t="s">
+      <c r="E105" s="4" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="106" spans="1:16">
+      <c r="F105" s="3">
+        <v>2017</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="H105" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="I105" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="K105" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="L105" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="M105" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="N105" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O105" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="P105" s="9" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" ht="15">
       <c r="A106" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C106" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F106" s="3">
+        <v>2017</v>
+      </c>
+      <c r="G106" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="H106" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="D106" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="F106" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="K106" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L106" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="M106" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="N106" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O106" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="P106" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16">
+      <c r="I106" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="K106" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="L106" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="M106" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="N106" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O106" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="P106" s="9" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" ht="15">
       <c r="A107" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="F107" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="H107" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="I107" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="J107" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="K107" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L107" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="M107" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="N107" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O107" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="P107" s="1" t="s">
+      <c r="E107" s="4" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="108" spans="1:16">
+      <c r="F107" s="3">
+        <v>2017</v>
+      </c>
+      <c r="G107" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="H107" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="I107" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="K107" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="L107" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="M107" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="N107" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O107" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="P107" s="9" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17">
       <c r="A108" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>418</v>
+        <v>339</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>419</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="F108" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="H108" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="I108" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="K108" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L108" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="M108" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="N108" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O108" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="P108" s="1" t="s">
+      <c r="F108" s="5">
+        <v>2017</v>
+      </c>
+      <c r="G108" s="10" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="109" spans="1:16">
+      <c r="H108" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="I108" t="s">
+        <v>337</v>
+      </c>
+      <c r="J108" t="s">
+        <v>338</v>
+      </c>
+      <c r="K108" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="L108" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="M108" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="N108" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O108" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="P108" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" ht="15">
       <c r="A109" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>423</v>
+        <v>426</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>427</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="F109" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="J109" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="K109" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L109" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="M109" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="N109" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O109" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="P109" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16">
+        <v>428</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="F109" s="3">
+        <v>2017</v>
+      </c>
+      <c r="G109" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="H109" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="I109" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="K109" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="L109" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="M109" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="N109" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O109" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="P109" s="9" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" ht="15">
       <c r="A110" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>428</v>
+        <v>431</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>432</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="F110" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="K110" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L110" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="M110" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="N110" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O110" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="P110" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16">
+        <v>433</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="F110" s="3">
+        <v>2017</v>
+      </c>
+      <c r="G110" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="H110" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="I110" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="K110" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="L110" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="M110" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="N110" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O110" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="P110" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q110" s="9"/>
+    </row>
+    <row r="111" spans="1:17" ht="15">
       <c r="A111" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>433</v>
+        <v>436</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>437</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="F111" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="K111" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L111" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="M111" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="N111" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O111" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="P111" s="1" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="112" spans="1:16">
+      <c r="E111" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="F111" s="3">
+        <v>2017</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="H111" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="I111" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="K111" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="L111" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="M111" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="N111" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O111" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="P111" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" ht="15">
       <c r="A112" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="F112">
-        <v>2017</v>
-      </c>
-      <c r="G112" t="s">
-        <v>393</v>
-      </c>
-      <c r="H112" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="I112" t="s">
-        <v>391</v>
-      </c>
-      <c r="J112" t="s">
-        <v>392</v>
-      </c>
-      <c r="K112" t="s">
-        <v>393</v>
-      </c>
-      <c r="L112" t="s">
-        <v>393</v>
-      </c>
-      <c r="M112" t="s">
-        <v>393</v>
-      </c>
-      <c r="N112" t="s">
-        <v>28</v>
-      </c>
-      <c r="O112" t="s">
+      <c r="E112" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="P112" t="s">
+      <c r="F112" s="3">
+        <v>2017</v>
+      </c>
+      <c r="G112" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="H112" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="I112" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="K112" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="L112" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="M112" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="N112" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O112" s="3" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="113" spans="1:16">
+      <c r="P112" s="9" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" ht="15">
       <c r="A113" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>393</v>
+        <v>447</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="F113" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G113" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="H113" s="1" t="s">
+      <c r="E113" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="I113" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="J113" t="s">
-        <v>392</v>
-      </c>
-      <c r="K113" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L113" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="M113" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="N113" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O113" s="1" t="s">
+      <c r="F113" s="3">
+        <v>2017</v>
+      </c>
+      <c r="G113" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="H113" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="I113" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="K113" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="L113" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="M113" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="N113" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O113" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="P113" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="P113" s="1" t="s">
+    </row>
+    <row r="114" spans="1:16" ht="15">
+      <c r="A114" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="114" spans="1:16">
-      <c r="A114" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B114" s="1" t="s">
+      <c r="C114" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="D114" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="E114" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="E114" s="1" t="s">
+      <c r="F114" s="3">
+        <v>2017</v>
+      </c>
+      <c r="G114" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="H114" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="I114" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="K114" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="L114" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="M114" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="N114" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O114" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="P114" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="H114" s="2"/>
-    </row>
-    <row r="115" spans="1:16">
-      <c r="A115" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="H115" s="2"/>
-    </row>
-    <row r="116" spans="1:16">
-      <c r="A116" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="H116" s="2"/>
-    </row>
-    <row r="117" spans="1:16">
-      <c r="A117" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="H117" s="2"/>
-    </row>
-    <row r="118" spans="1:16">
-      <c r="A118" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="H118" s="2"/>
-    </row>
-    <row r="119" spans="1:16">
-      <c r="A119" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="H119" s="2"/>
-    </row>
-    <row r="120" spans="1:16">
-      <c r="A120" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="H120" s="2"/>
-    </row>
-    <row r="121" spans="1:16">
-      <c r="A121" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="H121" s="2"/>
-    </row>
-    <row r="122" spans="1:16">
-      <c r="A122" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="H122" s="2"/>
-    </row>
-    <row r="123" spans="1:16">
-      <c r="A123" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="H123" s="2"/>
-    </row>
-    <row r="124" spans="1:16">
-      <c r="A124" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="H124" s="2"/>
-    </row>
+    </row>
+    <row r="115" spans="1:16" ht="15"/>
+    <row r="116" spans="1:16" ht="15"/>
+    <row r="117" spans="1:16" ht="15"/>
+    <row r="118" spans="1:16" ht="15"/>
+    <row r="119" spans="1:16" ht="15"/>
+    <row r="120" spans="1:16" ht="15"/>
+    <row r="121" spans="1:16" ht="15"/>
+    <row r="122" spans="1:16" ht="15"/>
+    <row r="123" spans="1:16" ht="15"/>
   </sheetData>
-  <autoFilter ref="A1:P124" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:P114" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/P0013/09_FICHAS/N3-FD-General.xlsx
+++ b/P0013/09_FICHAS/N3-FD-General.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28521"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0013/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="799" documentId="13_ncr:1_{DB568217-8B5E-4575-9351-15D5A2E362BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77F3A5D2-2308-45F9-A573-E039557FBD32}"/>
+  <xr:revisionPtr revIDLastSave="801" documentId="13_ncr:1_{DB568217-8B5E-4575-9351-15D5A2E362BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65223CA7-7213-483F-BC41-B6B23CECA130}"/>
   <bookViews>
     <workbookView minimized="1" xWindow="30525" yWindow="1740" windowWidth="14340" windowHeight="7245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1043,7 +1043,7 @@
     <t>Matriz_Guaranda</t>
   </si>
   <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/Guaranda/09_Socializacion/Matriz de sistematizacion/Matriz_Guaranda.xlsx"</t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0013/02_PRODUCTOS/Guaranda/09_Socializacion/Matriz de sistematizacion/Matriz_Guaranda.xlsx</t>
   </si>
   <si>
     <t>Matriz de sistematización</t>
@@ -1543,7 +1543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1555,6 +1555,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1838,8 +1839,8 @@
   <dimension ref="A1:Q123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E89" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="H98" sqref="H98"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E67" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="E104" sqref="E104"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -6459,7 +6460,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" ht="15">
       <c r="A93" s="1" t="s">
         <v>16</v>
       </c>
@@ -6472,7 +6473,7 @@
       <c r="D93" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E93" s="11" t="s">
         <v>334</v>
       </c>
       <c r="F93" s="1">

--- a/P0013/09_FICHAS/N3-FD-General.xlsx
+++ b/P0013/09_FICHAS/N3-FD-General.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28521"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0013/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="801" documentId="13_ncr:1_{DB568217-8B5E-4575-9351-15D5A2E362BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65223CA7-7213-483F-BC41-B6B23CECA130}"/>
+  <xr:revisionPtr revIDLastSave="802" documentId="13_ncr:1_{DB568217-8B5E-4575-9351-15D5A2E362BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3E93D51-0249-46D2-B69C-BF0D8A55E815}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="30525" yWindow="1740" windowWidth="14340" windowHeight="7245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1416,7 +1416,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1543,7 +1543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1555,7 +1555,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1836,16 +1835,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q123"/>
+  <dimension ref="A1:Q114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E67" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="E104" sqref="E104"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E100" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="topRight"/>
+      <selection pane="bottomRight" activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="34.85546875" customWidth="1"/>
     <col min="5" max="5" width="91.42578125" customWidth="1"/>
@@ -1860,7 +1859,7 @@
     <col min="16" max="16" width="54.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1910,7 +1909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="18" customHeight="1">
+    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -1960,7 +1959,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -2010,7 +2009,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -2060,7 +2059,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -2110,7 +2109,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -2160,7 +2159,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -2210,7 +2209,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -2260,7 +2259,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -2310,7 +2309,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -2360,7 +2359,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -2410,7 +2409,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -2460,7 +2459,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -2510,7 +2509,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -2560,7 +2559,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -2610,7 +2609,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -2660,7 +2659,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -2710,7 +2709,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -2760,7 +2759,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -2810,7 +2809,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -2860,7 +2859,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -2910,7 +2909,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -2960,7 +2959,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -3010,7 +3009,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -3060,7 +3059,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
@@ -3110,7 +3109,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -3160,7 +3159,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
@@ -3210,7 +3209,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
@@ -3260,7 +3259,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
@@ -3310,7 +3309,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>16</v>
       </c>
@@ -3360,7 +3359,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>16</v>
       </c>
@@ -3410,7 +3409,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>16</v>
       </c>
@@ -3460,7 +3459,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>16</v>
       </c>
@@ -3510,7 +3509,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>16</v>
       </c>
@@ -3560,7 +3559,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
@@ -3610,7 +3609,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>16</v>
       </c>
@@ -3660,7 +3659,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>16</v>
       </c>
@@ -3710,7 +3709,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>16</v>
       </c>
@@ -3760,7 +3759,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>16</v>
       </c>
@@ -3810,7 +3809,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>16</v>
       </c>
@@ -3860,7 +3859,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>16</v>
       </c>
@@ -3910,7 +3909,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>16</v>
       </c>
@@ -3960,7 +3959,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>16</v>
       </c>
@@ -4010,7 +4009,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>16</v>
       </c>
@@ -4060,7 +4059,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>16</v>
       </c>
@@ -4110,7 +4109,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>16</v>
       </c>
@@ -4160,7 +4159,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>16</v>
       </c>
@@ -4210,7 +4209,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>16</v>
       </c>
@@ -4260,7 +4259,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="15">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>16</v>
       </c>
@@ -4310,7 +4309,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>16</v>
       </c>
@@ -4360,7 +4359,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>16</v>
       </c>
@@ -4410,7 +4409,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>16</v>
       </c>
@@ -4460,7 +4459,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>16</v>
       </c>
@@ -4510,7 +4509,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>16</v>
       </c>
@@ -4560,7 +4559,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>16</v>
       </c>
@@ -4610,7 +4609,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>16</v>
       </c>
@@ -4660,7 +4659,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>16</v>
       </c>
@@ -4710,7 +4709,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>16</v>
       </c>
@@ -4760,7 +4759,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>16</v>
       </c>
@@ -4810,7 +4809,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>16</v>
       </c>
@@ -4860,7 +4859,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>16</v>
       </c>
@@ -4910,7 +4909,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>16</v>
       </c>
@@ -4960,7 +4959,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>16</v>
       </c>
@@ -5010,7 +5009,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>16</v>
       </c>
@@ -5060,7 +5059,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>16</v>
       </c>
@@ -5110,7 +5109,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>16</v>
       </c>
@@ -5160,7 +5159,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>16</v>
       </c>
@@ -5210,7 +5209,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>16</v>
       </c>
@@ -5260,7 +5259,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>16</v>
       </c>
@@ -5310,7 +5309,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>16</v>
       </c>
@@ -5360,7 +5359,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>16</v>
       </c>
@@ -5410,7 +5409,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>16</v>
       </c>
@@ -5460,7 +5459,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>16</v>
       </c>
@@ -5510,7 +5509,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>16</v>
       </c>
@@ -5560,7 +5559,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>16</v>
       </c>
@@ -5610,7 +5609,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>16</v>
       </c>
@@ -5660,7 +5659,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>16</v>
       </c>
@@ -5710,7 +5709,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>16</v>
       </c>
@@ -5760,7 +5759,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>16</v>
       </c>
@@ -5810,7 +5809,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>16</v>
       </c>
@@ -5860,7 +5859,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>16</v>
       </c>
@@ -5910,7 +5909,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>16</v>
       </c>
@@ -5960,7 +5959,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>16</v>
       </c>
@@ -6010,7 +6009,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>16</v>
       </c>
@@ -6060,7 +6059,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>16</v>
       </c>
@@ -6110,7 +6109,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>16</v>
       </c>
@@ -6160,7 +6159,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>16</v>
       </c>
@@ -6210,7 +6209,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>16</v>
       </c>
@@ -6260,7 +6259,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>16</v>
       </c>
@@ -6310,7 +6309,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>16</v>
       </c>
@@ -6360,7 +6359,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>16</v>
       </c>
@@ -6410,7 +6409,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>16</v>
       </c>
@@ -6460,7 +6459,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="15">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>16</v>
       </c>
@@ -6473,7 +6472,7 @@
       <c r="D93" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="E93" s="11" t="s">
+      <c r="E93" s="1" t="s">
         <v>334</v>
       </c>
       <c r="F93" s="1">
@@ -6510,7 +6509,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>16</v>
       </c>
@@ -6560,7 +6559,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>16</v>
       </c>
@@ -6610,7 +6609,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>16</v>
       </c>
@@ -6660,7 +6659,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="97" spans="1:17">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>16</v>
       </c>
@@ -6710,7 +6709,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="98" spans="1:17">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>16</v>
       </c>
@@ -6760,7 +6759,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="99" spans="1:17">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>16</v>
       </c>
@@ -6810,7 +6809,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="100" spans="1:17">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>16</v>
       </c>
@@ -6860,7 +6859,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="101" spans="1:17">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>16</v>
       </c>
@@ -6910,7 +6909,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="102" spans="1:17">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>16</v>
       </c>
@@ -6960,7 +6959,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="103" spans="1:17">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>16</v>
       </c>
@@ -7010,7 +7009,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="104" spans="1:17" ht="15">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>16</v>
       </c>
@@ -7060,7 +7059,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="105" spans="1:17" ht="15">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>16</v>
       </c>
@@ -7110,7 +7109,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="106" spans="1:17" ht="15">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>16</v>
       </c>
@@ -7160,7 +7159,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="107" spans="1:17" ht="15">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>16</v>
       </c>
@@ -7210,7 +7209,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="108" spans="1:17">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>16</v>
       </c>
@@ -7260,7 +7259,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="109" spans="1:17" ht="15">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>16</v>
       </c>
@@ -7310,7 +7309,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="110" spans="1:17" ht="15">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>16</v>
       </c>
@@ -7361,7 +7360,7 @@
       </c>
       <c r="Q110" s="9"/>
     </row>
-    <row r="111" spans="1:17" ht="15">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>16</v>
       </c>
@@ -7411,7 +7410,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="112" spans="1:17" ht="15">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>16</v>
       </c>
@@ -7461,7 +7460,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="15">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>16</v>
       </c>
@@ -7511,7 +7510,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="15">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>16</v>
       </c>
@@ -7561,17 +7560,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="15"/>
-    <row r="116" spans="1:16" ht="15"/>
-    <row r="117" spans="1:16" ht="15"/>
-    <row r="118" spans="1:16" ht="15"/>
-    <row r="119" spans="1:16" ht="15"/>
-    <row r="120" spans="1:16" ht="15"/>
-    <row r="121" spans="1:16" ht="15"/>
-    <row r="122" spans="1:16" ht="15"/>
-    <row r="123" spans="1:16" ht="15"/>
   </sheetData>
-  <autoFilter ref="A1:P114" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>